--- a/choice-database/Cases/Cases.xlsx
+++ b/choice-database/Cases/Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>Case Name</t>
   </si>
@@ -34,13 +34,16 @@
     <t>Exchange Act</t>
   </si>
   <si>
+    <t>Overturned</t>
+  </si>
+  <si>
     <t>SEC v. Howey</t>
   </si>
   <si>
     <t>SCOTUS</t>
   </si>
   <si>
-    <t>The offer of a land sales and service contract was an "investment contract" within the meaning of the Securities Act of 1933 (15 U.S.C. § 77b) and that the use of the mails and interstate commerce in the offer and sale of these securities was a violation of §5 of the Act, 15 U.S.C. § 77e.</t>
+    <t>The test of whether there is an "investment contract" under the Securities Act is whether the scheme involves an investment of money in a common enterprise with profits to come solely from the efforts of others; and, if that test be satisfied, it is immaterial whether the enterprise is speculative or nonspeculative, or whether there is a sale of property with or without intrinsic value.</t>
   </si>
   <si>
     <t>SEC</t>
@@ -489,7 +492,9 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -511,19 +516,19 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
         <v>1946.0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3">
         <v>1.0</v>
@@ -531,7 +536,9 @@
       <c r="G2" s="3">
         <v>0.0</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -553,19 +560,19 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4">
         <v>1953.0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3">
         <v>1.0</v>
@@ -573,7 +580,9 @@
       <c r="G3" s="3">
         <v>1.0</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -595,19 +604,19 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
         <v>1963.0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3">
         <v>1.0</v>
@@ -615,7 +624,9 @@
       <c r="G4" s="3">
         <v>0.0</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -637,19 +648,19 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4">
         <v>1967.0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3">
         <v>1.0</v>
@@ -657,7 +668,9 @@
       <c r="G5" s="3">
         <v>1.0</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -679,19 +692,19 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4">
         <v>1969.0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3">
         <v>1.0</v>
@@ -699,7 +712,9 @@
       <c r="G6" s="3">
         <v>1.0</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -721,19 +736,19 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4">
         <v>1968.0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3">
         <v>0.0</v>
@@ -741,7 +756,9 @@
       <c r="G7" s="3">
         <v>1.0</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -763,19 +780,19 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4">
         <v>1973.0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="3">
         <v>1.0</v>
@@ -783,7 +800,9 @@
       <c r="G8" s="3">
         <v>1.0</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -805,19 +824,19 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4">
         <v>1974.0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="3">
         <v>1.0</v>
@@ -825,7 +844,9 @@
       <c r="G9" s="3">
         <v>1.0</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -847,19 +868,19 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4">
         <v>1975.0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="3">
         <v>1.0</v>
@@ -867,7 +888,9 @@
       <c r="G10" s="3">
         <v>1.0</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -889,19 +912,19 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4">
         <v>1982.0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="3">
         <v>1.0</v>
@@ -909,7 +932,9 @@
       <c r="G11" s="3">
         <v>1.0</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -931,19 +956,19 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4">
         <v>1984.0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" s="3">
         <v>1.0</v>
@@ -951,7 +976,9 @@
       <c r="G12" s="3">
         <v>1.0</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -973,19 +1000,19 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4">
         <v>1985.0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3">
         <v>1.0</v>
@@ -993,7 +1020,9 @@
       <c r="G13" s="3">
         <v>0.0</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1015,19 +1044,19 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4">
         <v>1990.0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" s="3">
         <v>1.0</v>
@@ -1035,7 +1064,9 @@
       <c r="G14" s="3">
         <v>1.0</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1057,19 +1088,19 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4">
         <v>2004.0</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" s="3">
         <v>0.0</v>
@@ -1077,7 +1108,9 @@
       <c r="G15" s="3">
         <v>1.0</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1099,19 +1132,19 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="4">
         <v>2007.0</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" s="3">
         <v>1.0</v>
@@ -1119,7 +1152,9 @@
       <c r="G16" s="3">
         <v>1.0</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="3">
+        <v>0.0</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>

--- a/choice-database/Cases/Cases.xlsx
+++ b/choice-database/Cases/Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>Case Name</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Holding</t>
+  </si>
+  <si>
+    <t>Substance</t>
   </si>
   <si>
     <t>Verdict</t>
@@ -46,25 +49,37 @@
     <t>The test of whether there is an "investment contract" under the Securities Act is whether the scheme involves an investment of money in a common enterprise with profits to come solely from the efforts of others; and, if that test be satisfied, it is immaterial whether the enterprise is speculative or nonspeculative, or whether there is a sale of property with or without intrinsic value.</t>
   </si>
   <si>
+    <t>In Securities and Exchange Commission v. W. J. Howey Co., 328 U.S. 293 (1946), the Supreme Court held that the sale of land and service contracts was an "investment contract" under the Securities Act of 1933. The Court found that using the mails and interstate commerce to offer and sell these contracts violated §5 of the Act. This case established the Howey test to determine whether an instrument qualifies as an investment contract: it involves a scheme where a person invests money in a common enterprise and expects profits solely from the efforts of the promoter or a third party. This test is fundamental for assessing the applicability of federal securities laws.</t>
+  </si>
+  <si>
     <t>SEC</t>
   </si>
   <si>
     <t>SEC v. Ralston Purina Co.</t>
   </si>
   <si>
-    <t>A corporation offering "key employees" equity stock shares is eligible for a transaction-based exemption from securities registration under Section 4(1) [Now Section 4(a)(2)] of the Securities Act of 1933.</t>
+    <t xml:space="preserve">A corporation offering "key employees" equity stock shares is eligible for a transaction-based exemption from securities registration under Section 4(1) [Now Section 4(a)(2)] of the Securities Act of 1933. </t>
+  </si>
+  <si>
+    <t>Without complying with the registration requirements of the Securities Act of 1933, a corporation offered shares of its stock to a number of its "key employees." These employees were not shown to have had access to the kind of information which registration under the Act would disclose.</t>
   </si>
   <si>
     <t>SEC v. Capital Gains Research Bureau, Inc.</t>
   </si>
   <si>
-    <t>A financial adviser may be required by the SEC, without a showing of intent to deceive, to reveal self-dealing that may affect clients.</t>
+    <t xml:space="preserve">A financial adviser may be required by the SEC, without a showing of intent to deceive, to reveal self-dealing that may affect clients. </t>
+  </si>
+  <si>
+    <t>Under the Investment Advisers Act of 1940, the Securities and Exchange Commission may obtain an injunction compelling a registered investment adviser to disclose to his clients a practice of purchasing shares of a security for his own account shortly before recommending that security for long-term investment and then immediately selling his own shares at a profit upon the rise in the market price following the recommendation, since such a practice "operates as a fraud or deceit upon any client or prospective client" within the meaning of the Act. Pp. 375 U. S. 181-201.</t>
   </si>
   <si>
     <t>Tcherepnin v. Knight</t>
   </si>
   <si>
-    <t>Withdrawable capital share in state-chartered savings and loan association held to be a "security" within the meaning of the Securities Exchange Act of 1934.</t>
+    <t xml:space="preserve">Withdrawable capital share in state-chartered savings and loan association held to be a "security" within the meaning of the Securities Exchange Act of 1934. </t>
+  </si>
+  <si>
+    <t>According to the Court, "Policy considerations lead us to conclude that these petitioners are entitled to the investor protections afforded by the Securities Exchange Act."</t>
   </si>
   <si>
     <t>Tcherepnin</t>
@@ -76,7 +91,10 @@
     <t>D.C. Circuit</t>
   </si>
   <si>
-    <t>The deception alleged here has affected stockholders' decisions in a way not unlike that involved in a typical cash sale or share exchange, and, in light of the broad anti-fraud purposes of § 10(b) of the Securities Exchange Act and SEC Rule 10b-5, which apply "in connection with the purchase or sale of any security," exchanges by Producers' shareholders of their old stock for shares in the new company are "purchases" within the meaning of that statutory language.</t>
+    <t xml:space="preserve">The deception alleged here has affected stockholders' decisions in a way not unlike that involved in a typical cash sale or share exchange, and, in light of the broad anti-fraud purposes of § 10(b) of the Securities Exchange Act and SEC Rule 10b-5, which apply "in connection with the purchase or sale of any security," exchanges by Producers' shareholders of their old stock for shares in the new company are "purchases" within the meaning of that statutory language. </t>
+  </si>
+  <si>
+    <t>The Securities and Exchange Commission (SEC) brought suit against respondent National Securities and persons associated with it, alleging violations of § 10(b) of the Securities Exchange Act and of SEC's Rule 10b-5, arising out of misrepresentations and omissions of material facts in communications sent to shareholders of Producers Life Insurance Co., in an attempt to secure approval of a merger between that company and an insurance firm controlled by National Securities.</t>
   </si>
   <si>
     <t>SEC v. Texas Gulf Sulphur Co.</t>
@@ -85,7 +103,10 @@
     <t>2nd Ciruit</t>
   </si>
   <si>
-    <t>Insider trading violated federal securities law and remained the leading case on insider trading for a decade</t>
+    <t xml:space="preserve">Insider trading violated federal securities law and remained the leading case on insider trading for a decade. </t>
+  </si>
+  <si>
+    <t>SEC v. Texas Gulf Sulphur Co. is a landmark case decided by the United States Court of Appeals for the Second Circuit that established key standards for insider trading laws under Section 10(b) of the Securities Exchange Act and SEC Rule 10b-5. This case defined what constitutes material inside information, how it should be disclosed, and what makes a statement misleading. It was the first time a federal court ruled that insider trading violated federal securities law, and it remained a leading case on this issue for a decade. While the U.S. Supreme Court has adopted some of its principles and rejected others, the case continues to be a significant topic of scholarly discussion.</t>
   </si>
   <si>
     <t>SEC v. Glenn W. Turner Enterprises, Inc.</t>
@@ -94,7 +115,10 @@
     <t>9th Circuit</t>
   </si>
   <si>
-    <t>The Court concludes that the efforts which are significant to the success or failure of this enterprise are those of defendants and that, consequently, their promotion constitutes an offer of an investment contract within the meaning of the Securities Act and the Securities Exchange Act.</t>
+    <t xml:space="preserve">The Court concludes that the efforts which are significant to the success or failure of this enterprise are those of defendants and that, consequently, their promotion constitutes an offer of an investment contract within the meaning of the Securities Act and the Securities Exchange Act. </t>
+  </si>
+  <si>
+    <t>The court stated concluded, the decision in this case does not seek to fundamentally change the definition of a security, nor does it deviate significantly from the Supreme Court's definition of an investment contract established in Howey. The court held that applying the requirement for profits to come 'solely' from the efforts of others in a rigid manner would produce unrealistic outcomes in this context. Therefore, a more flexible approach is warranted.</t>
   </si>
   <si>
     <t>SEC v. Koscot Interplanetary, Inc.</t>
@@ -103,13 +127,19 @@
     <t>5th Circuit</t>
   </si>
   <si>
-    <t>Investment contracts exist when the managerial efforts, not the investor’s, aresubstantial and critical, and the success or failure of the business is contingent upon them.</t>
+    <t xml:space="preserve">Investment contracts exist when the managerial efforts, not the investor’s, aresubstantial and critical, and the success or failure of the business is contingent upon them. </t>
+  </si>
+  <si>
+    <t>The court's ruling is specifically applied to schemes where promoters maintain direct control over crucial managerial functions and where investors' profits are tightly linked to the success of the promoters' plan, distinguishing these from conventional franchise arrangements where promoters have only indirect control. The court acknowledged Justice Brennan’s caution about not assuming federal regulation is achieved merely because it is desirable, emphasizing that the test used must align with the purposes of the Securities Acts. This flexible test is designed to address various schemes promising profits and is particularly suited to cover the problematic promotional scheme at issue.</t>
   </si>
   <si>
     <t>United Housing Foundation v. Forman</t>
   </si>
   <si>
-    <t>The Securities Act does not recognize commercial contracts in stock as securities where the transaction’s purpose is not investment for profit. A transaction labeled a stock purchase is not a security transaction unless it (1) provides the right to dividends dependent on receipt of profits, (2) confers voting rights and (3) is negotiable.</t>
+    <t xml:space="preserve">The Securities Act does not recognize commercial contracts in stock as securities where the transaction’s purpose is not investment for profit. </t>
+  </si>
+  <si>
+    <t>A transaction labeled a stock purchase is not a security transaction unless it (1) provides the right to dividends dependent on receipt of profits, (2) confers voting rights and (3) is negotiable. The respondents, 57 residents of Co-op City, a large cooperative housing project in New York City, sued on behalf of all apartment owners and the housing corporation, alleging violations of the Securities Acts in connection with the sale of shares in the cooperative. They claimed that an information bulletin issued by Co-op City’s developers falsely assured that the developers would cover future cost increases, such as inflation. Under the Mitchell-Lama Act, which encourages private developers to build low-cost housing through state support, the developers, including United Housing Foundation (UHF) and its subsidiaries, must operate on a nonprofit basis. To buy an apartment in Co-op City, a prospective resident must purchase shares of Riverbay stock, which are non-transferable and come with specific restrictions. The petitioners argued that this stock did not qualify as a security under federal law. The District Court agreed and dismissed the complaint, but the Court of Appeals reversed the decision, holding that the shares were securities due to the expectation of financial returns from the cooperative’s operations. However, the Supreme Court held that the shares in question did not constitute securities under the Securities Acts and affirmed the District Court’s dismissal of the case.</t>
   </si>
   <si>
     <t>United Housing Foundation, Inc.</t>
@@ -118,7 +148,10 @@
     <t>Curran v. Merrill Lynch, Pierce, Fenner and Smith, Inc.</t>
   </si>
   <si>
-    <t>A private party may maintain an action for damages caused by a violation of the Commodity Exchange Act (CEA).</t>
+    <t xml:space="preserve">A private party may maintain an action for damages caused by a violation of the Commodity Exchange Act (CEA). </t>
+  </si>
+  <si>
+    <t>The Commodity Exchange Act (CEA), which governs commodity futures trading, was significantly revised by the Commodity Futures Trading Commission Act of 1974. This Act established the Commodity Futures Trading Commission (CFTC), which took over regulatory and enforcement responsibilities from the Secretary of Agriculture and gained the authority to award reparations for CEA violations. However, the 1974 Act, like its predecessors, did not address private judicial remedies for those harmed by CEA violations. The cases in question involved investors suing their futures commission merchants or brokers for antifraud violations, and speculators suing the New York Mercantile Exchange and its officials, as well as futures commission merchants, for damages due to alleged unlawful price manipulation. The District Courts ruled against the plaintiffs, but the Courts of Appeals recognized implied rights of action under the CEA. The Supreme Court held that private parties are indeed entitled to seek damages for violations of the CEA.</t>
   </si>
   <si>
     <t>Curran</t>
@@ -130,7 +163,10 @@
     <t>7th Circuit</t>
   </si>
   <si>
-    <t>Plaintiff's plea that we establish a regulatory framework for the sale of art cannot be answered through the securities laws.</t>
+    <t xml:space="preserve">Plaintiff's plea that we establish a regulatory framework for the sale of art cannot be answered through the securities laws. </t>
+  </si>
+  <si>
+    <t>The court ruled that the plaintiff’s investment in paintings did not qualify as an "investment contract" under the Securities Acts, as it failed to meet the criteria for a common enterprise. The court found no horizontal commonality because the plaintiff did not pool funds or share profits with other investors. It also rejected vertical commonality, noting that the plaintiff’s financial interests were not interwoven with those of the defendants. Therefore, the court affirmed the district court's decision, concluding that the sale of paintings did not constitute a security under the relevant laws.</t>
   </si>
   <si>
     <t>R.H. Love Galleries, Inc.</t>
@@ -139,7 +175,10 @@
     <t>Landreth Timber Co. v. Landreth</t>
   </si>
   <si>
-    <t>Regardless of the stockholder’s role in the corporation management, a sale of shares of stock falls under the protection of the securities laws.</t>
+    <t xml:space="preserve">Regardless of the stockholder’s role in the corporation management, a sale of shares of stock falls under the protection of the securities laws.  </t>
+  </si>
+  <si>
+    <t>The Supreme Court ruled that the stock sold in this case qualifies as a "security" under the Securities Act of 1933 and the Securities Exchange Act of 1934. The court rejected the "sale of business" doctrine, which had been used to argue that the transaction was a commercial venture rather than an investment. The court held that despite the purchasers gaining full managerial control and the stock being part of a business acquisition, it still fell within the definition of a security.</t>
   </si>
   <si>
     <t>Landreth Timber Co.</t>
@@ -148,7 +187,10 @@
     <t>Reves v. Ernst &amp; Young</t>
   </si>
   <si>
-    <t>The demand notes issued by the Co-Op fall under the note category of instruments that are securities.</t>
+    <t xml:space="preserve">The demand notes issued by the Co-Op fall under the note category of instruments that are securities. Reves v. Ernst &amp; Young, 494 U.S. 56 (1990), was a Supreme Court case that addressed whether "uncollateralized and uninsured promissory notes payable on demand by the holder" issued by the Farmers Cooperative of Arkansas and Oklahoma were considered securities under the Securities Exchange Act of 1934. </t>
+  </si>
+  <si>
+    <t>The Court ruled that such promissory notes do qualify as securities. It employed the "family resemblance" test to determine if the notes were akin to traditional securities like bonds and whether they were issued for investment purposes rather than ordinary commercial transactions. This ruling clarified that certain types of promissory notes can fall under federal securities regulations.</t>
   </si>
   <si>
     <t>Reves</t>
@@ -157,7 +199,10 @@
     <t>SEC v. Zandford</t>
   </si>
   <si>
-    <t>The Court held that assuming that the complaint's allegations were true, the securities broker's conduct was in connection with the purchase or sale of any security. Noting that Zandford's practices were not independent events, the Court found that each sale was made to further his fraudulent scheme and that each was deceptive because it was neither authorized by, nor disclosed to, the Woods.</t>
+    <t xml:space="preserve">The Court held that assuming that the complaint's allegations were true, the securities broker's conduct was in connection with the purchase or sale of any security. </t>
+  </si>
+  <si>
+    <t>Noting that Zandford's practices were not independent events, the Court found that each sale was made to further his fraudulent scheme and that each was deceptive because it was neither authorized by, nor disclosed to, the Woods. In this case, an elderly man, William Wood, and his mentally retarded daughter opened a joint investment account with a broker who was granted full discretion and a general power of attorney. After Mr. Wood's death, it was discovered that the broker had used the funds for personal purposes. The broker was indicted for federal wire fraud, and the SEC filed a civil suit alleging violations of § 10 of the Securities Exchange Act of 1934 and SEC Rule 10b-5. The District Court granted summary judgment in favor of the SEC, but the Fourth Circuit reversed, arguing that the fraud did not involve the purchase or sale of securities in a way that affected market integrity or investor understanding. The Supreme Court held that, assuming the allegations were true, the broker's conduct was indeed "in connection with the purchase or sale of any security." The Court emphasized that the Securities Exchange Act should be interpreted broadly to support its goals of maintaining honest markets and promoting investor confidence, thus supporting the SEC's position.</t>
   </si>
   <si>
     <t>SEC v. Merchant Capital, LLC</t>
@@ -168,12 +213,15 @@
   <si>
     <t>Partnership interests in a registered limited liability partnership ("RLLP") were "investment contracts" within the definition of "securities" under the Securities Act of 1933, as amended (the "Securities Act"), and the Securities Exchange Act of 1934, as amended (the "Exchange Act"), and therefore covered by the Federal securities laws.</t>
   </si>
+  <si>
+    <t>The 11th Circuit held that the RLLP interests qualify as investment contracts and are thus covered by federal securities laws, reversing the district court's judgment on this matter. Additionally, they found that the defendants made material misrepresentations and omissions in marketing these interests, contrary to the district court's conclusion. The district court, having been in a better position to address issues of scienter and remedies, should reconsider these matters on remand, taking into account our findings. Consequently, the 11th Circuit  vacated the district court's previous determinations regarding scienter and remedies and remand for further consideration.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -200,14 +248,17 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <color rgb="FF18191A"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="&quot;Times New Roman&quot;"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="3">
@@ -230,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -248,9 +299,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
@@ -469,6 +523,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="34.25"/>
+    <col customWidth="1" min="4" max="5" width="240.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -495,7 +553,9 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -513,33 +573,36 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4">
         <v>1946.0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3">
-        <v>1.0</v>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G2" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H2" s="3">
         <v>0.0</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="3">
+        <v>0.0</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -557,33 +620,36 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4">
         <v>1953.0</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.0</v>
       </c>
       <c r="G3" s="3">
         <v>1.0</v>
       </c>
       <c r="H3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I3" s="3">
         <v>0.0</v>
       </c>
-      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -601,33 +667,36 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4">
         <v>1963.0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
       </c>
-      <c r="F4" s="3">
-        <v>1.0</v>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" s="3">
         <v>0.0</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="3">
+        <v>0.0</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -645,33 +714,36 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
         <v>1967.0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
       </c>
-      <c r="F5" s="3">
-        <v>1.0</v>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G5" s="3">
         <v>1.0</v>
       </c>
       <c r="H5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="3">
         <v>0.0</v>
       </c>
-      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -689,33 +761,36 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4">
         <v>1969.0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
       </c>
-      <c r="F6" s="3">
-        <v>1.0</v>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G6" s="3">
         <v>1.0</v>
       </c>
       <c r="H6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I6" s="3">
         <v>0.0</v>
       </c>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -733,33 +808,36 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4">
         <v>1968.0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3">
         <v>0.0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>1.0</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>0.0</v>
       </c>
-      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -777,33 +855,36 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4">
         <v>1973.0</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>27</v>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
+      <c r="E8" s="7" t="s">
+        <v>35</v>
       </c>
-      <c r="F8" s="3">
-        <v>1.0</v>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G8" s="3">
         <v>1.0</v>
       </c>
       <c r="H8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I8" s="3">
         <v>0.0</v>
       </c>
-      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -821,33 +902,36 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4">
         <v>1974.0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
+      <c r="E9" s="7" t="s">
+        <v>39</v>
       </c>
-      <c r="F9" s="3">
-        <v>1.0</v>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G9" s="3">
         <v>1.0</v>
       </c>
       <c r="H9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I9" s="3">
         <v>0.0</v>
       </c>
-      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -865,33 +949,36 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4">
         <v>1975.0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>33</v>
+      <c r="E10" s="7" t="s">
+        <v>42</v>
       </c>
-      <c r="F10" s="3">
-        <v>1.0</v>
+      <c r="F10" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G10" s="3">
         <v>1.0</v>
       </c>
       <c r="H10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I10" s="3">
         <v>0.0</v>
       </c>
-      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -909,33 +996,36 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4">
         <v>1982.0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
+      <c r="E11" s="7" t="s">
+        <v>46</v>
       </c>
-      <c r="F11" s="3">
-        <v>1.0</v>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="G11" s="3">
         <v>1.0</v>
       </c>
       <c r="H11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I11" s="3">
         <v>0.0</v>
       </c>
-      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -953,33 +1043,36 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4">
         <v>1984.0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>40</v>
+      <c r="E12" s="7" t="s">
+        <v>51</v>
       </c>
-      <c r="F12" s="3">
-        <v>1.0</v>
+      <c r="F12" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G12" s="3">
         <v>1.0</v>
       </c>
       <c r="H12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I12" s="3">
         <v>0.0</v>
       </c>
-      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -997,33 +1090,36 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4">
         <v>1985.0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>43</v>
+      <c r="E13" s="7" t="s">
+        <v>55</v>
       </c>
-      <c r="F13" s="3">
-        <v>1.0</v>
+      <c r="F13" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="G13" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H13" s="3">
         <v>0.0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="3">
+        <v>0.0</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1041,33 +1137,36 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4">
         <v>1990.0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>46</v>
+      <c r="E14" s="7" t="s">
+        <v>59</v>
       </c>
-      <c r="F14" s="3">
-        <v>1.0</v>
+      <c r="F14" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="G14" s="3">
         <v>1.0</v>
       </c>
       <c r="H14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I14" s="3">
         <v>0.0</v>
       </c>
-      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1085,33 +1184,36 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4">
         <v>2004.0</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
+      <c r="E15" s="7" t="s">
+        <v>63</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3">
         <v>0.0</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1.0</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>0.0</v>
       </c>
-      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1129,33 +1231,36 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C16" s="4">
         <v>2007.0</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>51</v>
+      <c r="D16" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
-      <c r="F16" s="3">
-        <v>1.0</v>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G16" s="3">
         <v>1.0</v>
       </c>
       <c r="H16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I16" s="3">
         <v>0.0</v>
       </c>
-      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1173,13 +1278,14 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1201,13 +1307,14 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1229,10 +1336,14 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19">
-      <c r="D19" s="8"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1254,6 +1365,7 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2"/>
@@ -1282,6 +1394,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="2"/>
@@ -1310,6 +1423,7 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2"/>
@@ -1338,6 +1452,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="2"/>
@@ -1366,6 +1481,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="2"/>
@@ -1394,6 +1510,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2"/>
@@ -1422,6 +1539,7 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2"/>
@@ -1450,6 +1568,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2"/>
@@ -1478,6 +1597,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2"/>
@@ -1506,6 +1626,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2"/>
@@ -1534,6 +1655,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2"/>
@@ -1562,6 +1684,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2"/>
@@ -1590,6 +1713,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2"/>
@@ -1618,6 +1742,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2"/>
@@ -1646,6 +1771,7 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2"/>
@@ -1674,6 +1800,7 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2"/>
@@ -1702,6 +1829,7 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2"/>
@@ -1730,6 +1858,7 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="2"/>
@@ -1758,6 +1887,7 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2"/>
@@ -1786,6 +1916,7 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2"/>
@@ -1814,6 +1945,7 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="2"/>
@@ -1842,6 +1974,7 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="2"/>
@@ -1870,6 +2003,7 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="2"/>
@@ -1898,6 +2032,7 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="2"/>
@@ -1926,6 +2061,7 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="2"/>
@@ -1954,6 +2090,7 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="2"/>
@@ -1982,6 +2119,7 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="2"/>
@@ -2010,6 +2148,7 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="2"/>
@@ -2038,6 +2177,7 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="2"/>
@@ -2066,6 +2206,7 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="2"/>
@@ -2094,6 +2235,7 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="2"/>
@@ -2122,6 +2264,7 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="2"/>
@@ -2150,6 +2293,7 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="2"/>
@@ -2178,6 +2322,7 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="2"/>
@@ -2206,6 +2351,7 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="2"/>
@@ -2234,6 +2380,7 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="2"/>
@@ -2262,6 +2409,7 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="2"/>
@@ -2290,6 +2438,7 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="2"/>
@@ -2318,6 +2467,7 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="2"/>
@@ -2346,6 +2496,7 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="2"/>
@@ -2374,6 +2525,7 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="2"/>
@@ -2402,6 +2554,7 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="2"/>
@@ -2430,6 +2583,7 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="2"/>
@@ -2458,6 +2612,7 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="2"/>
@@ -2486,6 +2641,7 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="2"/>
@@ -2514,6 +2670,7 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="2"/>
@@ -2542,6 +2699,7 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="2"/>
@@ -2570,6 +2728,7 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="2"/>
@@ -2598,6 +2757,7 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="2"/>
@@ -2626,6 +2786,7 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="2"/>
@@ -2654,6 +2815,7 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="2"/>
@@ -2682,6 +2844,7 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="2"/>
@@ -2710,6 +2873,7 @@
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="2"/>
@@ -2738,6 +2902,7 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="2"/>
@@ -2766,6 +2931,7 @@
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="2"/>
@@ -2794,6 +2960,7 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" s="2"/>
@@ -2822,6 +2989,7 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" s="2"/>
@@ -2850,6 +3018,7 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="2"/>
@@ -2878,6 +3047,7 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="2"/>
@@ -2906,6 +3076,7 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="2"/>
@@ -2934,6 +3105,7 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" s="2"/>
@@ -2962,6 +3134,7 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" s="2"/>
@@ -2990,6 +3163,7 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" s="2"/>
@@ -3018,6 +3192,7 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" s="2"/>
@@ -3046,6 +3221,7 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" s="2"/>
@@ -3074,6 +3250,7 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" s="2"/>
@@ -3102,6 +3279,7 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" s="2"/>
@@ -3130,6 +3308,7 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" s="2"/>
@@ -3158,6 +3337,7 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" s="2"/>
@@ -3186,6 +3366,7 @@
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" s="2"/>
@@ -3214,6 +3395,7 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" s="2"/>
@@ -3242,6 +3424,7 @@
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" s="2"/>
@@ -3270,6 +3453,7 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
+      <c r="AA91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" s="2"/>
@@ -3298,6 +3482,7 @@
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
+      <c r="AA92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" s="2"/>
@@ -3326,6 +3511,7 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
+      <c r="AA93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" s="2"/>
@@ -3354,6 +3540,7 @@
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
+      <c r="AA94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" s="2"/>
@@ -3382,6 +3569,7 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
+      <c r="AA95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" s="2"/>
@@ -3410,6 +3598,7 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
+      <c r="AA96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" s="2"/>
@@ -3438,6 +3627,7 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
+      <c r="AA97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" s="2"/>
@@ -3466,6 +3656,7 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
+      <c r="AA98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" s="2"/>
@@ -3494,6 +3685,7 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
+      <c r="AA99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" s="2"/>
@@ -3522,6 +3714,7 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
+      <c r="AA100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" s="2"/>
@@ -3550,6 +3743,7 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
+      <c r="AA101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" s="2"/>
@@ -3578,6 +3772,7 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" s="2"/>
@@ -3606,6 +3801,7 @@
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
+      <c r="AA103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" s="2"/>
@@ -3634,6 +3830,7 @@
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
+      <c r="AA104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="2"/>
@@ -3662,6 +3859,7 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
+      <c r="AA105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" s="2"/>
@@ -3690,6 +3888,7 @@
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
+      <c r="AA106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="2"/>
@@ -3718,6 +3917,7 @@
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" s="2"/>
@@ -3746,6 +3946,7 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" s="2"/>
@@ -3774,6 +3975,7 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
+      <c r="AA109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" s="2"/>
@@ -3802,6 +4004,7 @@
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
+      <c r="AA110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" s="2"/>
@@ -3830,6 +4033,7 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
+      <c r="AA111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" s="2"/>
@@ -3858,6 +4062,7 @@
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
+      <c r="AA112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" s="2"/>
@@ -3886,6 +4091,7 @@
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
+      <c r="AA113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" s="2"/>
@@ -3914,6 +4120,7 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
+      <c r="AA114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" s="2"/>
@@ -3942,6 +4149,7 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
+      <c r="AA115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" s="2"/>
@@ -3970,6 +4178,7 @@
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
+      <c r="AA116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" s="2"/>
@@ -3998,6 +4207,7 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
+      <c r="AA117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" s="2"/>
@@ -4026,6 +4236,7 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
+      <c r="AA118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" s="2"/>
@@ -4054,6 +4265,7 @@
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
+      <c r="AA119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" s="2"/>
@@ -4082,6 +4294,7 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
+      <c r="AA120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" s="2"/>
@@ -4110,6 +4323,7 @@
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
+      <c r="AA121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" s="2"/>
@@ -4138,6 +4352,7 @@
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
+      <c r="AA122" s="2"/>
     </row>
     <row r="123">
       <c r="A123" s="2"/>
@@ -4166,6 +4381,7 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
+      <c r="AA123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" s="2"/>
@@ -4194,6 +4410,7 @@
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
+      <c r="AA124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" s="2"/>
@@ -4222,6 +4439,7 @@
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
+      <c r="AA125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" s="2"/>
@@ -4250,6 +4468,7 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
+      <c r="AA126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" s="2"/>
@@ -4278,6 +4497,7 @@
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
+      <c r="AA127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" s="2"/>
@@ -4306,6 +4526,7 @@
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
+      <c r="AA128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" s="2"/>
@@ -4334,6 +4555,7 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
+      <c r="AA129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" s="2"/>
@@ -4362,6 +4584,7 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
+      <c r="AA130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" s="2"/>
@@ -4390,6 +4613,7 @@
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
+      <c r="AA131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" s="2"/>
@@ -4418,6 +4642,7 @@
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
+      <c r="AA132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" s="2"/>
@@ -4446,6 +4671,7 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
+      <c r="AA133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" s="2"/>
@@ -4474,6 +4700,7 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
+      <c r="AA134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" s="2"/>
@@ -4502,6 +4729,7 @@
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
+      <c r="AA135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" s="2"/>
@@ -4530,6 +4758,7 @@
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
+      <c r="AA136" s="2"/>
     </row>
     <row r="137">
       <c r="A137" s="2"/>
@@ -4558,6 +4787,7 @@
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
+      <c r="AA137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" s="2"/>
@@ -4586,6 +4816,7 @@
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
+      <c r="AA138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" s="2"/>
@@ -4614,6 +4845,7 @@
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
+      <c r="AA139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" s="2"/>
@@ -4642,6 +4874,7 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
+      <c r="AA140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" s="2"/>
@@ -4670,6 +4903,7 @@
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
+      <c r="AA141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" s="2"/>
@@ -4698,6 +4932,7 @@
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
+      <c r="AA142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" s="2"/>
@@ -4726,6 +4961,7 @@
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
+      <c r="AA143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" s="2"/>
@@ -4754,6 +4990,7 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
+      <c r="AA144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" s="2"/>
@@ -4782,6 +5019,7 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
+      <c r="AA145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" s="2"/>
@@ -4810,6 +5048,7 @@
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
+      <c r="AA146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" s="2"/>
@@ -4838,6 +5077,7 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
+      <c r="AA147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" s="2"/>
@@ -4866,6 +5106,7 @@
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
+      <c r="AA148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" s="2"/>
@@ -4894,6 +5135,7 @@
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
+      <c r="AA149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" s="2"/>
@@ -4922,6 +5164,7 @@
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
+      <c r="AA150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" s="2"/>
@@ -4950,6 +5193,7 @@
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
+      <c r="AA151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" s="2"/>
@@ -4978,6 +5222,7 @@
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
+      <c r="AA152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" s="2"/>
@@ -5006,6 +5251,7 @@
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
+      <c r="AA153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" s="2"/>
@@ -5034,6 +5280,7 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
+      <c r="AA154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" s="2"/>
@@ -5062,6 +5309,7 @@
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
+      <c r="AA155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" s="2"/>
@@ -5090,6 +5338,7 @@
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
+      <c r="AA156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" s="2"/>
@@ -5118,6 +5367,7 @@
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
+      <c r="AA157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" s="2"/>
@@ -5146,6 +5396,7 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
+      <c r="AA158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" s="2"/>
@@ -5174,6 +5425,7 @@
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
+      <c r="AA159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" s="2"/>
@@ -5202,6 +5454,7 @@
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
+      <c r="AA160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" s="2"/>
@@ -5230,6 +5483,7 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
+      <c r="AA161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" s="2"/>
@@ -5258,6 +5512,7 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
+      <c r="AA162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" s="2"/>
@@ -5286,6 +5541,7 @@
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
+      <c r="AA163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" s="2"/>
@@ -5314,6 +5570,7 @@
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
+      <c r="AA164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" s="2"/>
@@ -5342,6 +5599,7 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
+      <c r="AA165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" s="2"/>
@@ -5370,6 +5628,7 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
+      <c r="AA166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" s="2"/>
@@ -5398,6 +5657,7 @@
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
+      <c r="AA167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" s="2"/>
@@ -5426,6 +5686,7 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
+      <c r="AA168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" s="2"/>
@@ -5454,6 +5715,7 @@
       <c r="X169" s="2"/>
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
+      <c r="AA169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" s="2"/>
@@ -5482,6 +5744,7 @@
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
+      <c r="AA170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" s="2"/>
@@ -5510,6 +5773,7 @@
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
+      <c r="AA171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" s="2"/>
@@ -5538,6 +5802,7 @@
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
+      <c r="AA172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" s="2"/>
@@ -5566,6 +5831,7 @@
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
+      <c r="AA173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" s="2"/>
@@ -5594,6 +5860,7 @@
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
+      <c r="AA174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" s="2"/>
@@ -5622,6 +5889,7 @@
       <c r="X175" s="2"/>
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
+      <c r="AA175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" s="2"/>
@@ -5650,6 +5918,7 @@
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
+      <c r="AA176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" s="2"/>
@@ -5678,6 +5947,7 @@
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
+      <c r="AA177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" s="2"/>
@@ -5706,6 +5976,7 @@
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
+      <c r="AA178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" s="2"/>
@@ -5734,6 +6005,7 @@
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
+      <c r="AA179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" s="2"/>
@@ -5762,6 +6034,7 @@
       <c r="X180" s="2"/>
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
+      <c r="AA180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" s="2"/>
@@ -5790,6 +6063,7 @@
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
+      <c r="AA181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" s="2"/>
@@ -5818,6 +6092,7 @@
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
+      <c r="AA182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" s="2"/>
@@ -5846,6 +6121,7 @@
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
+      <c r="AA183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" s="2"/>
@@ -5874,6 +6150,7 @@
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
+      <c r="AA184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" s="2"/>
@@ -5902,6 +6179,7 @@
       <c r="X185" s="2"/>
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
+      <c r="AA185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" s="2"/>
@@ -5930,6 +6208,7 @@
       <c r="X186" s="2"/>
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
+      <c r="AA186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" s="2"/>
@@ -5958,6 +6237,7 @@
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
+      <c r="AA187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" s="2"/>
@@ -5986,6 +6266,7 @@
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
+      <c r="AA188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" s="2"/>
@@ -6014,6 +6295,7 @@
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
+      <c r="AA189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" s="2"/>
@@ -6042,6 +6324,7 @@
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
+      <c r="AA190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" s="2"/>
@@ -6070,6 +6353,7 @@
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
+      <c r="AA191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" s="2"/>
@@ -6098,6 +6382,7 @@
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
+      <c r="AA192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" s="2"/>
@@ -6126,6 +6411,7 @@
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
+      <c r="AA193" s="2"/>
     </row>
     <row r="194">
       <c r="A194" s="2"/>
@@ -6154,6 +6440,7 @@
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
+      <c r="AA194" s="2"/>
     </row>
     <row r="195">
       <c r="A195" s="2"/>
@@ -6182,6 +6469,7 @@
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
+      <c r="AA195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" s="2"/>
@@ -6210,6 +6498,7 @@
       <c r="X196" s="2"/>
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
+      <c r="AA196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" s="2"/>
@@ -6238,6 +6527,7 @@
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
+      <c r="AA197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" s="2"/>
@@ -6266,6 +6556,7 @@
       <c r="X198" s="2"/>
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
+      <c r="AA198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" s="2"/>
@@ -6294,6 +6585,7 @@
       <c r="X199" s="2"/>
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
+      <c r="AA199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" s="2"/>
@@ -6322,6 +6614,7 @@
       <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
+      <c r="AA200" s="2"/>
     </row>
     <row r="201">
       <c r="A201" s="2"/>
@@ -6350,6 +6643,7 @@
       <c r="X201" s="2"/>
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
+      <c r="AA201" s="2"/>
     </row>
     <row r="202">
       <c r="A202" s="2"/>
@@ -6378,6 +6672,7 @@
       <c r="X202" s="2"/>
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
+      <c r="AA202" s="2"/>
     </row>
     <row r="203">
       <c r="A203" s="2"/>
@@ -6406,6 +6701,7 @@
       <c r="X203" s="2"/>
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
+      <c r="AA203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" s="2"/>
@@ -6434,6 +6730,7 @@
       <c r="X204" s="2"/>
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
+      <c r="AA204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" s="2"/>
@@ -6462,6 +6759,7 @@
       <c r="X205" s="2"/>
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
+      <c r="AA205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" s="2"/>
@@ -6490,6 +6788,7 @@
       <c r="X206" s="2"/>
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
+      <c r="AA206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" s="2"/>
@@ -6518,6 +6817,7 @@
       <c r="X207" s="2"/>
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
+      <c r="AA207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" s="2"/>
@@ -6546,6 +6846,7 @@
       <c r="X208" s="2"/>
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
+      <c r="AA208" s="2"/>
     </row>
     <row r="209">
       <c r="A209" s="2"/>
@@ -6574,6 +6875,7 @@
       <c r="X209" s="2"/>
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
+      <c r="AA209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" s="2"/>
@@ -6602,6 +6904,7 @@
       <c r="X210" s="2"/>
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
+      <c r="AA210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" s="2"/>
@@ -6630,6 +6933,7 @@
       <c r="X211" s="2"/>
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
+      <c r="AA211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" s="2"/>
@@ -6658,6 +6962,7 @@
       <c r="X212" s="2"/>
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
+      <c r="AA212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" s="2"/>
@@ -6686,6 +6991,7 @@
       <c r="X213" s="2"/>
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
+      <c r="AA213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" s="2"/>
@@ -6714,6 +7020,7 @@
       <c r="X214" s="2"/>
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
+      <c r="AA214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" s="2"/>
@@ -6742,6 +7049,7 @@
       <c r="X215" s="2"/>
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
+      <c r="AA215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" s="2"/>
@@ -6770,6 +7078,7 @@
       <c r="X216" s="2"/>
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
+      <c r="AA216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" s="2"/>
@@ -6798,6 +7107,7 @@
       <c r="X217" s="2"/>
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
+      <c r="AA217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" s="2"/>
@@ -6826,6 +7136,7 @@
       <c r="X218" s="2"/>
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
+      <c r="AA218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" s="2"/>
@@ -6854,6 +7165,7 @@
       <c r="X219" s="2"/>
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
+      <c r="AA219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" s="2"/>
@@ -6882,6 +7194,7 @@
       <c r="X220" s="2"/>
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
+      <c r="AA220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" s="2"/>
@@ -6910,6 +7223,7 @@
       <c r="X221" s="2"/>
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
+      <c r="AA221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" s="2"/>
@@ -6938,6 +7252,7 @@
       <c r="X222" s="2"/>
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
+      <c r="AA222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" s="2"/>
@@ -6966,6 +7281,7 @@
       <c r="X223" s="2"/>
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
+      <c r="AA223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" s="2"/>
@@ -6994,6 +7310,7 @@
       <c r="X224" s="2"/>
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
+      <c r="AA224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" s="2"/>
@@ -7022,6 +7339,7 @@
       <c r="X225" s="2"/>
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
+      <c r="AA225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" s="2"/>
@@ -7050,6 +7368,7 @@
       <c r="X226" s="2"/>
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
+      <c r="AA226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" s="2"/>
@@ -7078,6 +7397,7 @@
       <c r="X227" s="2"/>
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
+      <c r="AA227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" s="2"/>
@@ -7106,6 +7426,7 @@
       <c r="X228" s="2"/>
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
+      <c r="AA228" s="2"/>
     </row>
     <row r="229">
       <c r="A229" s="2"/>
@@ -7134,6 +7455,7 @@
       <c r="X229" s="2"/>
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
+      <c r="AA229" s="2"/>
     </row>
     <row r="230">
       <c r="A230" s="2"/>
@@ -7162,6 +7484,7 @@
       <c r="X230" s="2"/>
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
+      <c r="AA230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" s="2"/>
@@ -7190,6 +7513,7 @@
       <c r="X231" s="2"/>
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
+      <c r="AA231" s="2"/>
     </row>
     <row r="232">
       <c r="A232" s="2"/>
@@ -7218,6 +7542,7 @@
       <c r="X232" s="2"/>
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
+      <c r="AA232" s="2"/>
     </row>
     <row r="233">
       <c r="A233" s="2"/>
@@ -7246,6 +7571,7 @@
       <c r="X233" s="2"/>
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
+      <c r="AA233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" s="2"/>
@@ -7274,6 +7600,7 @@
       <c r="X234" s="2"/>
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
+      <c r="AA234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" s="2"/>
@@ -7302,6 +7629,7 @@
       <c r="X235" s="2"/>
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
+      <c r="AA235" s="2"/>
     </row>
     <row r="236">
       <c r="A236" s="2"/>
@@ -7330,6 +7658,7 @@
       <c r="X236" s="2"/>
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
+      <c r="AA236" s="2"/>
     </row>
     <row r="237">
       <c r="A237" s="2"/>
@@ -7358,6 +7687,7 @@
       <c r="X237" s="2"/>
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
+      <c r="AA237" s="2"/>
     </row>
     <row r="238">
       <c r="A238" s="2"/>
@@ -7386,6 +7716,7 @@
       <c r="X238" s="2"/>
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
+      <c r="AA238" s="2"/>
     </row>
     <row r="239">
       <c r="A239" s="2"/>
@@ -7414,6 +7745,7 @@
       <c r="X239" s="2"/>
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
+      <c r="AA239" s="2"/>
     </row>
     <row r="240">
       <c r="A240" s="2"/>
@@ -7442,6 +7774,7 @@
       <c r="X240" s="2"/>
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
+      <c r="AA240" s="2"/>
     </row>
     <row r="241">
       <c r="A241" s="2"/>
@@ -7470,6 +7803,7 @@
       <c r="X241" s="2"/>
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
+      <c r="AA241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" s="2"/>
@@ -7498,6 +7832,7 @@
       <c r="X242" s="2"/>
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
+      <c r="AA242" s="2"/>
     </row>
     <row r="243">
       <c r="A243" s="2"/>
@@ -7526,6 +7861,7 @@
       <c r="X243" s="2"/>
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
+      <c r="AA243" s="2"/>
     </row>
     <row r="244">
       <c r="A244" s="2"/>
@@ -7554,6 +7890,7 @@
       <c r="X244" s="2"/>
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
+      <c r="AA244" s="2"/>
     </row>
     <row r="245">
       <c r="A245" s="2"/>
@@ -7582,6 +7919,7 @@
       <c r="X245" s="2"/>
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
+      <c r="AA245" s="2"/>
     </row>
     <row r="246">
       <c r="A246" s="2"/>
@@ -7610,6 +7948,7 @@
       <c r="X246" s="2"/>
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
+      <c r="AA246" s="2"/>
     </row>
     <row r="247">
       <c r="A247" s="2"/>
@@ -7638,6 +7977,7 @@
       <c r="X247" s="2"/>
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
+      <c r="AA247" s="2"/>
     </row>
     <row r="248">
       <c r="A248" s="2"/>
@@ -7666,6 +8006,7 @@
       <c r="X248" s="2"/>
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
+      <c r="AA248" s="2"/>
     </row>
     <row r="249">
       <c r="A249" s="2"/>
@@ -7694,6 +8035,7 @@
       <c r="X249" s="2"/>
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
+      <c r="AA249" s="2"/>
     </row>
     <row r="250">
       <c r="A250" s="2"/>
@@ -7722,6 +8064,7 @@
       <c r="X250" s="2"/>
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
+      <c r="AA250" s="2"/>
     </row>
     <row r="251">
       <c r="A251" s="2"/>
@@ -7750,6 +8093,7 @@
       <c r="X251" s="2"/>
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
+      <c r="AA251" s="2"/>
     </row>
     <row r="252">
       <c r="A252" s="2"/>
@@ -7778,6 +8122,7 @@
       <c r="X252" s="2"/>
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
+      <c r="AA252" s="2"/>
     </row>
     <row r="253">
       <c r="A253" s="2"/>
@@ -7806,6 +8151,7 @@
       <c r="X253" s="2"/>
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
+      <c r="AA253" s="2"/>
     </row>
     <row r="254">
       <c r="A254" s="2"/>
@@ -7834,6 +8180,7 @@
       <c r="X254" s="2"/>
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
+      <c r="AA254" s="2"/>
     </row>
     <row r="255">
       <c r="A255" s="2"/>
@@ -7862,6 +8209,7 @@
       <c r="X255" s="2"/>
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
+      <c r="AA255" s="2"/>
     </row>
     <row r="256">
       <c r="A256" s="2"/>
@@ -7890,6 +8238,7 @@
       <c r="X256" s="2"/>
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
+      <c r="AA256" s="2"/>
     </row>
     <row r="257">
       <c r="A257" s="2"/>
@@ -7918,6 +8267,7 @@
       <c r="X257" s="2"/>
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
+      <c r="AA257" s="2"/>
     </row>
     <row r="258">
       <c r="A258" s="2"/>
@@ -7946,6 +8296,7 @@
       <c r="X258" s="2"/>
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
+      <c r="AA258" s="2"/>
     </row>
     <row r="259">
       <c r="A259" s="2"/>
@@ -7974,6 +8325,7 @@
       <c r="X259" s="2"/>
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
+      <c r="AA259" s="2"/>
     </row>
     <row r="260">
       <c r="A260" s="2"/>
@@ -8002,6 +8354,7 @@
       <c r="X260" s="2"/>
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
+      <c r="AA260" s="2"/>
     </row>
     <row r="261">
       <c r="A261" s="2"/>
@@ -8030,6 +8383,7 @@
       <c r="X261" s="2"/>
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
+      <c r="AA261" s="2"/>
     </row>
     <row r="262">
       <c r="A262" s="2"/>
@@ -8058,6 +8412,7 @@
       <c r="X262" s="2"/>
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
+      <c r="AA262" s="2"/>
     </row>
     <row r="263">
       <c r="A263" s="2"/>
@@ -8086,6 +8441,7 @@
       <c r="X263" s="2"/>
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
+      <c r="AA263" s="2"/>
     </row>
     <row r="264">
       <c r="A264" s="2"/>
@@ -8114,6 +8470,7 @@
       <c r="X264" s="2"/>
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
+      <c r="AA264" s="2"/>
     </row>
     <row r="265">
       <c r="A265" s="2"/>
@@ -8142,6 +8499,7 @@
       <c r="X265" s="2"/>
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
+      <c r="AA265" s="2"/>
     </row>
     <row r="266">
       <c r="A266" s="2"/>
@@ -8170,6 +8528,7 @@
       <c r="X266" s="2"/>
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
+      <c r="AA266" s="2"/>
     </row>
     <row r="267">
       <c r="A267" s="2"/>
@@ -8198,6 +8557,7 @@
       <c r="X267" s="2"/>
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
+      <c r="AA267" s="2"/>
     </row>
     <row r="268">
       <c r="A268" s="2"/>
@@ -8226,6 +8586,7 @@
       <c r="X268" s="2"/>
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
+      <c r="AA268" s="2"/>
     </row>
     <row r="269">
       <c r="A269" s="2"/>
@@ -8254,6 +8615,7 @@
       <c r="X269" s="2"/>
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
+      <c r="AA269" s="2"/>
     </row>
     <row r="270">
       <c r="A270" s="2"/>
@@ -8282,6 +8644,7 @@
       <c r="X270" s="2"/>
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
+      <c r="AA270" s="2"/>
     </row>
     <row r="271">
       <c r="A271" s="2"/>
@@ -8310,6 +8673,7 @@
       <c r="X271" s="2"/>
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
+      <c r="AA271" s="2"/>
     </row>
     <row r="272">
       <c r="A272" s="2"/>
@@ -8338,6 +8702,7 @@
       <c r="X272" s="2"/>
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
+      <c r="AA272" s="2"/>
     </row>
     <row r="273">
       <c r="A273" s="2"/>
@@ -8366,6 +8731,7 @@
       <c r="X273" s="2"/>
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
+      <c r="AA273" s="2"/>
     </row>
     <row r="274">
       <c r="A274" s="2"/>
@@ -8394,6 +8760,7 @@
       <c r="X274" s="2"/>
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
+      <c r="AA274" s="2"/>
     </row>
     <row r="275">
       <c r="A275" s="2"/>
@@ -8422,6 +8789,7 @@
       <c r="X275" s="2"/>
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
+      <c r="AA275" s="2"/>
     </row>
     <row r="276">
       <c r="A276" s="2"/>
@@ -8450,6 +8818,7 @@
       <c r="X276" s="2"/>
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
+      <c r="AA276" s="2"/>
     </row>
     <row r="277">
       <c r="A277" s="2"/>
@@ -8478,6 +8847,7 @@
       <c r="X277" s="2"/>
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
+      <c r="AA277" s="2"/>
     </row>
     <row r="278">
       <c r="A278" s="2"/>
@@ -8506,6 +8876,7 @@
       <c r="X278" s="2"/>
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
+      <c r="AA278" s="2"/>
     </row>
     <row r="279">
       <c r="A279" s="2"/>
@@ -8534,6 +8905,7 @@
       <c r="X279" s="2"/>
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
+      <c r="AA279" s="2"/>
     </row>
     <row r="280">
       <c r="A280" s="2"/>
@@ -8562,6 +8934,7 @@
       <c r="X280" s="2"/>
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
+      <c r="AA280" s="2"/>
     </row>
     <row r="281">
       <c r="A281" s="2"/>
@@ -8590,6 +8963,7 @@
       <c r="X281" s="2"/>
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
+      <c r="AA281" s="2"/>
     </row>
     <row r="282">
       <c r="A282" s="2"/>
@@ -8618,6 +8992,7 @@
       <c r="X282" s="2"/>
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
+      <c r="AA282" s="2"/>
     </row>
     <row r="283">
       <c r="A283" s="2"/>
@@ -8646,6 +9021,7 @@
       <c r="X283" s="2"/>
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
+      <c r="AA283" s="2"/>
     </row>
     <row r="284">
       <c r="A284" s="2"/>
@@ -8674,6 +9050,7 @@
       <c r="X284" s="2"/>
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
+      <c r="AA284" s="2"/>
     </row>
     <row r="285">
       <c r="A285" s="2"/>
@@ -8702,6 +9079,7 @@
       <c r="X285" s="2"/>
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
+      <c r="AA285" s="2"/>
     </row>
     <row r="286">
       <c r="A286" s="2"/>
@@ -8730,6 +9108,7 @@
       <c r="X286" s="2"/>
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
+      <c r="AA286" s="2"/>
     </row>
     <row r="287">
       <c r="A287" s="2"/>
@@ -8758,6 +9137,7 @@
       <c r="X287" s="2"/>
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
+      <c r="AA287" s="2"/>
     </row>
     <row r="288">
       <c r="A288" s="2"/>
@@ -8786,6 +9166,7 @@
       <c r="X288" s="2"/>
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
+      <c r="AA288" s="2"/>
     </row>
     <row r="289">
       <c r="A289" s="2"/>
@@ -8814,6 +9195,7 @@
       <c r="X289" s="2"/>
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
+      <c r="AA289" s="2"/>
     </row>
     <row r="290">
       <c r="A290" s="2"/>
@@ -8842,6 +9224,7 @@
       <c r="X290" s="2"/>
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
+      <c r="AA290" s="2"/>
     </row>
     <row r="291">
       <c r="A291" s="2"/>
@@ -8870,6 +9253,7 @@
       <c r="X291" s="2"/>
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
+      <c r="AA291" s="2"/>
     </row>
     <row r="292">
       <c r="A292" s="2"/>
@@ -8898,6 +9282,7 @@
       <c r="X292" s="2"/>
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
+      <c r="AA292" s="2"/>
     </row>
     <row r="293">
       <c r="A293" s="2"/>
@@ -8926,6 +9311,7 @@
       <c r="X293" s="2"/>
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
+      <c r="AA293" s="2"/>
     </row>
     <row r="294">
       <c r="A294" s="2"/>
@@ -8954,6 +9340,7 @@
       <c r="X294" s="2"/>
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
+      <c r="AA294" s="2"/>
     </row>
     <row r="295">
       <c r="A295" s="2"/>
@@ -8982,6 +9369,7 @@
       <c r="X295" s="2"/>
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
+      <c r="AA295" s="2"/>
     </row>
     <row r="296">
       <c r="A296" s="2"/>
@@ -9010,6 +9398,7 @@
       <c r="X296" s="2"/>
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
+      <c r="AA296" s="2"/>
     </row>
     <row r="297">
       <c r="A297" s="2"/>
@@ -9038,6 +9427,7 @@
       <c r="X297" s="2"/>
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
+      <c r="AA297" s="2"/>
     </row>
     <row r="298">
       <c r="A298" s="2"/>
@@ -9066,6 +9456,7 @@
       <c r="X298" s="2"/>
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
+      <c r="AA298" s="2"/>
     </row>
     <row r="299">
       <c r="A299" s="2"/>
@@ -9094,6 +9485,7 @@
       <c r="X299" s="2"/>
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
+      <c r="AA299" s="2"/>
     </row>
     <row r="300">
       <c r="A300" s="2"/>
@@ -9122,6 +9514,7 @@
       <c r="X300" s="2"/>
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
+      <c r="AA300" s="2"/>
     </row>
     <row r="301">
       <c r="A301" s="2"/>
@@ -9150,6 +9543,7 @@
       <c r="X301" s="2"/>
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
+      <c r="AA301" s="2"/>
     </row>
     <row r="302">
       <c r="A302" s="2"/>
@@ -9178,6 +9572,7 @@
       <c r="X302" s="2"/>
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
+      <c r="AA302" s="2"/>
     </row>
     <row r="303">
       <c r="A303" s="2"/>
@@ -9206,6 +9601,7 @@
       <c r="X303" s="2"/>
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
+      <c r="AA303" s="2"/>
     </row>
     <row r="304">
       <c r="A304" s="2"/>
@@ -9234,6 +9630,7 @@
       <c r="X304" s="2"/>
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
+      <c r="AA304" s="2"/>
     </row>
     <row r="305">
       <c r="A305" s="2"/>
@@ -9262,6 +9659,7 @@
       <c r="X305" s="2"/>
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
+      <c r="AA305" s="2"/>
     </row>
     <row r="306">
       <c r="A306" s="2"/>
@@ -9290,6 +9688,7 @@
       <c r="X306" s="2"/>
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
+      <c r="AA306" s="2"/>
     </row>
     <row r="307">
       <c r="A307" s="2"/>
@@ -9318,6 +9717,7 @@
       <c r="X307" s="2"/>
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
+      <c r="AA307" s="2"/>
     </row>
     <row r="308">
       <c r="A308" s="2"/>
@@ -9346,6 +9746,7 @@
       <c r="X308" s="2"/>
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
+      <c r="AA308" s="2"/>
     </row>
     <row r="309">
       <c r="A309" s="2"/>
@@ -9374,6 +9775,7 @@
       <c r="X309" s="2"/>
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
+      <c r="AA309" s="2"/>
     </row>
     <row r="310">
       <c r="A310" s="2"/>
@@ -9402,6 +9804,7 @@
       <c r="X310" s="2"/>
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
+      <c r="AA310" s="2"/>
     </row>
     <row r="311">
       <c r="A311" s="2"/>
@@ -9430,6 +9833,7 @@
       <c r="X311" s="2"/>
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
+      <c r="AA311" s="2"/>
     </row>
     <row r="312">
       <c r="A312" s="2"/>
@@ -9458,6 +9862,7 @@
       <c r="X312" s="2"/>
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
+      <c r="AA312" s="2"/>
     </row>
     <row r="313">
       <c r="A313" s="2"/>
@@ -9486,6 +9891,7 @@
       <c r="X313" s="2"/>
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
+      <c r="AA313" s="2"/>
     </row>
     <row r="314">
       <c r="A314" s="2"/>
@@ -9514,6 +9920,7 @@
       <c r="X314" s="2"/>
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
+      <c r="AA314" s="2"/>
     </row>
     <row r="315">
       <c r="A315" s="2"/>
@@ -9542,6 +9949,7 @@
       <c r="X315" s="2"/>
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
+      <c r="AA315" s="2"/>
     </row>
     <row r="316">
       <c r="A316" s="2"/>
@@ -9570,6 +9978,7 @@
       <c r="X316" s="2"/>
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
+      <c r="AA316" s="2"/>
     </row>
     <row r="317">
       <c r="A317" s="2"/>
@@ -9598,6 +10007,7 @@
       <c r="X317" s="2"/>
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
+      <c r="AA317" s="2"/>
     </row>
     <row r="318">
       <c r="A318" s="2"/>
@@ -9626,6 +10036,7 @@
       <c r="X318" s="2"/>
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
+      <c r="AA318" s="2"/>
     </row>
     <row r="319">
       <c r="A319" s="2"/>
@@ -9654,6 +10065,7 @@
       <c r="X319" s="2"/>
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
+      <c r="AA319" s="2"/>
     </row>
     <row r="320">
       <c r="A320" s="2"/>
@@ -9682,6 +10094,7 @@
       <c r="X320" s="2"/>
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
+      <c r="AA320" s="2"/>
     </row>
     <row r="321">
       <c r="A321" s="2"/>
@@ -9710,6 +10123,7 @@
       <c r="X321" s="2"/>
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
+      <c r="AA321" s="2"/>
     </row>
     <row r="322">
       <c r="A322" s="2"/>
@@ -9738,6 +10152,7 @@
       <c r="X322" s="2"/>
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
+      <c r="AA322" s="2"/>
     </row>
     <row r="323">
       <c r="A323" s="2"/>
@@ -9766,6 +10181,7 @@
       <c r="X323" s="2"/>
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
+      <c r="AA323" s="2"/>
     </row>
     <row r="324">
       <c r="A324" s="2"/>
@@ -9794,6 +10210,7 @@
       <c r="X324" s="2"/>
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
+      <c r="AA324" s="2"/>
     </row>
     <row r="325">
       <c r="A325" s="2"/>
@@ -9822,6 +10239,7 @@
       <c r="X325" s="2"/>
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
+      <c r="AA325" s="2"/>
     </row>
     <row r="326">
       <c r="A326" s="2"/>
@@ -9850,6 +10268,7 @@
       <c r="X326" s="2"/>
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
+      <c r="AA326" s="2"/>
     </row>
     <row r="327">
       <c r="A327" s="2"/>
@@ -9878,6 +10297,7 @@
       <c r="X327" s="2"/>
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
+      <c r="AA327" s="2"/>
     </row>
     <row r="328">
       <c r="A328" s="2"/>
@@ -9906,6 +10326,7 @@
       <c r="X328" s="2"/>
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
+      <c r="AA328" s="2"/>
     </row>
     <row r="329">
       <c r="A329" s="2"/>
@@ -9934,6 +10355,7 @@
       <c r="X329" s="2"/>
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
+      <c r="AA329" s="2"/>
     </row>
     <row r="330">
       <c r="A330" s="2"/>
@@ -9962,6 +10384,7 @@
       <c r="X330" s="2"/>
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
+      <c r="AA330" s="2"/>
     </row>
     <row r="331">
       <c r="A331" s="2"/>
@@ -9990,6 +10413,7 @@
       <c r="X331" s="2"/>
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
+      <c r="AA331" s="2"/>
     </row>
     <row r="332">
       <c r="A332" s="2"/>
@@ -10018,6 +10442,7 @@
       <c r="X332" s="2"/>
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
+      <c r="AA332" s="2"/>
     </row>
     <row r="333">
       <c r="A333" s="2"/>
@@ -10046,6 +10471,7 @@
       <c r="X333" s="2"/>
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
+      <c r="AA333" s="2"/>
     </row>
     <row r="334">
       <c r="A334" s="2"/>
@@ -10074,6 +10500,7 @@
       <c r="X334" s="2"/>
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
+      <c r="AA334" s="2"/>
     </row>
     <row r="335">
       <c r="A335" s="2"/>
@@ -10102,6 +10529,7 @@
       <c r="X335" s="2"/>
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
+      <c r="AA335" s="2"/>
     </row>
     <row r="336">
       <c r="A336" s="2"/>
@@ -10130,6 +10558,7 @@
       <c r="X336" s="2"/>
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
+      <c r="AA336" s="2"/>
     </row>
     <row r="337">
       <c r="A337" s="2"/>
@@ -10158,6 +10587,7 @@
       <c r="X337" s="2"/>
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
+      <c r="AA337" s="2"/>
     </row>
     <row r="338">
       <c r="A338" s="2"/>
@@ -10186,6 +10616,7 @@
       <c r="X338" s="2"/>
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
+      <c r="AA338" s="2"/>
     </row>
     <row r="339">
       <c r="A339" s="2"/>
@@ -10214,6 +10645,7 @@
       <c r="X339" s="2"/>
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
+      <c r="AA339" s="2"/>
     </row>
     <row r="340">
       <c r="A340" s="2"/>
@@ -10242,6 +10674,7 @@
       <c r="X340" s="2"/>
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
+      <c r="AA340" s="2"/>
     </row>
     <row r="341">
       <c r="A341" s="2"/>
@@ -10270,6 +10703,7 @@
       <c r="X341" s="2"/>
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
+      <c r="AA341" s="2"/>
     </row>
     <row r="342">
       <c r="A342" s="2"/>
@@ -10298,6 +10732,7 @@
       <c r="X342" s="2"/>
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
+      <c r="AA342" s="2"/>
     </row>
     <row r="343">
       <c r="A343" s="2"/>
@@ -10326,6 +10761,7 @@
       <c r="X343" s="2"/>
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
+      <c r="AA343" s="2"/>
     </row>
     <row r="344">
       <c r="A344" s="2"/>
@@ -10354,6 +10790,7 @@
       <c r="X344" s="2"/>
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
+      <c r="AA344" s="2"/>
     </row>
     <row r="345">
       <c r="A345" s="2"/>
@@ -10382,6 +10819,7 @@
       <c r="X345" s="2"/>
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
+      <c r="AA345" s="2"/>
     </row>
     <row r="346">
       <c r="A346" s="2"/>
@@ -10410,6 +10848,7 @@
       <c r="X346" s="2"/>
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
+      <c r="AA346" s="2"/>
     </row>
     <row r="347">
       <c r="A347" s="2"/>
@@ -10438,6 +10877,7 @@
       <c r="X347" s="2"/>
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
+      <c r="AA347" s="2"/>
     </row>
     <row r="348">
       <c r="A348" s="2"/>
@@ -10466,6 +10906,7 @@
       <c r="X348" s="2"/>
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
+      <c r="AA348" s="2"/>
     </row>
     <row r="349">
       <c r="A349" s="2"/>
@@ -10494,6 +10935,7 @@
       <c r="X349" s="2"/>
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
+      <c r="AA349" s="2"/>
     </row>
     <row r="350">
       <c r="A350" s="2"/>
@@ -10522,6 +10964,7 @@
       <c r="X350" s="2"/>
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
+      <c r="AA350" s="2"/>
     </row>
     <row r="351">
       <c r="A351" s="2"/>
@@ -10550,6 +10993,7 @@
       <c r="X351" s="2"/>
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
+      <c r="AA351" s="2"/>
     </row>
     <row r="352">
       <c r="A352" s="2"/>
@@ -10578,6 +11022,7 @@
       <c r="X352" s="2"/>
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
+      <c r="AA352" s="2"/>
     </row>
     <row r="353">
       <c r="A353" s="2"/>
@@ -10606,6 +11051,7 @@
       <c r="X353" s="2"/>
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
+      <c r="AA353" s="2"/>
     </row>
     <row r="354">
       <c r="A354" s="2"/>
@@ -10634,6 +11080,7 @@
       <c r="X354" s="2"/>
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
+      <c r="AA354" s="2"/>
     </row>
     <row r="355">
       <c r="A355" s="2"/>
@@ -10662,6 +11109,7 @@
       <c r="X355" s="2"/>
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
+      <c r="AA355" s="2"/>
     </row>
     <row r="356">
       <c r="A356" s="2"/>
@@ -10690,6 +11138,7 @@
       <c r="X356" s="2"/>
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
+      <c r="AA356" s="2"/>
     </row>
     <row r="357">
       <c r="A357" s="2"/>
@@ -10718,6 +11167,7 @@
       <c r="X357" s="2"/>
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
+      <c r="AA357" s="2"/>
     </row>
     <row r="358">
       <c r="A358" s="2"/>
@@ -10746,6 +11196,7 @@
       <c r="X358" s="2"/>
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
+      <c r="AA358" s="2"/>
     </row>
     <row r="359">
       <c r="A359" s="2"/>
@@ -10774,6 +11225,7 @@
       <c r="X359" s="2"/>
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
+      <c r="AA359" s="2"/>
     </row>
     <row r="360">
       <c r="A360" s="2"/>
@@ -10802,6 +11254,7 @@
       <c r="X360" s="2"/>
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
+      <c r="AA360" s="2"/>
     </row>
     <row r="361">
       <c r="A361" s="2"/>
@@ -10830,6 +11283,7 @@
       <c r="X361" s="2"/>
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
+      <c r="AA361" s="2"/>
     </row>
     <row r="362">
       <c r="A362" s="2"/>
@@ -10858,6 +11312,7 @@
       <c r="X362" s="2"/>
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
+      <c r="AA362" s="2"/>
     </row>
     <row r="363">
       <c r="A363" s="2"/>
@@ -10886,6 +11341,7 @@
       <c r="X363" s="2"/>
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
+      <c r="AA363" s="2"/>
     </row>
     <row r="364">
       <c r="A364" s="2"/>
@@ -10914,6 +11370,7 @@
       <c r="X364" s="2"/>
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
+      <c r="AA364" s="2"/>
     </row>
     <row r="365">
       <c r="A365" s="2"/>
@@ -10942,6 +11399,7 @@
       <c r="X365" s="2"/>
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
+      <c r="AA365" s="2"/>
     </row>
     <row r="366">
       <c r="A366" s="2"/>
@@ -10970,6 +11428,7 @@
       <c r="X366" s="2"/>
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
+      <c r="AA366" s="2"/>
     </row>
     <row r="367">
       <c r="A367" s="2"/>
@@ -10998,6 +11457,7 @@
       <c r="X367" s="2"/>
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
+      <c r="AA367" s="2"/>
     </row>
     <row r="368">
       <c r="A368" s="2"/>
@@ -11026,6 +11486,7 @@
       <c r="X368" s="2"/>
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
+      <c r="AA368" s="2"/>
     </row>
     <row r="369">
       <c r="A369" s="2"/>
@@ -11054,6 +11515,7 @@
       <c r="X369" s="2"/>
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
+      <c r="AA369" s="2"/>
     </row>
     <row r="370">
       <c r="A370" s="2"/>
@@ -11082,6 +11544,7 @@
       <c r="X370" s="2"/>
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
+      <c r="AA370" s="2"/>
     </row>
     <row r="371">
       <c r="A371" s="2"/>
@@ -11110,6 +11573,7 @@
       <c r="X371" s="2"/>
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
+      <c r="AA371" s="2"/>
     </row>
     <row r="372">
       <c r="A372" s="2"/>
@@ -11138,6 +11602,7 @@
       <c r="X372" s="2"/>
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
+      <c r="AA372" s="2"/>
     </row>
     <row r="373">
       <c r="A373" s="2"/>
@@ -11166,6 +11631,7 @@
       <c r="X373" s="2"/>
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
+      <c r="AA373" s="2"/>
     </row>
     <row r="374">
       <c r="A374" s="2"/>
@@ -11194,6 +11660,7 @@
       <c r="X374" s="2"/>
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
+      <c r="AA374" s="2"/>
     </row>
     <row r="375">
       <c r="A375" s="2"/>
@@ -11222,6 +11689,7 @@
       <c r="X375" s="2"/>
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
+      <c r="AA375" s="2"/>
     </row>
     <row r="376">
       <c r="A376" s="2"/>
@@ -11250,6 +11718,7 @@
       <c r="X376" s="2"/>
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
+      <c r="AA376" s="2"/>
     </row>
     <row r="377">
       <c r="A377" s="2"/>
@@ -11278,6 +11747,7 @@
       <c r="X377" s="2"/>
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
+      <c r="AA377" s="2"/>
     </row>
     <row r="378">
       <c r="A378" s="2"/>
@@ -11306,6 +11776,7 @@
       <c r="X378" s="2"/>
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
+      <c r="AA378" s="2"/>
     </row>
     <row r="379">
       <c r="A379" s="2"/>
@@ -11334,6 +11805,7 @@
       <c r="X379" s="2"/>
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
+      <c r="AA379" s="2"/>
     </row>
     <row r="380">
       <c r="A380" s="2"/>
@@ -11362,6 +11834,7 @@
       <c r="X380" s="2"/>
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
+      <c r="AA380" s="2"/>
     </row>
     <row r="381">
       <c r="A381" s="2"/>
@@ -11390,6 +11863,7 @@
       <c r="X381" s="2"/>
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
+      <c r="AA381" s="2"/>
     </row>
     <row r="382">
       <c r="A382" s="2"/>
@@ -11418,6 +11892,7 @@
       <c r="X382" s="2"/>
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
+      <c r="AA382" s="2"/>
     </row>
     <row r="383">
       <c r="A383" s="2"/>
@@ -11446,6 +11921,7 @@
       <c r="X383" s="2"/>
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
+      <c r="AA383" s="2"/>
     </row>
     <row r="384">
       <c r="A384" s="2"/>
@@ -11474,6 +11950,7 @@
       <c r="X384" s="2"/>
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
+      <c r="AA384" s="2"/>
     </row>
     <row r="385">
       <c r="A385" s="2"/>
@@ -11502,6 +11979,7 @@
       <c r="X385" s="2"/>
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
+      <c r="AA385" s="2"/>
     </row>
     <row r="386">
       <c r="A386" s="2"/>
@@ -11530,6 +12008,7 @@
       <c r="X386" s="2"/>
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
+      <c r="AA386" s="2"/>
     </row>
     <row r="387">
       <c r="A387" s="2"/>
@@ -11558,6 +12037,7 @@
       <c r="X387" s="2"/>
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
+      <c r="AA387" s="2"/>
     </row>
     <row r="388">
       <c r="A388" s="2"/>
@@ -11586,6 +12066,7 @@
       <c r="X388" s="2"/>
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
+      <c r="AA388" s="2"/>
     </row>
     <row r="389">
       <c r="A389" s="2"/>
@@ -11614,6 +12095,7 @@
       <c r="X389" s="2"/>
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
+      <c r="AA389" s="2"/>
     </row>
     <row r="390">
       <c r="A390" s="2"/>
@@ -11642,6 +12124,7 @@
       <c r="X390" s="2"/>
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
+      <c r="AA390" s="2"/>
     </row>
     <row r="391">
       <c r="A391" s="2"/>
@@ -11670,6 +12153,7 @@
       <c r="X391" s="2"/>
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
+      <c r="AA391" s="2"/>
     </row>
     <row r="392">
       <c r="A392" s="2"/>
@@ -11698,6 +12182,7 @@
       <c r="X392" s="2"/>
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
+      <c r="AA392" s="2"/>
     </row>
     <row r="393">
       <c r="A393" s="2"/>
@@ -11726,6 +12211,7 @@
       <c r="X393" s="2"/>
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
+      <c r="AA393" s="2"/>
     </row>
     <row r="394">
       <c r="A394" s="2"/>
@@ -11754,6 +12240,7 @@
       <c r="X394" s="2"/>
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
+      <c r="AA394" s="2"/>
     </row>
     <row r="395">
       <c r="A395" s="2"/>
@@ -11782,6 +12269,7 @@
       <c r="X395" s="2"/>
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
+      <c r="AA395" s="2"/>
     </row>
     <row r="396">
       <c r="A396" s="2"/>
@@ -11810,6 +12298,7 @@
       <c r="X396" s="2"/>
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
+      <c r="AA396" s="2"/>
     </row>
     <row r="397">
       <c r="A397" s="2"/>
@@ -11838,6 +12327,7 @@
       <c r="X397" s="2"/>
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
+      <c r="AA397" s="2"/>
     </row>
     <row r="398">
       <c r="A398" s="2"/>
@@ -11866,6 +12356,7 @@
       <c r="X398" s="2"/>
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
+      <c r="AA398" s="2"/>
     </row>
     <row r="399">
       <c r="A399" s="2"/>
@@ -11894,6 +12385,7 @@
       <c r="X399" s="2"/>
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
+      <c r="AA399" s="2"/>
     </row>
     <row r="400">
       <c r="A400" s="2"/>
@@ -11922,6 +12414,7 @@
       <c r="X400" s="2"/>
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
+      <c r="AA400" s="2"/>
     </row>
     <row r="401">
       <c r="A401" s="2"/>
@@ -11950,6 +12443,7 @@
       <c r="X401" s="2"/>
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
+      <c r="AA401" s="2"/>
     </row>
     <row r="402">
       <c r="A402" s="2"/>
@@ -11978,6 +12472,7 @@
       <c r="X402" s="2"/>
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
+      <c r="AA402" s="2"/>
     </row>
     <row r="403">
       <c r="A403" s="2"/>
@@ -12006,6 +12501,7 @@
       <c r="X403" s="2"/>
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
+      <c r="AA403" s="2"/>
     </row>
     <row r="404">
       <c r="A404" s="2"/>
@@ -12034,6 +12530,7 @@
       <c r="X404" s="2"/>
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
+      <c r="AA404" s="2"/>
     </row>
     <row r="405">
       <c r="A405" s="2"/>
@@ -12062,6 +12559,7 @@
       <c r="X405" s="2"/>
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
+      <c r="AA405" s="2"/>
     </row>
     <row r="406">
       <c r="A406" s="2"/>
@@ -12090,6 +12588,7 @@
       <c r="X406" s="2"/>
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
+      <c r="AA406" s="2"/>
     </row>
     <row r="407">
       <c r="A407" s="2"/>
@@ -12118,6 +12617,7 @@
       <c r="X407" s="2"/>
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
+      <c r="AA407" s="2"/>
     </row>
     <row r="408">
       <c r="A408" s="2"/>
@@ -12146,6 +12646,7 @@
       <c r="X408" s="2"/>
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
+      <c r="AA408" s="2"/>
     </row>
     <row r="409">
       <c r="A409" s="2"/>
@@ -12174,6 +12675,7 @@
       <c r="X409" s="2"/>
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
+      <c r="AA409" s="2"/>
     </row>
     <row r="410">
       <c r="A410" s="2"/>
@@ -12202,6 +12704,7 @@
       <c r="X410" s="2"/>
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
+      <c r="AA410" s="2"/>
     </row>
     <row r="411">
       <c r="A411" s="2"/>
@@ -12230,6 +12733,7 @@
       <c r="X411" s="2"/>
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
+      <c r="AA411" s="2"/>
     </row>
     <row r="412">
       <c r="A412" s="2"/>
@@ -12258,6 +12762,7 @@
       <c r="X412" s="2"/>
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
+      <c r="AA412" s="2"/>
     </row>
     <row r="413">
       <c r="A413" s="2"/>
@@ -12286,6 +12791,7 @@
       <c r="X413" s="2"/>
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
+      <c r="AA413" s="2"/>
     </row>
     <row r="414">
       <c r="A414" s="2"/>
@@ -12314,6 +12820,7 @@
       <c r="X414" s="2"/>
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
+      <c r="AA414" s="2"/>
     </row>
     <row r="415">
       <c r="A415" s="2"/>
@@ -12342,6 +12849,7 @@
       <c r="X415" s="2"/>
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
+      <c r="AA415" s="2"/>
     </row>
     <row r="416">
       <c r="A416" s="2"/>
@@ -12370,6 +12878,7 @@
       <c r="X416" s="2"/>
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
+      <c r="AA416" s="2"/>
     </row>
     <row r="417">
       <c r="A417" s="2"/>
@@ -12398,6 +12907,7 @@
       <c r="X417" s="2"/>
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
+      <c r="AA417" s="2"/>
     </row>
     <row r="418">
       <c r="A418" s="2"/>
@@ -12426,6 +12936,7 @@
       <c r="X418" s="2"/>
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
+      <c r="AA418" s="2"/>
     </row>
     <row r="419">
       <c r="A419" s="2"/>
@@ -12454,6 +12965,7 @@
       <c r="X419" s="2"/>
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
+      <c r="AA419" s="2"/>
     </row>
     <row r="420">
       <c r="A420" s="2"/>
@@ -12482,6 +12994,7 @@
       <c r="X420" s="2"/>
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
+      <c r="AA420" s="2"/>
     </row>
     <row r="421">
       <c r="A421" s="2"/>
@@ -12510,6 +13023,7 @@
       <c r="X421" s="2"/>
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
+      <c r="AA421" s="2"/>
     </row>
     <row r="422">
       <c r="A422" s="2"/>
@@ -12538,6 +13052,7 @@
       <c r="X422" s="2"/>
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
+      <c r="AA422" s="2"/>
     </row>
     <row r="423">
       <c r="A423" s="2"/>
@@ -12566,6 +13081,7 @@
       <c r="X423" s="2"/>
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
+      <c r="AA423" s="2"/>
     </row>
     <row r="424">
       <c r="A424" s="2"/>
@@ -12594,6 +13110,7 @@
       <c r="X424" s="2"/>
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
+      <c r="AA424" s="2"/>
     </row>
     <row r="425">
       <c r="A425" s="2"/>
@@ -12622,6 +13139,7 @@
       <c r="X425" s="2"/>
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
+      <c r="AA425" s="2"/>
     </row>
     <row r="426">
       <c r="A426" s="2"/>
@@ -12650,6 +13168,7 @@
       <c r="X426" s="2"/>
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
+      <c r="AA426" s="2"/>
     </row>
     <row r="427">
       <c r="A427" s="2"/>
@@ -12678,6 +13197,7 @@
       <c r="X427" s="2"/>
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
+      <c r="AA427" s="2"/>
     </row>
     <row r="428">
       <c r="A428" s="2"/>
@@ -12706,6 +13226,7 @@
       <c r="X428" s="2"/>
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
+      <c r="AA428" s="2"/>
     </row>
     <row r="429">
       <c r="A429" s="2"/>
@@ -12734,6 +13255,7 @@
       <c r="X429" s="2"/>
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
+      <c r="AA429" s="2"/>
     </row>
     <row r="430">
       <c r="A430" s="2"/>
@@ -12762,6 +13284,7 @@
       <c r="X430" s="2"/>
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
+      <c r="AA430" s="2"/>
     </row>
     <row r="431">
       <c r="A431" s="2"/>
@@ -12790,6 +13313,7 @@
       <c r="X431" s="2"/>
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
+      <c r="AA431" s="2"/>
     </row>
     <row r="432">
       <c r="A432" s="2"/>
@@ -12818,6 +13342,7 @@
       <c r="X432" s="2"/>
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
+      <c r="AA432" s="2"/>
     </row>
     <row r="433">
       <c r="A433" s="2"/>
@@ -12846,6 +13371,7 @@
       <c r="X433" s="2"/>
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
+      <c r="AA433" s="2"/>
     </row>
     <row r="434">
       <c r="A434" s="2"/>
@@ -12874,6 +13400,7 @@
       <c r="X434" s="2"/>
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
+      <c r="AA434" s="2"/>
     </row>
     <row r="435">
       <c r="A435" s="2"/>
@@ -12902,6 +13429,7 @@
       <c r="X435" s="2"/>
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
+      <c r="AA435" s="2"/>
     </row>
     <row r="436">
       <c r="A436" s="2"/>
@@ -12930,6 +13458,7 @@
       <c r="X436" s="2"/>
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
+      <c r="AA436" s="2"/>
     </row>
     <row r="437">
       <c r="A437" s="2"/>
@@ -12958,6 +13487,7 @@
       <c r="X437" s="2"/>
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
+      <c r="AA437" s="2"/>
     </row>
     <row r="438">
       <c r="A438" s="2"/>
@@ -12986,6 +13516,7 @@
       <c r="X438" s="2"/>
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
+      <c r="AA438" s="2"/>
     </row>
     <row r="439">
       <c r="A439" s="2"/>
@@ -13014,6 +13545,7 @@
       <c r="X439" s="2"/>
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
+      <c r="AA439" s="2"/>
     </row>
     <row r="440">
       <c r="A440" s="2"/>
@@ -13042,6 +13574,7 @@
       <c r="X440" s="2"/>
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
+      <c r="AA440" s="2"/>
     </row>
     <row r="441">
       <c r="A441" s="2"/>
@@ -13070,6 +13603,7 @@
       <c r="X441" s="2"/>
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
+      <c r="AA441" s="2"/>
     </row>
     <row r="442">
       <c r="A442" s="2"/>
@@ -13098,6 +13632,7 @@
       <c r="X442" s="2"/>
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
+      <c r="AA442" s="2"/>
     </row>
     <row r="443">
       <c r="A443" s="2"/>
@@ -13126,6 +13661,7 @@
       <c r="X443" s="2"/>
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
+      <c r="AA443" s="2"/>
     </row>
     <row r="444">
       <c r="A444" s="2"/>
@@ -13154,6 +13690,7 @@
       <c r="X444" s="2"/>
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
+      <c r="AA444" s="2"/>
     </row>
     <row r="445">
       <c r="A445" s="2"/>
@@ -13182,6 +13719,7 @@
       <c r="X445" s="2"/>
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
+      <c r="AA445" s="2"/>
     </row>
     <row r="446">
       <c r="A446" s="2"/>
@@ -13210,6 +13748,7 @@
       <c r="X446" s="2"/>
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
+      <c r="AA446" s="2"/>
     </row>
     <row r="447">
       <c r="A447" s="2"/>
@@ -13238,6 +13777,7 @@
       <c r="X447" s="2"/>
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
+      <c r="AA447" s="2"/>
     </row>
     <row r="448">
       <c r="A448" s="2"/>
@@ -13266,6 +13806,7 @@
       <c r="X448" s="2"/>
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
+      <c r="AA448" s="2"/>
     </row>
     <row r="449">
       <c r="A449" s="2"/>
@@ -13294,6 +13835,7 @@
       <c r="X449" s="2"/>
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
+      <c r="AA449" s="2"/>
     </row>
     <row r="450">
       <c r="A450" s="2"/>
@@ -13322,6 +13864,7 @@
       <c r="X450" s="2"/>
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
+      <c r="AA450" s="2"/>
     </row>
     <row r="451">
       <c r="A451" s="2"/>
@@ -13350,6 +13893,7 @@
       <c r="X451" s="2"/>
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
+      <c r="AA451" s="2"/>
     </row>
     <row r="452">
       <c r="A452" s="2"/>
@@ -13378,6 +13922,7 @@
       <c r="X452" s="2"/>
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
+      <c r="AA452" s="2"/>
     </row>
     <row r="453">
       <c r="A453" s="2"/>
@@ -13406,6 +13951,7 @@
       <c r="X453" s="2"/>
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
+      <c r="AA453" s="2"/>
     </row>
     <row r="454">
       <c r="A454" s="2"/>
@@ -13434,6 +13980,7 @@
       <c r="X454" s="2"/>
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
+      <c r="AA454" s="2"/>
     </row>
     <row r="455">
       <c r="A455" s="2"/>
@@ -13462,6 +14009,7 @@
       <c r="X455" s="2"/>
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
+      <c r="AA455" s="2"/>
     </row>
     <row r="456">
       <c r="A456" s="2"/>
@@ -13490,6 +14038,7 @@
       <c r="X456" s="2"/>
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
+      <c r="AA456" s="2"/>
     </row>
     <row r="457">
       <c r="A457" s="2"/>
@@ -13518,6 +14067,7 @@
       <c r="X457" s="2"/>
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
+      <c r="AA457" s="2"/>
     </row>
     <row r="458">
       <c r="A458" s="2"/>
@@ -13546,6 +14096,7 @@
       <c r="X458" s="2"/>
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
+      <c r="AA458" s="2"/>
     </row>
     <row r="459">
       <c r="A459" s="2"/>
@@ -13574,6 +14125,7 @@
       <c r="X459" s="2"/>
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
+      <c r="AA459" s="2"/>
     </row>
     <row r="460">
       <c r="A460" s="2"/>
@@ -13602,6 +14154,7 @@
       <c r="X460" s="2"/>
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
+      <c r="AA460" s="2"/>
     </row>
     <row r="461">
       <c r="A461" s="2"/>
@@ -13630,6 +14183,7 @@
       <c r="X461" s="2"/>
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
+      <c r="AA461" s="2"/>
     </row>
     <row r="462">
       <c r="A462" s="2"/>
@@ -13658,6 +14212,7 @@
       <c r="X462" s="2"/>
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
+      <c r="AA462" s="2"/>
     </row>
     <row r="463">
       <c r="A463" s="2"/>
@@ -13686,6 +14241,7 @@
       <c r="X463" s="2"/>
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
+      <c r="AA463" s="2"/>
     </row>
     <row r="464">
       <c r="A464" s="2"/>
@@ -13714,6 +14270,7 @@
       <c r="X464" s="2"/>
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
+      <c r="AA464" s="2"/>
     </row>
     <row r="465">
       <c r="A465" s="2"/>
@@ -13742,6 +14299,7 @@
       <c r="X465" s="2"/>
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
+      <c r="AA465" s="2"/>
     </row>
     <row r="466">
       <c r="A466" s="2"/>
@@ -13770,6 +14328,7 @@
       <c r="X466" s="2"/>
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
+      <c r="AA466" s="2"/>
     </row>
     <row r="467">
       <c r="A467" s="2"/>
@@ -13798,6 +14357,7 @@
       <c r="X467" s="2"/>
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
+      <c r="AA467" s="2"/>
     </row>
     <row r="468">
       <c r="A468" s="2"/>
@@ -13826,6 +14386,7 @@
       <c r="X468" s="2"/>
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
+      <c r="AA468" s="2"/>
     </row>
     <row r="469">
       <c r="A469" s="2"/>
@@ -13854,6 +14415,7 @@
       <c r="X469" s="2"/>
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
+      <c r="AA469" s="2"/>
     </row>
     <row r="470">
       <c r="A470" s="2"/>
@@ -13882,6 +14444,7 @@
       <c r="X470" s="2"/>
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
+      <c r="AA470" s="2"/>
     </row>
     <row r="471">
       <c r="A471" s="2"/>
@@ -13910,6 +14473,7 @@
       <c r="X471" s="2"/>
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
+      <c r="AA471" s="2"/>
     </row>
     <row r="472">
       <c r="A472" s="2"/>
@@ -13938,6 +14502,7 @@
       <c r="X472" s="2"/>
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
+      <c r="AA472" s="2"/>
     </row>
     <row r="473">
       <c r="A473" s="2"/>
@@ -13966,6 +14531,7 @@
       <c r="X473" s="2"/>
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
+      <c r="AA473" s="2"/>
     </row>
     <row r="474">
       <c r="A474" s="2"/>
@@ -13994,6 +14560,7 @@
       <c r="X474" s="2"/>
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
+      <c r="AA474" s="2"/>
     </row>
     <row r="475">
       <c r="A475" s="2"/>
@@ -14022,6 +14589,7 @@
       <c r="X475" s="2"/>
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
+      <c r="AA475" s="2"/>
     </row>
     <row r="476">
       <c r="A476" s="2"/>
@@ -14050,6 +14618,7 @@
       <c r="X476" s="2"/>
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
+      <c r="AA476" s="2"/>
     </row>
     <row r="477">
       <c r="A477" s="2"/>
@@ -14078,6 +14647,7 @@
       <c r="X477" s="2"/>
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
+      <c r="AA477" s="2"/>
     </row>
     <row r="478">
       <c r="A478" s="2"/>
@@ -14106,6 +14676,7 @@
       <c r="X478" s="2"/>
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
+      <c r="AA478" s="2"/>
     </row>
     <row r="479">
       <c r="A479" s="2"/>
@@ -14134,6 +14705,7 @@
       <c r="X479" s="2"/>
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
+      <c r="AA479" s="2"/>
     </row>
     <row r="480">
       <c r="A480" s="2"/>
@@ -14162,6 +14734,7 @@
       <c r="X480" s="2"/>
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
+      <c r="AA480" s="2"/>
     </row>
     <row r="481">
       <c r="A481" s="2"/>
@@ -14190,6 +14763,7 @@
       <c r="X481" s="2"/>
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
+      <c r="AA481" s="2"/>
     </row>
     <row r="482">
       <c r="A482" s="2"/>
@@ -14218,6 +14792,7 @@
       <c r="X482" s="2"/>
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
+      <c r="AA482" s="2"/>
     </row>
     <row r="483">
       <c r="A483" s="2"/>
@@ -14246,6 +14821,7 @@
       <c r="X483" s="2"/>
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
+      <c r="AA483" s="2"/>
     </row>
     <row r="484">
       <c r="A484" s="2"/>
@@ -14274,6 +14850,7 @@
       <c r="X484" s="2"/>
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
+      <c r="AA484" s="2"/>
     </row>
     <row r="485">
       <c r="A485" s="2"/>
@@ -14302,6 +14879,7 @@
       <c r="X485" s="2"/>
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
+      <c r="AA485" s="2"/>
     </row>
     <row r="486">
       <c r="A486" s="2"/>
@@ -14330,6 +14908,7 @@
       <c r="X486" s="2"/>
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
+      <c r="AA486" s="2"/>
     </row>
     <row r="487">
       <c r="A487" s="2"/>
@@ -14358,6 +14937,7 @@
       <c r="X487" s="2"/>
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
+      <c r="AA487" s="2"/>
     </row>
     <row r="488">
       <c r="A488" s="2"/>
@@ -14386,6 +14966,7 @@
       <c r="X488" s="2"/>
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
+      <c r="AA488" s="2"/>
     </row>
     <row r="489">
       <c r="A489" s="2"/>
@@ -14414,6 +14995,7 @@
       <c r="X489" s="2"/>
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
+      <c r="AA489" s="2"/>
     </row>
     <row r="490">
       <c r="A490" s="2"/>
@@ -14442,6 +15024,7 @@
       <c r="X490" s="2"/>
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
+      <c r="AA490" s="2"/>
     </row>
     <row r="491">
       <c r="A491" s="2"/>
@@ -14470,6 +15053,7 @@
       <c r="X491" s="2"/>
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
+      <c r="AA491" s="2"/>
     </row>
     <row r="492">
       <c r="A492" s="2"/>
@@ -14498,6 +15082,7 @@
       <c r="X492" s="2"/>
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
+      <c r="AA492" s="2"/>
     </row>
     <row r="493">
       <c r="A493" s="2"/>
@@ -14526,6 +15111,7 @@
       <c r="X493" s="2"/>
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
+      <c r="AA493" s="2"/>
     </row>
     <row r="494">
       <c r="A494" s="2"/>
@@ -14554,6 +15140,7 @@
       <c r="X494" s="2"/>
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
+      <c r="AA494" s="2"/>
     </row>
     <row r="495">
       <c r="A495" s="2"/>
@@ -14582,6 +15169,7 @@
       <c r="X495" s="2"/>
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
+      <c r="AA495" s="2"/>
     </row>
     <row r="496">
       <c r="A496" s="2"/>
@@ -14610,6 +15198,7 @@
       <c r="X496" s="2"/>
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
+      <c r="AA496" s="2"/>
     </row>
     <row r="497">
       <c r="A497" s="2"/>
@@ -14638,6 +15227,7 @@
       <c r="X497" s="2"/>
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
+      <c r="AA497" s="2"/>
     </row>
     <row r="498">
       <c r="A498" s="2"/>
@@ -14666,6 +15256,7 @@
       <c r="X498" s="2"/>
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
+      <c r="AA498" s="2"/>
     </row>
     <row r="499">
       <c r="A499" s="2"/>
@@ -14694,6 +15285,7 @@
       <c r="X499" s="2"/>
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
+      <c r="AA499" s="2"/>
     </row>
     <row r="500">
       <c r="A500" s="2"/>
@@ -14722,6 +15314,7 @@
       <c r="X500" s="2"/>
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
+      <c r="AA500" s="2"/>
     </row>
     <row r="501">
       <c r="A501" s="2"/>
@@ -14750,6 +15343,7 @@
       <c r="X501" s="2"/>
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
+      <c r="AA501" s="2"/>
     </row>
     <row r="502">
       <c r="A502" s="2"/>
@@ -14778,6 +15372,7 @@
       <c r="X502" s="2"/>
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
+      <c r="AA502" s="2"/>
     </row>
     <row r="503">
       <c r="A503" s="2"/>
@@ -14806,6 +15401,7 @@
       <c r="X503" s="2"/>
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
+      <c r="AA503" s="2"/>
     </row>
     <row r="504">
       <c r="A504" s="2"/>
@@ -14834,6 +15430,7 @@
       <c r="X504" s="2"/>
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
+      <c r="AA504" s="2"/>
     </row>
     <row r="505">
       <c r="A505" s="2"/>
@@ -14862,6 +15459,7 @@
       <c r="X505" s="2"/>
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
+      <c r="AA505" s="2"/>
     </row>
     <row r="506">
       <c r="A506" s="2"/>
@@ -14890,6 +15488,7 @@
       <c r="X506" s="2"/>
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
+      <c r="AA506" s="2"/>
     </row>
     <row r="507">
       <c r="A507" s="2"/>
@@ -14918,6 +15517,7 @@
       <c r="X507" s="2"/>
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
+      <c r="AA507" s="2"/>
     </row>
     <row r="508">
       <c r="A508" s="2"/>
@@ -14946,6 +15546,7 @@
       <c r="X508" s="2"/>
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
+      <c r="AA508" s="2"/>
     </row>
     <row r="509">
       <c r="A509" s="2"/>
@@ -14974,6 +15575,7 @@
       <c r="X509" s="2"/>
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
+      <c r="AA509" s="2"/>
     </row>
     <row r="510">
       <c r="A510" s="2"/>
@@ -15002,6 +15604,7 @@
       <c r="X510" s="2"/>
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
+      <c r="AA510" s="2"/>
     </row>
     <row r="511">
       <c r="A511" s="2"/>
@@ -15030,6 +15633,7 @@
       <c r="X511" s="2"/>
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
+      <c r="AA511" s="2"/>
     </row>
     <row r="512">
       <c r="A512" s="2"/>
@@ -15058,6 +15662,7 @@
       <c r="X512" s="2"/>
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
+      <c r="AA512" s="2"/>
     </row>
     <row r="513">
       <c r="A513" s="2"/>
@@ -15086,6 +15691,7 @@
       <c r="X513" s="2"/>
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
+      <c r="AA513" s="2"/>
     </row>
     <row r="514">
       <c r="A514" s="2"/>
@@ -15114,6 +15720,7 @@
       <c r="X514" s="2"/>
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
+      <c r="AA514" s="2"/>
     </row>
     <row r="515">
       <c r="A515" s="2"/>
@@ -15142,6 +15749,7 @@
       <c r="X515" s="2"/>
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
+      <c r="AA515" s="2"/>
     </row>
     <row r="516">
       <c r="A516" s="2"/>
@@ -15170,6 +15778,7 @@
       <c r="X516" s="2"/>
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
+      <c r="AA516" s="2"/>
     </row>
     <row r="517">
       <c r="A517" s="2"/>
@@ -15198,6 +15807,7 @@
       <c r="X517" s="2"/>
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
+      <c r="AA517" s="2"/>
     </row>
     <row r="518">
       <c r="A518" s="2"/>
@@ -15226,6 +15836,7 @@
       <c r="X518" s="2"/>
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
+      <c r="AA518" s="2"/>
     </row>
     <row r="519">
       <c r="A519" s="2"/>
@@ -15254,6 +15865,7 @@
       <c r="X519" s="2"/>
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
+      <c r="AA519" s="2"/>
     </row>
     <row r="520">
       <c r="A520" s="2"/>
@@ -15282,6 +15894,7 @@
       <c r="X520" s="2"/>
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
+      <c r="AA520" s="2"/>
     </row>
     <row r="521">
       <c r="A521" s="2"/>
@@ -15310,6 +15923,7 @@
       <c r="X521" s="2"/>
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
+      <c r="AA521" s="2"/>
     </row>
     <row r="522">
       <c r="A522" s="2"/>
@@ -15338,6 +15952,7 @@
       <c r="X522" s="2"/>
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
+      <c r="AA522" s="2"/>
     </row>
     <row r="523">
       <c r="A523" s="2"/>
@@ -15366,6 +15981,7 @@
       <c r="X523" s="2"/>
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
+      <c r="AA523" s="2"/>
     </row>
     <row r="524">
       <c r="A524" s="2"/>
@@ -15394,6 +16010,7 @@
       <c r="X524" s="2"/>
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
+      <c r="AA524" s="2"/>
     </row>
     <row r="525">
       <c r="A525" s="2"/>
@@ -15422,6 +16039,7 @@
       <c r="X525" s="2"/>
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
+      <c r="AA525" s="2"/>
     </row>
     <row r="526">
       <c r="A526" s="2"/>
@@ -15450,6 +16068,7 @@
       <c r="X526" s="2"/>
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
+      <c r="AA526" s="2"/>
     </row>
     <row r="527">
       <c r="A527" s="2"/>
@@ -15478,6 +16097,7 @@
       <c r="X527" s="2"/>
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
+      <c r="AA527" s="2"/>
     </row>
     <row r="528">
       <c r="A528" s="2"/>
@@ -15506,6 +16126,7 @@
       <c r="X528" s="2"/>
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
+      <c r="AA528" s="2"/>
     </row>
     <row r="529">
       <c r="A529" s="2"/>
@@ -15534,6 +16155,7 @@
       <c r="X529" s="2"/>
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
+      <c r="AA529" s="2"/>
     </row>
     <row r="530">
       <c r="A530" s="2"/>
@@ -15562,6 +16184,7 @@
       <c r="X530" s="2"/>
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
+      <c r="AA530" s="2"/>
     </row>
     <row r="531">
       <c r="A531" s="2"/>
@@ -15590,6 +16213,7 @@
       <c r="X531" s="2"/>
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
+      <c r="AA531" s="2"/>
     </row>
     <row r="532">
       <c r="A532" s="2"/>
@@ -15618,6 +16242,7 @@
       <c r="X532" s="2"/>
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
+      <c r="AA532" s="2"/>
     </row>
     <row r="533">
       <c r="A533" s="2"/>
@@ -15646,6 +16271,7 @@
       <c r="X533" s="2"/>
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
+      <c r="AA533" s="2"/>
     </row>
     <row r="534">
       <c r="A534" s="2"/>
@@ -15674,6 +16300,7 @@
       <c r="X534" s="2"/>
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
+      <c r="AA534" s="2"/>
     </row>
     <row r="535">
       <c r="A535" s="2"/>
@@ -15702,6 +16329,7 @@
       <c r="X535" s="2"/>
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
+      <c r="AA535" s="2"/>
     </row>
     <row r="536">
       <c r="A536" s="2"/>
@@ -15730,6 +16358,7 @@
       <c r="X536" s="2"/>
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
+      <c r="AA536" s="2"/>
     </row>
     <row r="537">
       <c r="A537" s="2"/>
@@ -15758,6 +16387,7 @@
       <c r="X537" s="2"/>
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
+      <c r="AA537" s="2"/>
     </row>
     <row r="538">
       <c r="A538" s="2"/>
@@ -15786,6 +16416,7 @@
       <c r="X538" s="2"/>
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
+      <c r="AA538" s="2"/>
     </row>
     <row r="539">
       <c r="A539" s="2"/>
@@ -15814,6 +16445,7 @@
       <c r="X539" s="2"/>
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
+      <c r="AA539" s="2"/>
     </row>
     <row r="540">
       <c r="A540" s="2"/>
@@ -15842,6 +16474,7 @@
       <c r="X540" s="2"/>
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
+      <c r="AA540" s="2"/>
     </row>
     <row r="541">
       <c r="A541" s="2"/>
@@ -15870,6 +16503,7 @@
       <c r="X541" s="2"/>
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
+      <c r="AA541" s="2"/>
     </row>
     <row r="542">
       <c r="A542" s="2"/>
@@ -15898,6 +16532,7 @@
       <c r="X542" s="2"/>
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
+      <c r="AA542" s="2"/>
     </row>
     <row r="543">
       <c r="A543" s="2"/>
@@ -15926,6 +16561,7 @@
       <c r="X543" s="2"/>
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
+      <c r="AA543" s="2"/>
     </row>
     <row r="544">
       <c r="A544" s="2"/>
@@ -15954,6 +16590,7 @@
       <c r="X544" s="2"/>
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
+      <c r="AA544" s="2"/>
     </row>
     <row r="545">
       <c r="A545" s="2"/>
@@ -15982,6 +16619,7 @@
       <c r="X545" s="2"/>
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
+      <c r="AA545" s="2"/>
     </row>
     <row r="546">
       <c r="A546" s="2"/>
@@ -16010,6 +16648,7 @@
       <c r="X546" s="2"/>
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
+      <c r="AA546" s="2"/>
     </row>
     <row r="547">
       <c r="A547" s="2"/>
@@ -16038,6 +16677,7 @@
       <c r="X547" s="2"/>
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
+      <c r="AA547" s="2"/>
     </row>
     <row r="548">
       <c r="A548" s="2"/>
@@ -16066,6 +16706,7 @@
       <c r="X548" s="2"/>
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
+      <c r="AA548" s="2"/>
     </row>
     <row r="549">
       <c r="A549" s="2"/>
@@ -16094,6 +16735,7 @@
       <c r="X549" s="2"/>
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
+      <c r="AA549" s="2"/>
     </row>
     <row r="550">
       <c r="A550" s="2"/>
@@ -16122,6 +16764,7 @@
       <c r="X550" s="2"/>
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
+      <c r="AA550" s="2"/>
     </row>
     <row r="551">
       <c r="A551" s="2"/>
@@ -16150,6 +16793,7 @@
       <c r="X551" s="2"/>
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
+      <c r="AA551" s="2"/>
     </row>
     <row r="552">
       <c r="A552" s="2"/>
@@ -16178,6 +16822,7 @@
       <c r="X552" s="2"/>
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
+      <c r="AA552" s="2"/>
     </row>
     <row r="553">
       <c r="A553" s="2"/>
@@ -16206,6 +16851,7 @@
       <c r="X553" s="2"/>
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
+      <c r="AA553" s="2"/>
     </row>
     <row r="554">
       <c r="A554" s="2"/>
@@ -16234,6 +16880,7 @@
       <c r="X554" s="2"/>
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
+      <c r="AA554" s="2"/>
     </row>
     <row r="555">
       <c r="A555" s="2"/>
@@ -16262,6 +16909,7 @@
       <c r="X555" s="2"/>
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
+      <c r="AA555" s="2"/>
     </row>
     <row r="556">
       <c r="A556" s="2"/>
@@ -16290,6 +16938,7 @@
       <c r="X556" s="2"/>
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
+      <c r="AA556" s="2"/>
     </row>
     <row r="557">
       <c r="A557" s="2"/>
@@ -16318,6 +16967,7 @@
       <c r="X557" s="2"/>
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
+      <c r="AA557" s="2"/>
     </row>
     <row r="558">
       <c r="A558" s="2"/>
@@ -16346,6 +16996,7 @@
       <c r="X558" s="2"/>
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
+      <c r="AA558" s="2"/>
     </row>
     <row r="559">
       <c r="A559" s="2"/>
@@ -16374,6 +17025,7 @@
       <c r="X559" s="2"/>
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
+      <c r="AA559" s="2"/>
     </row>
     <row r="560">
       <c r="A560" s="2"/>
@@ -16402,6 +17054,7 @@
       <c r="X560" s="2"/>
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
+      <c r="AA560" s="2"/>
     </row>
     <row r="561">
       <c r="A561" s="2"/>
@@ -16430,6 +17083,7 @@
       <c r="X561" s="2"/>
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
+      <c r="AA561" s="2"/>
     </row>
     <row r="562">
       <c r="A562" s="2"/>
@@ -16458,6 +17112,7 @@
       <c r="X562" s="2"/>
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
+      <c r="AA562" s="2"/>
     </row>
     <row r="563">
       <c r="A563" s="2"/>
@@ -16486,6 +17141,7 @@
       <c r="X563" s="2"/>
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
+      <c r="AA563" s="2"/>
     </row>
     <row r="564">
       <c r="A564" s="2"/>
@@ -16514,6 +17170,7 @@
       <c r="X564" s="2"/>
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
+      <c r="AA564" s="2"/>
     </row>
     <row r="565">
       <c r="A565" s="2"/>
@@ -16542,6 +17199,7 @@
       <c r="X565" s="2"/>
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
+      <c r="AA565" s="2"/>
     </row>
     <row r="566">
       <c r="A566" s="2"/>
@@ -16570,6 +17228,7 @@
       <c r="X566" s="2"/>
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
+      <c r="AA566" s="2"/>
     </row>
     <row r="567">
       <c r="A567" s="2"/>
@@ -16598,6 +17257,7 @@
       <c r="X567" s="2"/>
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
+      <c r="AA567" s="2"/>
     </row>
     <row r="568">
       <c r="A568" s="2"/>
@@ -16626,6 +17286,7 @@
       <c r="X568" s="2"/>
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
+      <c r="AA568" s="2"/>
     </row>
     <row r="569">
       <c r="A569" s="2"/>
@@ -16654,6 +17315,7 @@
       <c r="X569" s="2"/>
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
+      <c r="AA569" s="2"/>
     </row>
     <row r="570">
       <c r="A570" s="2"/>
@@ -16682,6 +17344,7 @@
       <c r="X570" s="2"/>
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
+      <c r="AA570" s="2"/>
     </row>
     <row r="571">
       <c r="A571" s="2"/>
@@ -16710,6 +17373,7 @@
       <c r="X571" s="2"/>
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
+      <c r="AA571" s="2"/>
     </row>
     <row r="572">
       <c r="A572" s="2"/>
@@ -16738,6 +17402,7 @@
       <c r="X572" s="2"/>
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
+      <c r="AA572" s="2"/>
     </row>
     <row r="573">
       <c r="A573" s="2"/>
@@ -16766,6 +17431,7 @@
       <c r="X573" s="2"/>
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
+      <c r="AA573" s="2"/>
     </row>
     <row r="574">
       <c r="A574" s="2"/>
@@ -16794,6 +17460,7 @@
       <c r="X574" s="2"/>
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
+      <c r="AA574" s="2"/>
     </row>
     <row r="575">
       <c r="A575" s="2"/>
@@ -16822,6 +17489,7 @@
       <c r="X575" s="2"/>
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
+      <c r="AA575" s="2"/>
     </row>
     <row r="576">
       <c r="A576" s="2"/>
@@ -16850,6 +17518,7 @@
       <c r="X576" s="2"/>
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
+      <c r="AA576" s="2"/>
     </row>
     <row r="577">
       <c r="A577" s="2"/>
@@ -16878,6 +17547,7 @@
       <c r="X577" s="2"/>
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
+      <c r="AA577" s="2"/>
     </row>
     <row r="578">
       <c r="A578" s="2"/>
@@ -16906,6 +17576,7 @@
       <c r="X578" s="2"/>
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
+      <c r="AA578" s="2"/>
     </row>
     <row r="579">
       <c r="A579" s="2"/>
@@ -16934,6 +17605,7 @@
       <c r="X579" s="2"/>
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
+      <c r="AA579" s="2"/>
     </row>
     <row r="580">
       <c r="A580" s="2"/>
@@ -16962,6 +17634,7 @@
       <c r="X580" s="2"/>
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
+      <c r="AA580" s="2"/>
     </row>
     <row r="581">
       <c r="A581" s="2"/>
@@ -16990,6 +17663,7 @@
       <c r="X581" s="2"/>
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
+      <c r="AA581" s="2"/>
     </row>
     <row r="582">
       <c r="A582" s="2"/>
@@ -17018,6 +17692,7 @@
       <c r="X582" s="2"/>
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
+      <c r="AA582" s="2"/>
     </row>
     <row r="583">
       <c r="A583" s="2"/>
@@ -17046,6 +17721,7 @@
       <c r="X583" s="2"/>
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
+      <c r="AA583" s="2"/>
     </row>
     <row r="584">
       <c r="A584" s="2"/>
@@ -17074,6 +17750,7 @@
       <c r="X584" s="2"/>
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
+      <c r="AA584" s="2"/>
     </row>
     <row r="585">
       <c r="A585" s="2"/>
@@ -17102,6 +17779,7 @@
       <c r="X585" s="2"/>
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
+      <c r="AA585" s="2"/>
     </row>
     <row r="586">
       <c r="A586" s="2"/>
@@ -17130,6 +17808,7 @@
       <c r="X586" s="2"/>
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
+      <c r="AA586" s="2"/>
     </row>
     <row r="587">
       <c r="A587" s="2"/>
@@ -17158,6 +17837,7 @@
       <c r="X587" s="2"/>
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
+      <c r="AA587" s="2"/>
     </row>
     <row r="588">
       <c r="A588" s="2"/>
@@ -17186,6 +17866,7 @@
       <c r="X588" s="2"/>
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
+      <c r="AA588" s="2"/>
     </row>
     <row r="589">
       <c r="A589" s="2"/>
@@ -17214,6 +17895,7 @@
       <c r="X589" s="2"/>
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
+      <c r="AA589" s="2"/>
     </row>
     <row r="590">
       <c r="A590" s="2"/>
@@ -17242,6 +17924,7 @@
       <c r="X590" s="2"/>
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
+      <c r="AA590" s="2"/>
     </row>
     <row r="591">
       <c r="A591" s="2"/>
@@ -17270,6 +17953,7 @@
       <c r="X591" s="2"/>
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
+      <c r="AA591" s="2"/>
     </row>
     <row r="592">
       <c r="A592" s="2"/>
@@ -17298,6 +17982,7 @@
       <c r="X592" s="2"/>
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
+      <c r="AA592" s="2"/>
     </row>
     <row r="593">
       <c r="A593" s="2"/>
@@ -17326,6 +18011,7 @@
       <c r="X593" s="2"/>
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
+      <c r="AA593" s="2"/>
     </row>
     <row r="594">
       <c r="A594" s="2"/>
@@ -17354,6 +18040,7 @@
       <c r="X594" s="2"/>
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
+      <c r="AA594" s="2"/>
     </row>
     <row r="595">
       <c r="A595" s="2"/>
@@ -17382,6 +18069,7 @@
       <c r="X595" s="2"/>
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
+      <c r="AA595" s="2"/>
     </row>
     <row r="596">
       <c r="A596" s="2"/>
@@ -17410,6 +18098,7 @@
       <c r="X596" s="2"/>
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
+      <c r="AA596" s="2"/>
     </row>
     <row r="597">
       <c r="A597" s="2"/>
@@ -17438,6 +18127,7 @@
       <c r="X597" s="2"/>
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
+      <c r="AA597" s="2"/>
     </row>
     <row r="598">
       <c r="A598" s="2"/>
@@ -17466,6 +18156,7 @@
       <c r="X598" s="2"/>
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
+      <c r="AA598" s="2"/>
     </row>
     <row r="599">
       <c r="A599" s="2"/>
@@ -17494,6 +18185,7 @@
       <c r="X599" s="2"/>
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
+      <c r="AA599" s="2"/>
     </row>
     <row r="600">
       <c r="A600" s="2"/>
@@ -17522,6 +18214,7 @@
       <c r="X600" s="2"/>
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
+      <c r="AA600" s="2"/>
     </row>
     <row r="601">
       <c r="A601" s="2"/>
@@ -17550,6 +18243,7 @@
       <c r="X601" s="2"/>
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
+      <c r="AA601" s="2"/>
     </row>
     <row r="602">
       <c r="A602" s="2"/>
@@ -17578,6 +18272,7 @@
       <c r="X602" s="2"/>
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
+      <c r="AA602" s="2"/>
     </row>
     <row r="603">
       <c r="A603" s="2"/>
@@ -17606,6 +18301,7 @@
       <c r="X603" s="2"/>
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
+      <c r="AA603" s="2"/>
     </row>
     <row r="604">
       <c r="A604" s="2"/>
@@ -17634,6 +18330,7 @@
       <c r="X604" s="2"/>
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
+      <c r="AA604" s="2"/>
     </row>
     <row r="605">
       <c r="A605" s="2"/>
@@ -17662,6 +18359,7 @@
       <c r="X605" s="2"/>
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
+      <c r="AA605" s="2"/>
     </row>
     <row r="606">
       <c r="A606" s="2"/>
@@ -17690,6 +18388,7 @@
       <c r="X606" s="2"/>
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
+      <c r="AA606" s="2"/>
     </row>
     <row r="607">
       <c r="A607" s="2"/>
@@ -17718,6 +18417,7 @@
       <c r="X607" s="2"/>
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
+      <c r="AA607" s="2"/>
     </row>
     <row r="608">
       <c r="A608" s="2"/>
@@ -17746,6 +18446,7 @@
       <c r="X608" s="2"/>
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
+      <c r="AA608" s="2"/>
     </row>
     <row r="609">
       <c r="A609" s="2"/>
@@ -17774,6 +18475,7 @@
       <c r="X609" s="2"/>
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
+      <c r="AA609" s="2"/>
     </row>
     <row r="610">
       <c r="A610" s="2"/>
@@ -17802,6 +18504,7 @@
       <c r="X610" s="2"/>
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
+      <c r="AA610" s="2"/>
     </row>
     <row r="611">
       <c r="A611" s="2"/>
@@ -17830,6 +18533,7 @@
       <c r="X611" s="2"/>
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
+      <c r="AA611" s="2"/>
     </row>
     <row r="612">
       <c r="A612" s="2"/>
@@ -17858,6 +18562,7 @@
       <c r="X612" s="2"/>
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
+      <c r="AA612" s="2"/>
     </row>
     <row r="613">
       <c r="A613" s="2"/>
@@ -17886,6 +18591,7 @@
       <c r="X613" s="2"/>
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
+      <c r="AA613" s="2"/>
     </row>
     <row r="614">
       <c r="A614" s="2"/>
@@ -17914,6 +18620,7 @@
       <c r="X614" s="2"/>
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
+      <c r="AA614" s="2"/>
     </row>
     <row r="615">
       <c r="A615" s="2"/>
@@ -17942,6 +18649,7 @@
       <c r="X615" s="2"/>
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
+      <c r="AA615" s="2"/>
     </row>
     <row r="616">
       <c r="A616" s="2"/>
@@ -17970,6 +18678,7 @@
       <c r="X616" s="2"/>
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
+      <c r="AA616" s="2"/>
     </row>
     <row r="617">
       <c r="A617" s="2"/>
@@ -17998,6 +18707,7 @@
       <c r="X617" s="2"/>
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
+      <c r="AA617" s="2"/>
     </row>
     <row r="618">
       <c r="A618" s="2"/>
@@ -18026,6 +18736,7 @@
       <c r="X618" s="2"/>
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
+      <c r="AA618" s="2"/>
     </row>
     <row r="619">
       <c r="A619" s="2"/>
@@ -18054,6 +18765,7 @@
       <c r="X619" s="2"/>
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
+      <c r="AA619" s="2"/>
     </row>
     <row r="620">
       <c r="A620" s="2"/>
@@ -18082,6 +18794,7 @@
       <c r="X620" s="2"/>
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
+      <c r="AA620" s="2"/>
     </row>
     <row r="621">
       <c r="A621" s="2"/>
@@ -18110,6 +18823,7 @@
       <c r="X621" s="2"/>
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
+      <c r="AA621" s="2"/>
     </row>
     <row r="622">
       <c r="A622" s="2"/>
@@ -18138,6 +18852,7 @@
       <c r="X622" s="2"/>
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
+      <c r="AA622" s="2"/>
     </row>
     <row r="623">
       <c r="A623" s="2"/>
@@ -18166,6 +18881,7 @@
       <c r="X623" s="2"/>
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
+      <c r="AA623" s="2"/>
     </row>
     <row r="624">
       <c r="A624" s="2"/>
@@ -18194,6 +18910,7 @@
       <c r="X624" s="2"/>
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
+      <c r="AA624" s="2"/>
     </row>
     <row r="625">
       <c r="A625" s="2"/>
@@ -18222,6 +18939,7 @@
       <c r="X625" s="2"/>
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
+      <c r="AA625" s="2"/>
     </row>
     <row r="626">
       <c r="A626" s="2"/>
@@ -18250,6 +18968,7 @@
       <c r="X626" s="2"/>
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
+      <c r="AA626" s="2"/>
     </row>
     <row r="627">
       <c r="A627" s="2"/>
@@ -18278,6 +18997,7 @@
       <c r="X627" s="2"/>
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
+      <c r="AA627" s="2"/>
     </row>
     <row r="628">
       <c r="A628" s="2"/>
@@ -18306,6 +19026,7 @@
       <c r="X628" s="2"/>
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
+      <c r="AA628" s="2"/>
     </row>
     <row r="629">
       <c r="A629" s="2"/>
@@ -18334,6 +19055,7 @@
       <c r="X629" s="2"/>
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
+      <c r="AA629" s="2"/>
     </row>
     <row r="630">
       <c r="A630" s="2"/>
@@ -18362,6 +19084,7 @@
       <c r="X630" s="2"/>
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
+      <c r="AA630" s="2"/>
     </row>
     <row r="631">
       <c r="A631" s="2"/>
@@ -18390,6 +19113,7 @@
       <c r="X631" s="2"/>
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
+      <c r="AA631" s="2"/>
     </row>
     <row r="632">
       <c r="A632" s="2"/>
@@ -18418,6 +19142,7 @@
       <c r="X632" s="2"/>
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
+      <c r="AA632" s="2"/>
     </row>
     <row r="633">
       <c r="A633" s="2"/>
@@ -18446,6 +19171,7 @@
       <c r="X633" s="2"/>
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
+      <c r="AA633" s="2"/>
     </row>
     <row r="634">
       <c r="A634" s="2"/>
@@ -18474,6 +19200,7 @@
       <c r="X634" s="2"/>
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
+      <c r="AA634" s="2"/>
     </row>
     <row r="635">
       <c r="A635" s="2"/>
@@ -18502,6 +19229,7 @@
       <c r="X635" s="2"/>
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
+      <c r="AA635" s="2"/>
     </row>
     <row r="636">
       <c r="A636" s="2"/>
@@ -18530,6 +19258,7 @@
       <c r="X636" s="2"/>
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
+      <c r="AA636" s="2"/>
     </row>
     <row r="637">
       <c r="A637" s="2"/>
@@ -18558,6 +19287,7 @@
       <c r="X637" s="2"/>
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
+      <c r="AA637" s="2"/>
     </row>
     <row r="638">
       <c r="A638" s="2"/>
@@ -18586,6 +19316,7 @@
       <c r="X638" s="2"/>
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
+      <c r="AA638" s="2"/>
     </row>
     <row r="639">
       <c r="A639" s="2"/>
@@ -18614,6 +19345,7 @@
       <c r="X639" s="2"/>
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
+      <c r="AA639" s="2"/>
     </row>
     <row r="640">
       <c r="A640" s="2"/>
@@ -18642,6 +19374,7 @@
       <c r="X640" s="2"/>
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
+      <c r="AA640" s="2"/>
     </row>
     <row r="641">
       <c r="A641" s="2"/>
@@ -18670,6 +19403,7 @@
       <c r="X641" s="2"/>
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
+      <c r="AA641" s="2"/>
     </row>
     <row r="642">
       <c r="A642" s="2"/>
@@ -18698,6 +19432,7 @@
       <c r="X642" s="2"/>
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
+      <c r="AA642" s="2"/>
     </row>
     <row r="643">
       <c r="A643" s="2"/>
@@ -18726,6 +19461,7 @@
       <c r="X643" s="2"/>
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
+      <c r="AA643" s="2"/>
     </row>
     <row r="644">
       <c r="A644" s="2"/>
@@ -18754,6 +19490,7 @@
       <c r="X644" s="2"/>
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
+      <c r="AA644" s="2"/>
     </row>
     <row r="645">
       <c r="A645" s="2"/>
@@ -18782,6 +19519,7 @@
       <c r="X645" s="2"/>
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
+      <c r="AA645" s="2"/>
     </row>
     <row r="646">
       <c r="A646" s="2"/>
@@ -18810,6 +19548,7 @@
       <c r="X646" s="2"/>
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
+      <c r="AA646" s="2"/>
     </row>
     <row r="647">
       <c r="A647" s="2"/>
@@ -18838,6 +19577,7 @@
       <c r="X647" s="2"/>
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
+      <c r="AA647" s="2"/>
     </row>
     <row r="648">
       <c r="A648" s="2"/>
@@ -18866,6 +19606,7 @@
       <c r="X648" s="2"/>
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
+      <c r="AA648" s="2"/>
     </row>
     <row r="649">
       <c r="A649" s="2"/>
@@ -18894,6 +19635,7 @@
       <c r="X649" s="2"/>
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
+      <c r="AA649" s="2"/>
     </row>
     <row r="650">
       <c r="A650" s="2"/>
@@ -18922,6 +19664,7 @@
       <c r="X650" s="2"/>
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
+      <c r="AA650" s="2"/>
     </row>
     <row r="651">
       <c r="A651" s="2"/>
@@ -18950,6 +19693,7 @@
       <c r="X651" s="2"/>
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
+      <c r="AA651" s="2"/>
     </row>
     <row r="652">
       <c r="A652" s="2"/>
@@ -18978,6 +19722,7 @@
       <c r="X652" s="2"/>
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
+      <c r="AA652" s="2"/>
     </row>
     <row r="653">
       <c r="A653" s="2"/>
@@ -19006,6 +19751,7 @@
       <c r="X653" s="2"/>
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
+      <c r="AA653" s="2"/>
     </row>
     <row r="654">
       <c r="A654" s="2"/>
@@ -19034,6 +19780,7 @@
       <c r="X654" s="2"/>
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
+      <c r="AA654" s="2"/>
     </row>
     <row r="655">
       <c r="A655" s="2"/>
@@ -19062,6 +19809,7 @@
       <c r="X655" s="2"/>
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
+      <c r="AA655" s="2"/>
     </row>
     <row r="656">
       <c r="A656" s="2"/>
@@ -19090,6 +19838,7 @@
       <c r="X656" s="2"/>
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
+      <c r="AA656" s="2"/>
     </row>
     <row r="657">
       <c r="A657" s="2"/>
@@ -19118,6 +19867,7 @@
       <c r="X657" s="2"/>
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
+      <c r="AA657" s="2"/>
     </row>
     <row r="658">
       <c r="A658" s="2"/>
@@ -19146,6 +19896,7 @@
       <c r="X658" s="2"/>
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
+      <c r="AA658" s="2"/>
     </row>
     <row r="659">
       <c r="A659" s="2"/>
@@ -19174,6 +19925,7 @@
       <c r="X659" s="2"/>
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
+      <c r="AA659" s="2"/>
     </row>
     <row r="660">
       <c r="A660" s="2"/>
@@ -19202,6 +19954,7 @@
       <c r="X660" s="2"/>
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
+      <c r="AA660" s="2"/>
     </row>
     <row r="661">
       <c r="A661" s="2"/>
@@ -19230,6 +19983,7 @@
       <c r="X661" s="2"/>
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
+      <c r="AA661" s="2"/>
     </row>
     <row r="662">
       <c r="A662" s="2"/>
@@ -19258,6 +20012,7 @@
       <c r="X662" s="2"/>
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
+      <c r="AA662" s="2"/>
     </row>
     <row r="663">
       <c r="A663" s="2"/>
@@ -19286,6 +20041,7 @@
       <c r="X663" s="2"/>
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
+      <c r="AA663" s="2"/>
     </row>
     <row r="664">
       <c r="A664" s="2"/>
@@ -19314,6 +20070,7 @@
       <c r="X664" s="2"/>
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
+      <c r="AA664" s="2"/>
     </row>
     <row r="665">
       <c r="A665" s="2"/>
@@ -19342,6 +20099,7 @@
       <c r="X665" s="2"/>
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
+      <c r="AA665" s="2"/>
     </row>
     <row r="666">
       <c r="A666" s="2"/>
@@ -19370,6 +20128,7 @@
       <c r="X666" s="2"/>
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
+      <c r="AA666" s="2"/>
     </row>
     <row r="667">
       <c r="A667" s="2"/>
@@ -19398,6 +20157,7 @@
       <c r="X667" s="2"/>
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
+      <c r="AA667" s="2"/>
     </row>
     <row r="668">
       <c r="A668" s="2"/>
@@ -19426,6 +20186,7 @@
       <c r="X668" s="2"/>
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
+      <c r="AA668" s="2"/>
     </row>
     <row r="669">
       <c r="A669" s="2"/>
@@ -19454,6 +20215,7 @@
       <c r="X669" s="2"/>
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
+      <c r="AA669" s="2"/>
     </row>
     <row r="670">
       <c r="A670" s="2"/>
@@ -19482,6 +20244,7 @@
       <c r="X670" s="2"/>
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
+      <c r="AA670" s="2"/>
     </row>
     <row r="671">
       <c r="A671" s="2"/>
@@ -19510,6 +20273,7 @@
       <c r="X671" s="2"/>
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
+      <c r="AA671" s="2"/>
     </row>
     <row r="672">
       <c r="A672" s="2"/>
@@ -19538,6 +20302,7 @@
       <c r="X672" s="2"/>
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
+      <c r="AA672" s="2"/>
     </row>
     <row r="673">
       <c r="A673" s="2"/>
@@ -19566,6 +20331,7 @@
       <c r="X673" s="2"/>
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
+      <c r="AA673" s="2"/>
     </row>
     <row r="674">
       <c r="A674" s="2"/>
@@ -19594,6 +20360,7 @@
       <c r="X674" s="2"/>
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
+      <c r="AA674" s="2"/>
     </row>
     <row r="675">
       <c r="A675" s="2"/>
@@ -19622,6 +20389,7 @@
       <c r="X675" s="2"/>
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
+      <c r="AA675" s="2"/>
     </row>
     <row r="676">
       <c r="A676" s="2"/>
@@ -19650,6 +20418,7 @@
       <c r="X676" s="2"/>
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
+      <c r="AA676" s="2"/>
     </row>
     <row r="677">
       <c r="A677" s="2"/>
@@ -19678,6 +20447,7 @@
       <c r="X677" s="2"/>
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
+      <c r="AA677" s="2"/>
     </row>
     <row r="678">
       <c r="A678" s="2"/>
@@ -19706,6 +20476,7 @@
       <c r="X678" s="2"/>
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
+      <c r="AA678" s="2"/>
     </row>
     <row r="679">
       <c r="A679" s="2"/>
@@ -19734,6 +20505,7 @@
       <c r="X679" s="2"/>
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
+      <c r="AA679" s="2"/>
     </row>
     <row r="680">
       <c r="A680" s="2"/>
@@ -19762,6 +20534,7 @@
       <c r="X680" s="2"/>
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
+      <c r="AA680" s="2"/>
     </row>
     <row r="681">
       <c r="A681" s="2"/>
@@ -19790,6 +20563,7 @@
       <c r="X681" s="2"/>
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
+      <c r="AA681" s="2"/>
     </row>
     <row r="682">
       <c r="A682" s="2"/>
@@ -19818,6 +20592,7 @@
       <c r="X682" s="2"/>
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
+      <c r="AA682" s="2"/>
     </row>
     <row r="683">
       <c r="A683" s="2"/>
@@ -19846,6 +20621,7 @@
       <c r="X683" s="2"/>
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
+      <c r="AA683" s="2"/>
     </row>
     <row r="684">
       <c r="A684" s="2"/>
@@ -19874,6 +20650,7 @@
       <c r="X684" s="2"/>
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
+      <c r="AA684" s="2"/>
     </row>
     <row r="685">
       <c r="A685" s="2"/>
@@ -19902,6 +20679,7 @@
       <c r="X685" s="2"/>
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
+      <c r="AA685" s="2"/>
     </row>
     <row r="686">
       <c r="A686" s="2"/>
@@ -19930,6 +20708,7 @@
       <c r="X686" s="2"/>
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
+      <c r="AA686" s="2"/>
     </row>
     <row r="687">
       <c r="A687" s="2"/>
@@ -19958,6 +20737,7 @@
       <c r="X687" s="2"/>
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
+      <c r="AA687" s="2"/>
     </row>
     <row r="688">
       <c r="A688" s="2"/>
@@ -19986,6 +20766,7 @@
       <c r="X688" s="2"/>
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
+      <c r="AA688" s="2"/>
     </row>
     <row r="689">
       <c r="A689" s="2"/>
@@ -20014,6 +20795,7 @@
       <c r="X689" s="2"/>
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
+      <c r="AA689" s="2"/>
     </row>
     <row r="690">
       <c r="A690" s="2"/>
@@ -20042,6 +20824,7 @@
       <c r="X690" s="2"/>
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
+      <c r="AA690" s="2"/>
     </row>
     <row r="691">
       <c r="A691" s="2"/>
@@ -20070,6 +20853,7 @@
       <c r="X691" s="2"/>
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
+      <c r="AA691" s="2"/>
     </row>
     <row r="692">
       <c r="A692" s="2"/>
@@ -20098,6 +20882,7 @@
       <c r="X692" s="2"/>
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
+      <c r="AA692" s="2"/>
     </row>
     <row r="693">
       <c r="A693" s="2"/>
@@ -20126,6 +20911,7 @@
       <c r="X693" s="2"/>
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
+      <c r="AA693" s="2"/>
     </row>
     <row r="694">
       <c r="A694" s="2"/>
@@ -20154,6 +20940,7 @@
       <c r="X694" s="2"/>
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
+      <c r="AA694" s="2"/>
     </row>
     <row r="695">
       <c r="A695" s="2"/>
@@ -20182,6 +20969,7 @@
       <c r="X695" s="2"/>
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
+      <c r="AA695" s="2"/>
     </row>
     <row r="696">
       <c r="A696" s="2"/>
@@ -20210,6 +20998,7 @@
       <c r="X696" s="2"/>
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
+      <c r="AA696" s="2"/>
     </row>
     <row r="697">
       <c r="A697" s="2"/>
@@ -20238,6 +21027,7 @@
       <c r="X697" s="2"/>
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
+      <c r="AA697" s="2"/>
     </row>
     <row r="698">
       <c r="A698" s="2"/>
@@ -20266,6 +21056,7 @@
       <c r="X698" s="2"/>
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
+      <c r="AA698" s="2"/>
     </row>
     <row r="699">
       <c r="A699" s="2"/>
@@ -20294,6 +21085,7 @@
       <c r="X699" s="2"/>
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
+      <c r="AA699" s="2"/>
     </row>
     <row r="700">
       <c r="A700" s="2"/>
@@ -20322,6 +21114,7 @@
       <c r="X700" s="2"/>
       <c r="Y700" s="2"/>
       <c r="Z700" s="2"/>
+      <c r="AA700" s="2"/>
     </row>
     <row r="701">
       <c r="A701" s="2"/>
@@ -20350,6 +21143,7 @@
       <c r="X701" s="2"/>
       <c r="Y701" s="2"/>
       <c r="Z701" s="2"/>
+      <c r="AA701" s="2"/>
     </row>
     <row r="702">
       <c r="A702" s="2"/>
@@ -20378,6 +21172,7 @@
       <c r="X702" s="2"/>
       <c r="Y702" s="2"/>
       <c r="Z702" s="2"/>
+      <c r="AA702" s="2"/>
     </row>
     <row r="703">
       <c r="A703" s="2"/>
@@ -20406,6 +21201,7 @@
       <c r="X703" s="2"/>
       <c r="Y703" s="2"/>
       <c r="Z703" s="2"/>
+      <c r="AA703" s="2"/>
     </row>
     <row r="704">
       <c r="A704" s="2"/>
@@ -20434,6 +21230,7 @@
       <c r="X704" s="2"/>
       <c r="Y704" s="2"/>
       <c r="Z704" s="2"/>
+      <c r="AA704" s="2"/>
     </row>
     <row r="705">
       <c r="A705" s="2"/>
@@ -20462,6 +21259,7 @@
       <c r="X705" s="2"/>
       <c r="Y705" s="2"/>
       <c r="Z705" s="2"/>
+      <c r="AA705" s="2"/>
     </row>
     <row r="706">
       <c r="A706" s="2"/>
@@ -20490,6 +21288,7 @@
       <c r="X706" s="2"/>
       <c r="Y706" s="2"/>
       <c r="Z706" s="2"/>
+      <c r="AA706" s="2"/>
     </row>
     <row r="707">
       <c r="A707" s="2"/>
@@ -20518,6 +21317,7 @@
       <c r="X707" s="2"/>
       <c r="Y707" s="2"/>
       <c r="Z707" s="2"/>
+      <c r="AA707" s="2"/>
     </row>
     <row r="708">
       <c r="A708" s="2"/>
@@ -20546,6 +21346,7 @@
       <c r="X708" s="2"/>
       <c r="Y708" s="2"/>
       <c r="Z708" s="2"/>
+      <c r="AA708" s="2"/>
     </row>
     <row r="709">
       <c r="A709" s="2"/>
@@ -20574,6 +21375,7 @@
       <c r="X709" s="2"/>
       <c r="Y709" s="2"/>
       <c r="Z709" s="2"/>
+      <c r="AA709" s="2"/>
     </row>
     <row r="710">
       <c r="A710" s="2"/>
@@ -20602,6 +21404,7 @@
       <c r="X710" s="2"/>
       <c r="Y710" s="2"/>
       <c r="Z710" s="2"/>
+      <c r="AA710" s="2"/>
     </row>
     <row r="711">
       <c r="A711" s="2"/>
@@ -20630,6 +21433,7 @@
       <c r="X711" s="2"/>
       <c r="Y711" s="2"/>
       <c r="Z711" s="2"/>
+      <c r="AA711" s="2"/>
     </row>
     <row r="712">
       <c r="A712" s="2"/>
@@ -20658,6 +21462,7 @@
       <c r="X712" s="2"/>
       <c r="Y712" s="2"/>
       <c r="Z712" s="2"/>
+      <c r="AA712" s="2"/>
     </row>
     <row r="713">
       <c r="A713" s="2"/>
@@ -20686,6 +21491,7 @@
       <c r="X713" s="2"/>
       <c r="Y713" s="2"/>
       <c r="Z713" s="2"/>
+      <c r="AA713" s="2"/>
     </row>
     <row r="714">
       <c r="A714" s="2"/>
@@ -20714,6 +21520,7 @@
       <c r="X714" s="2"/>
       <c r="Y714" s="2"/>
       <c r="Z714" s="2"/>
+      <c r="AA714" s="2"/>
     </row>
     <row r="715">
       <c r="A715" s="2"/>
@@ -20742,6 +21549,7 @@
       <c r="X715" s="2"/>
       <c r="Y715" s="2"/>
       <c r="Z715" s="2"/>
+      <c r="AA715" s="2"/>
     </row>
     <row r="716">
       <c r="A716" s="2"/>
@@ -20770,6 +21578,7 @@
       <c r="X716" s="2"/>
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
+      <c r="AA716" s="2"/>
     </row>
     <row r="717">
       <c r="A717" s="2"/>
@@ -20798,6 +21607,7 @@
       <c r="X717" s="2"/>
       <c r="Y717" s="2"/>
       <c r="Z717" s="2"/>
+      <c r="AA717" s="2"/>
     </row>
     <row r="718">
       <c r="A718" s="2"/>
@@ -20826,6 +21636,7 @@
       <c r="X718" s="2"/>
       <c r="Y718" s="2"/>
       <c r="Z718" s="2"/>
+      <c r="AA718" s="2"/>
     </row>
     <row r="719">
       <c r="A719" s="2"/>
@@ -20854,6 +21665,7 @@
       <c r="X719" s="2"/>
       <c r="Y719" s="2"/>
       <c r="Z719" s="2"/>
+      <c r="AA719" s="2"/>
     </row>
     <row r="720">
       <c r="A720" s="2"/>
@@ -20882,6 +21694,7 @@
       <c r="X720" s="2"/>
       <c r="Y720" s="2"/>
       <c r="Z720" s="2"/>
+      <c r="AA720" s="2"/>
     </row>
     <row r="721">
       <c r="A721" s="2"/>
@@ -20910,6 +21723,7 @@
       <c r="X721" s="2"/>
       <c r="Y721" s="2"/>
       <c r="Z721" s="2"/>
+      <c r="AA721" s="2"/>
     </row>
     <row r="722">
       <c r="A722" s="2"/>
@@ -20938,6 +21752,7 @@
       <c r="X722" s="2"/>
       <c r="Y722" s="2"/>
       <c r="Z722" s="2"/>
+      <c r="AA722" s="2"/>
     </row>
     <row r="723">
       <c r="A723" s="2"/>
@@ -20966,6 +21781,7 @@
       <c r="X723" s="2"/>
       <c r="Y723" s="2"/>
       <c r="Z723" s="2"/>
+      <c r="AA723" s="2"/>
     </row>
     <row r="724">
       <c r="A724" s="2"/>
@@ -20994,6 +21810,7 @@
       <c r="X724" s="2"/>
       <c r="Y724" s="2"/>
       <c r="Z724" s="2"/>
+      <c r="AA724" s="2"/>
     </row>
     <row r="725">
       <c r="A725" s="2"/>
@@ -21022,6 +21839,7 @@
       <c r="X725" s="2"/>
       <c r="Y725" s="2"/>
       <c r="Z725" s="2"/>
+      <c r="AA725" s="2"/>
     </row>
     <row r="726">
       <c r="A726" s="2"/>
@@ -21050,6 +21868,7 @@
       <c r="X726" s="2"/>
       <c r="Y726" s="2"/>
       <c r="Z726" s="2"/>
+      <c r="AA726" s="2"/>
     </row>
     <row r="727">
       <c r="A727" s="2"/>
@@ -21078,6 +21897,7 @@
       <c r="X727" s="2"/>
       <c r="Y727" s="2"/>
       <c r="Z727" s="2"/>
+      <c r="AA727" s="2"/>
     </row>
     <row r="728">
       <c r="A728" s="2"/>
@@ -21106,6 +21926,7 @@
       <c r="X728" s="2"/>
       <c r="Y728" s="2"/>
       <c r="Z728" s="2"/>
+      <c r="AA728" s="2"/>
     </row>
     <row r="729">
       <c r="A729" s="2"/>
@@ -21134,6 +21955,7 @@
       <c r="X729" s="2"/>
       <c r="Y729" s="2"/>
       <c r="Z729" s="2"/>
+      <c r="AA729" s="2"/>
     </row>
     <row r="730">
       <c r="A730" s="2"/>
@@ -21162,6 +21984,7 @@
       <c r="X730" s="2"/>
       <c r="Y730" s="2"/>
       <c r="Z730" s="2"/>
+      <c r="AA730" s="2"/>
     </row>
     <row r="731">
       <c r="A731" s="2"/>
@@ -21190,6 +22013,7 @@
       <c r="X731" s="2"/>
       <c r="Y731" s="2"/>
       <c r="Z731" s="2"/>
+      <c r="AA731" s="2"/>
     </row>
     <row r="732">
       <c r="A732" s="2"/>
@@ -21218,6 +22042,7 @@
       <c r="X732" s="2"/>
       <c r="Y732" s="2"/>
       <c r="Z732" s="2"/>
+      <c r="AA732" s="2"/>
     </row>
     <row r="733">
       <c r="A733" s="2"/>
@@ -21246,6 +22071,7 @@
       <c r="X733" s="2"/>
       <c r="Y733" s="2"/>
       <c r="Z733" s="2"/>
+      <c r="AA733" s="2"/>
     </row>
     <row r="734">
       <c r="A734" s="2"/>
@@ -21274,6 +22100,7 @@
       <c r="X734" s="2"/>
       <c r="Y734" s="2"/>
       <c r="Z734" s="2"/>
+      <c r="AA734" s="2"/>
     </row>
     <row r="735">
       <c r="A735" s="2"/>
@@ -21302,6 +22129,7 @@
       <c r="X735" s="2"/>
       <c r="Y735" s="2"/>
       <c r="Z735" s="2"/>
+      <c r="AA735" s="2"/>
     </row>
     <row r="736">
       <c r="A736" s="2"/>
@@ -21330,6 +22158,7 @@
       <c r="X736" s="2"/>
       <c r="Y736" s="2"/>
       <c r="Z736" s="2"/>
+      <c r="AA736" s="2"/>
     </row>
     <row r="737">
       <c r="A737" s="2"/>
@@ -21358,6 +22187,7 @@
       <c r="X737" s="2"/>
       <c r="Y737" s="2"/>
       <c r="Z737" s="2"/>
+      <c r="AA737" s="2"/>
     </row>
     <row r="738">
       <c r="A738" s="2"/>
@@ -21386,6 +22216,7 @@
       <c r="X738" s="2"/>
       <c r="Y738" s="2"/>
       <c r="Z738" s="2"/>
+      <c r="AA738" s="2"/>
     </row>
     <row r="739">
       <c r="A739" s="2"/>
@@ -21414,6 +22245,7 @@
       <c r="X739" s="2"/>
       <c r="Y739" s="2"/>
       <c r="Z739" s="2"/>
+      <c r="AA739" s="2"/>
     </row>
     <row r="740">
       <c r="A740" s="2"/>
@@ -21442,6 +22274,7 @@
       <c r="X740" s="2"/>
       <c r="Y740" s="2"/>
       <c r="Z740" s="2"/>
+      <c r="AA740" s="2"/>
     </row>
     <row r="741">
       <c r="A741" s="2"/>
@@ -21470,6 +22303,7 @@
       <c r="X741" s="2"/>
       <c r="Y741" s="2"/>
       <c r="Z741" s="2"/>
+      <c r="AA741" s="2"/>
     </row>
     <row r="742">
       <c r="A742" s="2"/>
@@ -21498,6 +22332,7 @@
       <c r="X742" s="2"/>
       <c r="Y742" s="2"/>
       <c r="Z742" s="2"/>
+      <c r="AA742" s="2"/>
     </row>
     <row r="743">
       <c r="A743" s="2"/>
@@ -21526,6 +22361,7 @@
       <c r="X743" s="2"/>
       <c r="Y743" s="2"/>
       <c r="Z743" s="2"/>
+      <c r="AA743" s="2"/>
     </row>
     <row r="744">
       <c r="A744" s="2"/>
@@ -21554,6 +22390,7 @@
       <c r="X744" s="2"/>
       <c r="Y744" s="2"/>
       <c r="Z744" s="2"/>
+      <c r="AA744" s="2"/>
     </row>
     <row r="745">
       <c r="A745" s="2"/>
@@ -21582,6 +22419,7 @@
       <c r="X745" s="2"/>
       <c r="Y745" s="2"/>
       <c r="Z745" s="2"/>
+      <c r="AA745" s="2"/>
     </row>
     <row r="746">
       <c r="A746" s="2"/>
@@ -21610,6 +22448,7 @@
       <c r="X746" s="2"/>
       <c r="Y746" s="2"/>
       <c r="Z746" s="2"/>
+      <c r="AA746" s="2"/>
     </row>
     <row r="747">
       <c r="A747" s="2"/>
@@ -21638,6 +22477,7 @@
       <c r="X747" s="2"/>
       <c r="Y747" s="2"/>
       <c r="Z747" s="2"/>
+      <c r="AA747" s="2"/>
     </row>
     <row r="748">
       <c r="A748" s="2"/>
@@ -21666,6 +22506,7 @@
       <c r="X748" s="2"/>
       <c r="Y748" s="2"/>
       <c r="Z748" s="2"/>
+      <c r="AA748" s="2"/>
     </row>
     <row r="749">
       <c r="A749" s="2"/>
@@ -21694,6 +22535,7 @@
       <c r="X749" s="2"/>
       <c r="Y749" s="2"/>
       <c r="Z749" s="2"/>
+      <c r="AA749" s="2"/>
     </row>
     <row r="750">
       <c r="A750" s="2"/>
@@ -21722,6 +22564,7 @@
       <c r="X750" s="2"/>
       <c r="Y750" s="2"/>
       <c r="Z750" s="2"/>
+      <c r="AA750" s="2"/>
     </row>
     <row r="751">
       <c r="A751" s="2"/>
@@ -21750,6 +22593,7 @@
       <c r="X751" s="2"/>
       <c r="Y751" s="2"/>
       <c r="Z751" s="2"/>
+      <c r="AA751" s="2"/>
     </row>
     <row r="752">
       <c r="A752" s="2"/>
@@ -21778,6 +22622,7 @@
       <c r="X752" s="2"/>
       <c r="Y752" s="2"/>
       <c r="Z752" s="2"/>
+      <c r="AA752" s="2"/>
     </row>
     <row r="753">
       <c r="A753" s="2"/>
@@ -21806,6 +22651,7 @@
       <c r="X753" s="2"/>
       <c r="Y753" s="2"/>
       <c r="Z753" s="2"/>
+      <c r="AA753" s="2"/>
     </row>
     <row r="754">
       <c r="A754" s="2"/>
@@ -21834,6 +22680,7 @@
       <c r="X754" s="2"/>
       <c r="Y754" s="2"/>
       <c r="Z754" s="2"/>
+      <c r="AA754" s="2"/>
     </row>
     <row r="755">
       <c r="A755" s="2"/>
@@ -21862,6 +22709,7 @@
       <c r="X755" s="2"/>
       <c r="Y755" s="2"/>
       <c r="Z755" s="2"/>
+      <c r="AA755" s="2"/>
     </row>
     <row r="756">
       <c r="A756" s="2"/>
@@ -21890,6 +22738,7 @@
       <c r="X756" s="2"/>
       <c r="Y756" s="2"/>
       <c r="Z756" s="2"/>
+      <c r="AA756" s="2"/>
     </row>
     <row r="757">
       <c r="A757" s="2"/>
@@ -21918,6 +22767,7 @@
       <c r="X757" s="2"/>
       <c r="Y757" s="2"/>
       <c r="Z757" s="2"/>
+      <c r="AA757" s="2"/>
     </row>
     <row r="758">
       <c r="A758" s="2"/>
@@ -21946,6 +22796,7 @@
       <c r="X758" s="2"/>
       <c r="Y758" s="2"/>
       <c r="Z758" s="2"/>
+      <c r="AA758" s="2"/>
     </row>
     <row r="759">
       <c r="A759" s="2"/>
@@ -21974,6 +22825,7 @@
       <c r="X759" s="2"/>
       <c r="Y759" s="2"/>
       <c r="Z759" s="2"/>
+      <c r="AA759" s="2"/>
     </row>
     <row r="760">
       <c r="A760" s="2"/>
@@ -22002,6 +22854,7 @@
       <c r="X760" s="2"/>
       <c r="Y760" s="2"/>
       <c r="Z760" s="2"/>
+      <c r="AA760" s="2"/>
     </row>
     <row r="761">
       <c r="A761" s="2"/>
@@ -22030,6 +22883,7 @@
       <c r="X761" s="2"/>
       <c r="Y761" s="2"/>
       <c r="Z761" s="2"/>
+      <c r="AA761" s="2"/>
     </row>
     <row r="762">
       <c r="A762" s="2"/>
@@ -22058,6 +22912,7 @@
       <c r="X762" s="2"/>
       <c r="Y762" s="2"/>
       <c r="Z762" s="2"/>
+      <c r="AA762" s="2"/>
     </row>
     <row r="763">
       <c r="A763" s="2"/>
@@ -22086,6 +22941,7 @@
       <c r="X763" s="2"/>
       <c r="Y763" s="2"/>
       <c r="Z763" s="2"/>
+      <c r="AA763" s="2"/>
     </row>
     <row r="764">
       <c r="A764" s="2"/>
@@ -22114,6 +22970,7 @@
       <c r="X764" s="2"/>
       <c r="Y764" s="2"/>
       <c r="Z764" s="2"/>
+      <c r="AA764" s="2"/>
     </row>
     <row r="765">
       <c r="A765" s="2"/>
@@ -22142,6 +22999,7 @@
       <c r="X765" s="2"/>
       <c r="Y765" s="2"/>
       <c r="Z765" s="2"/>
+      <c r="AA765" s="2"/>
     </row>
     <row r="766">
       <c r="A766" s="2"/>
@@ -22170,6 +23028,7 @@
       <c r="X766" s="2"/>
       <c r="Y766" s="2"/>
       <c r="Z766" s="2"/>
+      <c r="AA766" s="2"/>
     </row>
     <row r="767">
       <c r="A767" s="2"/>
@@ -22198,6 +23057,7 @@
       <c r="X767" s="2"/>
       <c r="Y767" s="2"/>
       <c r="Z767" s="2"/>
+      <c r="AA767" s="2"/>
     </row>
     <row r="768">
       <c r="A768" s="2"/>
@@ -22226,6 +23086,7 @@
       <c r="X768" s="2"/>
       <c r="Y768" s="2"/>
       <c r="Z768" s="2"/>
+      <c r="AA768" s="2"/>
     </row>
     <row r="769">
       <c r="A769" s="2"/>
@@ -22254,6 +23115,7 @@
       <c r="X769" s="2"/>
       <c r="Y769" s="2"/>
       <c r="Z769" s="2"/>
+      <c r="AA769" s="2"/>
     </row>
     <row r="770">
       <c r="A770" s="2"/>
@@ -22282,6 +23144,7 @@
       <c r="X770" s="2"/>
       <c r="Y770" s="2"/>
       <c r="Z770" s="2"/>
+      <c r="AA770" s="2"/>
     </row>
     <row r="771">
       <c r="A771" s="2"/>
@@ -22310,6 +23173,7 @@
       <c r="X771" s="2"/>
       <c r="Y771" s="2"/>
       <c r="Z771" s="2"/>
+      <c r="AA771" s="2"/>
     </row>
     <row r="772">
       <c r="A772" s="2"/>
@@ -22338,6 +23202,7 @@
       <c r="X772" s="2"/>
       <c r="Y772" s="2"/>
       <c r="Z772" s="2"/>
+      <c r="AA772" s="2"/>
     </row>
     <row r="773">
       <c r="A773" s="2"/>
@@ -22366,6 +23231,7 @@
       <c r="X773" s="2"/>
       <c r="Y773" s="2"/>
       <c r="Z773" s="2"/>
+      <c r="AA773" s="2"/>
     </row>
     <row r="774">
       <c r="A774" s="2"/>
@@ -22394,6 +23260,7 @@
       <c r="X774" s="2"/>
       <c r="Y774" s="2"/>
       <c r="Z774" s="2"/>
+      <c r="AA774" s="2"/>
     </row>
     <row r="775">
       <c r="A775" s="2"/>
@@ -22422,6 +23289,7 @@
       <c r="X775" s="2"/>
       <c r="Y775" s="2"/>
       <c r="Z775" s="2"/>
+      <c r="AA775" s="2"/>
     </row>
     <row r="776">
       <c r="A776" s="2"/>
@@ -22450,6 +23318,7 @@
       <c r="X776" s="2"/>
       <c r="Y776" s="2"/>
       <c r="Z776" s="2"/>
+      <c r="AA776" s="2"/>
     </row>
     <row r="777">
       <c r="A777" s="2"/>
@@ -22478,6 +23347,7 @@
       <c r="X777" s="2"/>
       <c r="Y777" s="2"/>
       <c r="Z777" s="2"/>
+      <c r="AA777" s="2"/>
     </row>
     <row r="778">
       <c r="A778" s="2"/>
@@ -22506,6 +23376,7 @@
       <c r="X778" s="2"/>
       <c r="Y778" s="2"/>
       <c r="Z778" s="2"/>
+      <c r="AA778" s="2"/>
     </row>
     <row r="779">
       <c r="A779" s="2"/>
@@ -22534,6 +23405,7 @@
       <c r="X779" s="2"/>
       <c r="Y779" s="2"/>
       <c r="Z779" s="2"/>
+      <c r="AA779" s="2"/>
     </row>
     <row r="780">
       <c r="A780" s="2"/>
@@ -22562,6 +23434,7 @@
       <c r="X780" s="2"/>
       <c r="Y780" s="2"/>
       <c r="Z780" s="2"/>
+      <c r="AA780" s="2"/>
     </row>
     <row r="781">
       <c r="A781" s="2"/>
@@ -22590,6 +23463,7 @@
       <c r="X781" s="2"/>
       <c r="Y781" s="2"/>
       <c r="Z781" s="2"/>
+      <c r="AA781" s="2"/>
     </row>
     <row r="782">
       <c r="A782" s="2"/>
@@ -22618,6 +23492,7 @@
       <c r="X782" s="2"/>
       <c r="Y782" s="2"/>
       <c r="Z782" s="2"/>
+      <c r="AA782" s="2"/>
     </row>
     <row r="783">
       <c r="A783" s="2"/>
@@ -22646,6 +23521,7 @@
       <c r="X783" s="2"/>
       <c r="Y783" s="2"/>
       <c r="Z783" s="2"/>
+      <c r="AA783" s="2"/>
     </row>
     <row r="784">
       <c r="A784" s="2"/>
@@ -22674,6 +23550,7 @@
       <c r="X784" s="2"/>
       <c r="Y784" s="2"/>
       <c r="Z784" s="2"/>
+      <c r="AA784" s="2"/>
     </row>
     <row r="785">
       <c r="A785" s="2"/>
@@ -22702,6 +23579,7 @@
       <c r="X785" s="2"/>
       <c r="Y785" s="2"/>
       <c r="Z785" s="2"/>
+      <c r="AA785" s="2"/>
     </row>
     <row r="786">
       <c r="A786" s="2"/>
@@ -22730,6 +23608,7 @@
       <c r="X786" s="2"/>
       <c r="Y786" s="2"/>
       <c r="Z786" s="2"/>
+      <c r="AA786" s="2"/>
     </row>
     <row r="787">
       <c r="A787" s="2"/>
@@ -22758,6 +23637,7 @@
       <c r="X787" s="2"/>
       <c r="Y787" s="2"/>
       <c r="Z787" s="2"/>
+      <c r="AA787" s="2"/>
     </row>
     <row r="788">
       <c r="A788" s="2"/>
@@ -22786,6 +23666,7 @@
       <c r="X788" s="2"/>
       <c r="Y788" s="2"/>
       <c r="Z788" s="2"/>
+      <c r="AA788" s="2"/>
     </row>
     <row r="789">
       <c r="A789" s="2"/>
@@ -22814,6 +23695,7 @@
       <c r="X789" s="2"/>
       <c r="Y789" s="2"/>
       <c r="Z789" s="2"/>
+      <c r="AA789" s="2"/>
     </row>
     <row r="790">
       <c r="A790" s="2"/>
@@ -22842,6 +23724,7 @@
       <c r="X790" s="2"/>
       <c r="Y790" s="2"/>
       <c r="Z790" s="2"/>
+      <c r="AA790" s="2"/>
     </row>
     <row r="791">
       <c r="A791" s="2"/>
@@ -22870,6 +23753,7 @@
       <c r="X791" s="2"/>
       <c r="Y791" s="2"/>
       <c r="Z791" s="2"/>
+      <c r="AA791" s="2"/>
     </row>
     <row r="792">
       <c r="A792" s="2"/>
@@ -22898,6 +23782,7 @@
       <c r="X792" s="2"/>
       <c r="Y792" s="2"/>
       <c r="Z792" s="2"/>
+      <c r="AA792" s="2"/>
     </row>
     <row r="793">
       <c r="A793" s="2"/>
@@ -22926,6 +23811,7 @@
       <c r="X793" s="2"/>
       <c r="Y793" s="2"/>
       <c r="Z793" s="2"/>
+      <c r="AA793" s="2"/>
     </row>
     <row r="794">
       <c r="A794" s="2"/>
@@ -22954,6 +23840,7 @@
       <c r="X794" s="2"/>
       <c r="Y794" s="2"/>
       <c r="Z794" s="2"/>
+      <c r="AA794" s="2"/>
     </row>
     <row r="795">
       <c r="A795" s="2"/>
@@ -22982,6 +23869,7 @@
       <c r="X795" s="2"/>
       <c r="Y795" s="2"/>
       <c r="Z795" s="2"/>
+      <c r="AA795" s="2"/>
     </row>
     <row r="796">
       <c r="A796" s="2"/>
@@ -23010,6 +23898,7 @@
       <c r="X796" s="2"/>
       <c r="Y796" s="2"/>
       <c r="Z796" s="2"/>
+      <c r="AA796" s="2"/>
     </row>
     <row r="797">
       <c r="A797" s="2"/>
@@ -23038,6 +23927,7 @@
       <c r="X797" s="2"/>
       <c r="Y797" s="2"/>
       <c r="Z797" s="2"/>
+      <c r="AA797" s="2"/>
     </row>
     <row r="798">
       <c r="A798" s="2"/>
@@ -23066,6 +23956,7 @@
       <c r="X798" s="2"/>
       <c r="Y798" s="2"/>
       <c r="Z798" s="2"/>
+      <c r="AA798" s="2"/>
     </row>
     <row r="799">
       <c r="A799" s="2"/>
@@ -23094,6 +23985,7 @@
       <c r="X799" s="2"/>
       <c r="Y799" s="2"/>
       <c r="Z799" s="2"/>
+      <c r="AA799" s="2"/>
     </row>
     <row r="800">
       <c r="A800" s="2"/>
@@ -23122,6 +24014,7 @@
       <c r="X800" s="2"/>
       <c r="Y800" s="2"/>
       <c r="Z800" s="2"/>
+      <c r="AA800" s="2"/>
     </row>
     <row r="801">
       <c r="A801" s="2"/>
@@ -23150,6 +24043,7 @@
       <c r="X801" s="2"/>
       <c r="Y801" s="2"/>
       <c r="Z801" s="2"/>
+      <c r="AA801" s="2"/>
     </row>
     <row r="802">
       <c r="A802" s="2"/>
@@ -23178,6 +24072,7 @@
       <c r="X802" s="2"/>
       <c r="Y802" s="2"/>
       <c r="Z802" s="2"/>
+      <c r="AA802" s="2"/>
     </row>
     <row r="803">
       <c r="A803" s="2"/>
@@ -23206,6 +24101,7 @@
       <c r="X803" s="2"/>
       <c r="Y803" s="2"/>
       <c r="Z803" s="2"/>
+      <c r="AA803" s="2"/>
     </row>
     <row r="804">
       <c r="A804" s="2"/>
@@ -23234,6 +24130,7 @@
       <c r="X804" s="2"/>
       <c r="Y804" s="2"/>
       <c r="Z804" s="2"/>
+      <c r="AA804" s="2"/>
     </row>
     <row r="805">
       <c r="A805" s="2"/>
@@ -23262,6 +24159,7 @@
       <c r="X805" s="2"/>
       <c r="Y805" s="2"/>
       <c r="Z805" s="2"/>
+      <c r="AA805" s="2"/>
     </row>
     <row r="806">
       <c r="A806" s="2"/>
@@ -23290,6 +24188,7 @@
       <c r="X806" s="2"/>
       <c r="Y806" s="2"/>
       <c r="Z806" s="2"/>
+      <c r="AA806" s="2"/>
     </row>
     <row r="807">
       <c r="A807" s="2"/>
@@ -23318,6 +24217,7 @@
       <c r="X807" s="2"/>
       <c r="Y807" s="2"/>
       <c r="Z807" s="2"/>
+      <c r="AA807" s="2"/>
     </row>
     <row r="808">
       <c r="A808" s="2"/>
@@ -23346,6 +24246,7 @@
       <c r="X808" s="2"/>
       <c r="Y808" s="2"/>
       <c r="Z808" s="2"/>
+      <c r="AA808" s="2"/>
     </row>
     <row r="809">
       <c r="A809" s="2"/>
@@ -23374,6 +24275,7 @@
       <c r="X809" s="2"/>
       <c r="Y809" s="2"/>
       <c r="Z809" s="2"/>
+      <c r="AA809" s="2"/>
     </row>
     <row r="810">
       <c r="A810" s="2"/>
@@ -23402,6 +24304,7 @@
       <c r="X810" s="2"/>
       <c r="Y810" s="2"/>
       <c r="Z810" s="2"/>
+      <c r="AA810" s="2"/>
     </row>
     <row r="811">
       <c r="A811" s="2"/>
@@ -23430,6 +24333,7 @@
       <c r="X811" s="2"/>
       <c r="Y811" s="2"/>
       <c r="Z811" s="2"/>
+      <c r="AA811" s="2"/>
     </row>
     <row r="812">
       <c r="A812" s="2"/>
@@ -23458,6 +24362,7 @@
       <c r="X812" s="2"/>
       <c r="Y812" s="2"/>
       <c r="Z812" s="2"/>
+      <c r="AA812" s="2"/>
     </row>
     <row r="813">
       <c r="A813" s="2"/>
@@ -23486,6 +24391,7 @@
       <c r="X813" s="2"/>
       <c r="Y813" s="2"/>
       <c r="Z813" s="2"/>
+      <c r="AA813" s="2"/>
     </row>
     <row r="814">
       <c r="A814" s="2"/>
@@ -23514,6 +24420,7 @@
       <c r="X814" s="2"/>
       <c r="Y814" s="2"/>
       <c r="Z814" s="2"/>
+      <c r="AA814" s="2"/>
     </row>
     <row r="815">
       <c r="A815" s="2"/>
@@ -23542,6 +24449,7 @@
       <c r="X815" s="2"/>
       <c r="Y815" s="2"/>
       <c r="Z815" s="2"/>
+      <c r="AA815" s="2"/>
     </row>
     <row r="816">
       <c r="A816" s="2"/>
@@ -23570,6 +24478,7 @@
       <c r="X816" s="2"/>
       <c r="Y816" s="2"/>
       <c r="Z816" s="2"/>
+      <c r="AA816" s="2"/>
     </row>
     <row r="817">
       <c r="A817" s="2"/>
@@ -23598,6 +24507,7 @@
       <c r="X817" s="2"/>
       <c r="Y817" s="2"/>
       <c r="Z817" s="2"/>
+      <c r="AA817" s="2"/>
     </row>
     <row r="818">
       <c r="A818" s="2"/>
@@ -23626,6 +24536,7 @@
       <c r="X818" s="2"/>
       <c r="Y818" s="2"/>
       <c r="Z818" s="2"/>
+      <c r="AA818" s="2"/>
     </row>
     <row r="819">
       <c r="A819" s="2"/>
@@ -23654,6 +24565,7 @@
       <c r="X819" s="2"/>
       <c r="Y819" s="2"/>
       <c r="Z819" s="2"/>
+      <c r="AA819" s="2"/>
     </row>
     <row r="820">
       <c r="A820" s="2"/>
@@ -23682,6 +24594,7 @@
       <c r="X820" s="2"/>
       <c r="Y820" s="2"/>
       <c r="Z820" s="2"/>
+      <c r="AA820" s="2"/>
     </row>
     <row r="821">
       <c r="A821" s="2"/>
@@ -23710,6 +24623,7 @@
       <c r="X821" s="2"/>
       <c r="Y821" s="2"/>
       <c r="Z821" s="2"/>
+      <c r="AA821" s="2"/>
     </row>
     <row r="822">
       <c r="A822" s="2"/>
@@ -23738,6 +24652,7 @@
       <c r="X822" s="2"/>
       <c r="Y822" s="2"/>
       <c r="Z822" s="2"/>
+      <c r="AA822" s="2"/>
     </row>
     <row r="823">
       <c r="A823" s="2"/>
@@ -23766,6 +24681,7 @@
       <c r="X823" s="2"/>
       <c r="Y823" s="2"/>
       <c r="Z823" s="2"/>
+      <c r="AA823" s="2"/>
     </row>
     <row r="824">
       <c r="A824" s="2"/>
@@ -23794,6 +24710,7 @@
       <c r="X824" s="2"/>
       <c r="Y824" s="2"/>
       <c r="Z824" s="2"/>
+      <c r="AA824" s="2"/>
     </row>
     <row r="825">
       <c r="A825" s="2"/>
@@ -23822,6 +24739,7 @@
       <c r="X825" s="2"/>
       <c r="Y825" s="2"/>
       <c r="Z825" s="2"/>
+      <c r="AA825" s="2"/>
     </row>
     <row r="826">
       <c r="A826" s="2"/>
@@ -23850,6 +24768,7 @@
       <c r="X826" s="2"/>
       <c r="Y826" s="2"/>
       <c r="Z826" s="2"/>
+      <c r="AA826" s="2"/>
     </row>
     <row r="827">
       <c r="A827" s="2"/>
@@ -23878,6 +24797,7 @@
       <c r="X827" s="2"/>
       <c r="Y827" s="2"/>
       <c r="Z827" s="2"/>
+      <c r="AA827" s="2"/>
     </row>
     <row r="828">
       <c r="A828" s="2"/>
@@ -23906,6 +24826,7 @@
       <c r="X828" s="2"/>
       <c r="Y828" s="2"/>
       <c r="Z828" s="2"/>
+      <c r="AA828" s="2"/>
     </row>
     <row r="829">
       <c r="A829" s="2"/>
@@ -23934,6 +24855,7 @@
       <c r="X829" s="2"/>
       <c r="Y829" s="2"/>
       <c r="Z829" s="2"/>
+      <c r="AA829" s="2"/>
     </row>
     <row r="830">
       <c r="A830" s="2"/>
@@ -23962,6 +24884,7 @@
       <c r="X830" s="2"/>
       <c r="Y830" s="2"/>
       <c r="Z830" s="2"/>
+      <c r="AA830" s="2"/>
     </row>
     <row r="831">
       <c r="A831" s="2"/>
@@ -23990,6 +24913,7 @@
       <c r="X831" s="2"/>
       <c r="Y831" s="2"/>
       <c r="Z831" s="2"/>
+      <c r="AA831" s="2"/>
     </row>
     <row r="832">
       <c r="A832" s="2"/>
@@ -24018,6 +24942,7 @@
       <c r="X832" s="2"/>
       <c r="Y832" s="2"/>
       <c r="Z832" s="2"/>
+      <c r="AA832" s="2"/>
     </row>
     <row r="833">
       <c r="A833" s="2"/>
@@ -24046,6 +24971,7 @@
       <c r="X833" s="2"/>
       <c r="Y833" s="2"/>
       <c r="Z833" s="2"/>
+      <c r="AA833" s="2"/>
     </row>
     <row r="834">
       <c r="A834" s="2"/>
@@ -24074,6 +25000,7 @@
       <c r="X834" s="2"/>
       <c r="Y834" s="2"/>
       <c r="Z834" s="2"/>
+      <c r="AA834" s="2"/>
     </row>
     <row r="835">
       <c r="A835" s="2"/>
@@ -24102,6 +25029,7 @@
       <c r="X835" s="2"/>
       <c r="Y835" s="2"/>
       <c r="Z835" s="2"/>
+      <c r="AA835" s="2"/>
     </row>
     <row r="836">
       <c r="A836" s="2"/>
@@ -24130,6 +25058,7 @@
       <c r="X836" s="2"/>
       <c r="Y836" s="2"/>
       <c r="Z836" s="2"/>
+      <c r="AA836" s="2"/>
     </row>
     <row r="837">
       <c r="A837" s="2"/>
@@ -24158,6 +25087,7 @@
       <c r="X837" s="2"/>
       <c r="Y837" s="2"/>
       <c r="Z837" s="2"/>
+      <c r="AA837" s="2"/>
     </row>
     <row r="838">
       <c r="A838" s="2"/>
@@ -24186,6 +25116,7 @@
       <c r="X838" s="2"/>
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
+      <c r="AA838" s="2"/>
     </row>
     <row r="839">
       <c r="A839" s="2"/>
@@ -24214,6 +25145,7 @@
       <c r="X839" s="2"/>
       <c r="Y839" s="2"/>
       <c r="Z839" s="2"/>
+      <c r="AA839" s="2"/>
     </row>
     <row r="840">
       <c r="A840" s="2"/>
@@ -24242,6 +25174,7 @@
       <c r="X840" s="2"/>
       <c r="Y840" s="2"/>
       <c r="Z840" s="2"/>
+      <c r="AA840" s="2"/>
     </row>
     <row r="841">
       <c r="A841" s="2"/>
@@ -24270,6 +25203,7 @@
       <c r="X841" s="2"/>
       <c r="Y841" s="2"/>
       <c r="Z841" s="2"/>
+      <c r="AA841" s="2"/>
     </row>
     <row r="842">
       <c r="A842" s="2"/>
@@ -24298,6 +25232,7 @@
       <c r="X842" s="2"/>
       <c r="Y842" s="2"/>
       <c r="Z842" s="2"/>
+      <c r="AA842" s="2"/>
     </row>
     <row r="843">
       <c r="A843" s="2"/>
@@ -24326,6 +25261,7 @@
       <c r="X843" s="2"/>
       <c r="Y843" s="2"/>
       <c r="Z843" s="2"/>
+      <c r="AA843" s="2"/>
     </row>
     <row r="844">
       <c r="A844" s="2"/>
@@ -24354,6 +25290,7 @@
       <c r="X844" s="2"/>
       <c r="Y844" s="2"/>
       <c r="Z844" s="2"/>
+      <c r="AA844" s="2"/>
     </row>
     <row r="845">
       <c r="A845" s="2"/>
@@ -24382,6 +25319,7 @@
       <c r="X845" s="2"/>
       <c r="Y845" s="2"/>
       <c r="Z845" s="2"/>
+      <c r="AA845" s="2"/>
     </row>
     <row r="846">
       <c r="A846" s="2"/>
@@ -24410,6 +25348,7 @@
       <c r="X846" s="2"/>
       <c r="Y846" s="2"/>
       <c r="Z846" s="2"/>
+      <c r="AA846" s="2"/>
     </row>
     <row r="847">
       <c r="A847" s="2"/>
@@ -24438,6 +25377,7 @@
       <c r="X847" s="2"/>
       <c r="Y847" s="2"/>
       <c r="Z847" s="2"/>
+      <c r="AA847" s="2"/>
     </row>
     <row r="848">
       <c r="A848" s="2"/>
@@ -24466,6 +25406,7 @@
       <c r="X848" s="2"/>
       <c r="Y848" s="2"/>
       <c r="Z848" s="2"/>
+      <c r="AA848" s="2"/>
     </row>
     <row r="849">
       <c r="A849" s="2"/>
@@ -24494,6 +25435,7 @@
       <c r="X849" s="2"/>
       <c r="Y849" s="2"/>
       <c r="Z849" s="2"/>
+      <c r="AA849" s="2"/>
     </row>
     <row r="850">
       <c r="A850" s="2"/>
@@ -24522,6 +25464,7 @@
       <c r="X850" s="2"/>
       <c r="Y850" s="2"/>
       <c r="Z850" s="2"/>
+      <c r="AA850" s="2"/>
     </row>
     <row r="851">
       <c r="A851" s="2"/>
@@ -24550,6 +25493,7 @@
       <c r="X851" s="2"/>
       <c r="Y851" s="2"/>
       <c r="Z851" s="2"/>
+      <c r="AA851" s="2"/>
     </row>
     <row r="852">
       <c r="A852" s="2"/>
@@ -24578,6 +25522,7 @@
       <c r="X852" s="2"/>
       <c r="Y852" s="2"/>
       <c r="Z852" s="2"/>
+      <c r="AA852" s="2"/>
     </row>
     <row r="853">
       <c r="A853" s="2"/>
@@ -24606,6 +25551,7 @@
       <c r="X853" s="2"/>
       <c r="Y853" s="2"/>
       <c r="Z853" s="2"/>
+      <c r="AA853" s="2"/>
     </row>
     <row r="854">
       <c r="A854" s="2"/>
@@ -24634,6 +25580,7 @@
       <c r="X854" s="2"/>
       <c r="Y854" s="2"/>
       <c r="Z854" s="2"/>
+      <c r="AA854" s="2"/>
     </row>
     <row r="855">
       <c r="A855" s="2"/>
@@ -24662,6 +25609,7 @@
       <c r="X855" s="2"/>
       <c r="Y855" s="2"/>
       <c r="Z855" s="2"/>
+      <c r="AA855" s="2"/>
     </row>
     <row r="856">
       <c r="A856" s="2"/>
@@ -24690,6 +25638,7 @@
       <c r="X856" s="2"/>
       <c r="Y856" s="2"/>
       <c r="Z856" s="2"/>
+      <c r="AA856" s="2"/>
     </row>
     <row r="857">
       <c r="A857" s="2"/>
@@ -24718,6 +25667,7 @@
       <c r="X857" s="2"/>
       <c r="Y857" s="2"/>
       <c r="Z857" s="2"/>
+      <c r="AA857" s="2"/>
     </row>
     <row r="858">
       <c r="A858" s="2"/>
@@ -24746,6 +25696,7 @@
       <c r="X858" s="2"/>
       <c r="Y858" s="2"/>
       <c r="Z858" s="2"/>
+      <c r="AA858" s="2"/>
     </row>
     <row r="859">
       <c r="A859" s="2"/>
@@ -24774,6 +25725,7 @@
       <c r="X859" s="2"/>
       <c r="Y859" s="2"/>
       <c r="Z859" s="2"/>
+      <c r="AA859" s="2"/>
     </row>
     <row r="860">
       <c r="A860" s="2"/>
@@ -24802,6 +25754,7 @@
       <c r="X860" s="2"/>
       <c r="Y860" s="2"/>
       <c r="Z860" s="2"/>
+      <c r="AA860" s="2"/>
     </row>
     <row r="861">
       <c r="A861" s="2"/>
@@ -24830,6 +25783,7 @@
       <c r="X861" s="2"/>
       <c r="Y861" s="2"/>
       <c r="Z861" s="2"/>
+      <c r="AA861" s="2"/>
     </row>
     <row r="862">
       <c r="A862" s="2"/>
@@ -24858,6 +25812,7 @@
       <c r="X862" s="2"/>
       <c r="Y862" s="2"/>
       <c r="Z862" s="2"/>
+      <c r="AA862" s="2"/>
     </row>
     <row r="863">
       <c r="A863" s="2"/>
@@ -24886,6 +25841,7 @@
       <c r="X863" s="2"/>
       <c r="Y863" s="2"/>
       <c r="Z863" s="2"/>
+      <c r="AA863" s="2"/>
     </row>
     <row r="864">
       <c r="A864" s="2"/>
@@ -24914,6 +25870,7 @@
       <c r="X864" s="2"/>
       <c r="Y864" s="2"/>
       <c r="Z864" s="2"/>
+      <c r="AA864" s="2"/>
     </row>
     <row r="865">
       <c r="A865" s="2"/>
@@ -24942,6 +25899,7 @@
       <c r="X865" s="2"/>
       <c r="Y865" s="2"/>
       <c r="Z865" s="2"/>
+      <c r="AA865" s="2"/>
     </row>
     <row r="866">
       <c r="A866" s="2"/>
@@ -24970,6 +25928,7 @@
       <c r="X866" s="2"/>
       <c r="Y866" s="2"/>
       <c r="Z866" s="2"/>
+      <c r="AA866" s="2"/>
     </row>
     <row r="867">
       <c r="A867" s="2"/>
@@ -24998,6 +25957,7 @@
       <c r="X867" s="2"/>
       <c r="Y867" s="2"/>
       <c r="Z867" s="2"/>
+      <c r="AA867" s="2"/>
     </row>
     <row r="868">
       <c r="A868" s="2"/>
@@ -25026,6 +25986,7 @@
       <c r="X868" s="2"/>
       <c r="Y868" s="2"/>
       <c r="Z868" s="2"/>
+      <c r="AA868" s="2"/>
     </row>
     <row r="869">
       <c r="A869" s="2"/>
@@ -25054,6 +26015,7 @@
       <c r="X869" s="2"/>
       <c r="Y869" s="2"/>
       <c r="Z869" s="2"/>
+      <c r="AA869" s="2"/>
     </row>
     <row r="870">
       <c r="A870" s="2"/>
@@ -25082,6 +26044,7 @@
       <c r="X870" s="2"/>
       <c r="Y870" s="2"/>
       <c r="Z870" s="2"/>
+      <c r="AA870" s="2"/>
     </row>
     <row r="871">
       <c r="A871" s="2"/>
@@ -25110,6 +26073,7 @@
       <c r="X871" s="2"/>
       <c r="Y871" s="2"/>
       <c r="Z871" s="2"/>
+      <c r="AA871" s="2"/>
     </row>
     <row r="872">
       <c r="A872" s="2"/>
@@ -25138,6 +26102,7 @@
       <c r="X872" s="2"/>
       <c r="Y872" s="2"/>
       <c r="Z872" s="2"/>
+      <c r="AA872" s="2"/>
     </row>
     <row r="873">
       <c r="A873" s="2"/>
@@ -25166,6 +26131,7 @@
       <c r="X873" s="2"/>
       <c r="Y873" s="2"/>
       <c r="Z873" s="2"/>
+      <c r="AA873" s="2"/>
     </row>
     <row r="874">
       <c r="A874" s="2"/>
@@ -25194,6 +26160,7 @@
       <c r="X874" s="2"/>
       <c r="Y874" s="2"/>
       <c r="Z874" s="2"/>
+      <c r="AA874" s="2"/>
     </row>
     <row r="875">
       <c r="A875" s="2"/>
@@ -25222,6 +26189,7 @@
       <c r="X875" s="2"/>
       <c r="Y875" s="2"/>
       <c r="Z875" s="2"/>
+      <c r="AA875" s="2"/>
     </row>
     <row r="876">
       <c r="A876" s="2"/>
@@ -25250,6 +26218,7 @@
       <c r="X876" s="2"/>
       <c r="Y876" s="2"/>
       <c r="Z876" s="2"/>
+      <c r="AA876" s="2"/>
     </row>
     <row r="877">
       <c r="A877" s="2"/>
@@ -25278,6 +26247,7 @@
       <c r="X877" s="2"/>
       <c r="Y877" s="2"/>
       <c r="Z877" s="2"/>
+      <c r="AA877" s="2"/>
     </row>
     <row r="878">
       <c r="A878" s="2"/>
@@ -25306,6 +26276,7 @@
       <c r="X878" s="2"/>
       <c r="Y878" s="2"/>
       <c r="Z878" s="2"/>
+      <c r="AA878" s="2"/>
     </row>
     <row r="879">
       <c r="A879" s="2"/>
@@ -25334,6 +26305,7 @@
       <c r="X879" s="2"/>
       <c r="Y879" s="2"/>
       <c r="Z879" s="2"/>
+      <c r="AA879" s="2"/>
     </row>
     <row r="880">
       <c r="A880" s="2"/>
@@ -25362,6 +26334,7 @@
       <c r="X880" s="2"/>
       <c r="Y880" s="2"/>
       <c r="Z880" s="2"/>
+      <c r="AA880" s="2"/>
     </row>
     <row r="881">
       <c r="A881" s="2"/>
@@ -25390,6 +26363,7 @@
       <c r="X881" s="2"/>
       <c r="Y881" s="2"/>
       <c r="Z881" s="2"/>
+      <c r="AA881" s="2"/>
     </row>
     <row r="882">
       <c r="A882" s="2"/>
@@ -25418,6 +26392,7 @@
       <c r="X882" s="2"/>
       <c r="Y882" s="2"/>
       <c r="Z882" s="2"/>
+      <c r="AA882" s="2"/>
     </row>
     <row r="883">
       <c r="A883" s="2"/>
@@ -25446,6 +26421,7 @@
       <c r="X883" s="2"/>
       <c r="Y883" s="2"/>
       <c r="Z883" s="2"/>
+      <c r="AA883" s="2"/>
     </row>
     <row r="884">
       <c r="A884" s="2"/>
@@ -25474,6 +26450,7 @@
       <c r="X884" s="2"/>
       <c r="Y884" s="2"/>
       <c r="Z884" s="2"/>
+      <c r="AA884" s="2"/>
     </row>
     <row r="885">
       <c r="A885" s="2"/>
@@ -25502,6 +26479,7 @@
       <c r="X885" s="2"/>
       <c r="Y885" s="2"/>
       <c r="Z885" s="2"/>
+      <c r="AA885" s="2"/>
     </row>
     <row r="886">
       <c r="A886" s="2"/>
@@ -25530,6 +26508,7 @@
       <c r="X886" s="2"/>
       <c r="Y886" s="2"/>
       <c r="Z886" s="2"/>
+      <c r="AA886" s="2"/>
     </row>
     <row r="887">
       <c r="A887" s="2"/>
@@ -25558,6 +26537,7 @@
       <c r="X887" s="2"/>
       <c r="Y887" s="2"/>
       <c r="Z887" s="2"/>
+      <c r="AA887" s="2"/>
     </row>
     <row r="888">
       <c r="A888" s="2"/>
@@ -25586,6 +26566,7 @@
       <c r="X888" s="2"/>
       <c r="Y888" s="2"/>
       <c r="Z888" s="2"/>
+      <c r="AA888" s="2"/>
     </row>
     <row r="889">
       <c r="A889" s="2"/>
@@ -25614,6 +26595,7 @@
       <c r="X889" s="2"/>
       <c r="Y889" s="2"/>
       <c r="Z889" s="2"/>
+      <c r="AA889" s="2"/>
     </row>
     <row r="890">
       <c r="A890" s="2"/>
@@ -25642,6 +26624,7 @@
       <c r="X890" s="2"/>
       <c r="Y890" s="2"/>
       <c r="Z890" s="2"/>
+      <c r="AA890" s="2"/>
     </row>
     <row r="891">
       <c r="A891" s="2"/>
@@ -25670,6 +26653,7 @@
       <c r="X891" s="2"/>
       <c r="Y891" s="2"/>
       <c r="Z891" s="2"/>
+      <c r="AA891" s="2"/>
     </row>
     <row r="892">
       <c r="A892" s="2"/>
@@ -25698,6 +26682,7 @@
       <c r="X892" s="2"/>
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
+      <c r="AA892" s="2"/>
     </row>
     <row r="893">
       <c r="A893" s="2"/>
@@ -25726,6 +26711,7 @@
       <c r="X893" s="2"/>
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
+      <c r="AA893" s="2"/>
     </row>
     <row r="894">
       <c r="A894" s="2"/>
@@ -25754,6 +26740,7 @@
       <c r="X894" s="2"/>
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
+      <c r="AA894" s="2"/>
     </row>
     <row r="895">
       <c r="A895" s="2"/>
@@ -25782,6 +26769,7 @@
       <c r="X895" s="2"/>
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
+      <c r="AA895" s="2"/>
     </row>
     <row r="896">
       <c r="A896" s="2"/>
@@ -25810,6 +26798,7 @@
       <c r="X896" s="2"/>
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
+      <c r="AA896" s="2"/>
     </row>
     <row r="897">
       <c r="A897" s="2"/>
@@ -25838,6 +26827,7 @@
       <c r="X897" s="2"/>
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
+      <c r="AA897" s="2"/>
     </row>
     <row r="898">
       <c r="A898" s="2"/>
@@ -25866,6 +26856,7 @@
       <c r="X898" s="2"/>
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
+      <c r="AA898" s="2"/>
     </row>
     <row r="899">
       <c r="A899" s="2"/>
@@ -25894,6 +26885,7 @@
       <c r="X899" s="2"/>
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
+      <c r="AA899" s="2"/>
     </row>
     <row r="900">
       <c r="A900" s="2"/>
@@ -25922,6 +26914,7 @@
       <c r="X900" s="2"/>
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
+      <c r="AA900" s="2"/>
     </row>
     <row r="901">
       <c r="A901" s="2"/>
@@ -25950,6 +26943,7 @@
       <c r="X901" s="2"/>
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
+      <c r="AA901" s="2"/>
     </row>
     <row r="902">
       <c r="A902" s="2"/>
@@ -25978,6 +26972,7 @@
       <c r="X902" s="2"/>
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
+      <c r="AA902" s="2"/>
     </row>
     <row r="903">
       <c r="A903" s="2"/>
@@ -26006,6 +27001,7 @@
       <c r="X903" s="2"/>
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
+      <c r="AA903" s="2"/>
     </row>
     <row r="904">
       <c r="A904" s="2"/>
@@ -26034,6 +27030,7 @@
       <c r="X904" s="2"/>
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
+      <c r="AA904" s="2"/>
     </row>
     <row r="905">
       <c r="A905" s="2"/>
@@ -26062,6 +27059,7 @@
       <c r="X905" s="2"/>
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
+      <c r="AA905" s="2"/>
     </row>
     <row r="906">
       <c r="A906" s="2"/>
@@ -26090,6 +27088,7 @@
       <c r="X906" s="2"/>
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
+      <c r="AA906" s="2"/>
     </row>
     <row r="907">
       <c r="A907" s="2"/>
@@ -26118,6 +27117,7 @@
       <c r="X907" s="2"/>
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
+      <c r="AA907" s="2"/>
     </row>
     <row r="908">
       <c r="A908" s="2"/>
@@ -26146,6 +27146,7 @@
       <c r="X908" s="2"/>
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
+      <c r="AA908" s="2"/>
     </row>
     <row r="909">
       <c r="A909" s="2"/>
@@ -26174,6 +27175,7 @@
       <c r="X909" s="2"/>
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
+      <c r="AA909" s="2"/>
     </row>
     <row r="910">
       <c r="A910" s="2"/>
@@ -26202,6 +27204,7 @@
       <c r="X910" s="2"/>
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
+      <c r="AA910" s="2"/>
     </row>
     <row r="911">
       <c r="A911" s="2"/>
@@ -26230,6 +27233,7 @@
       <c r="X911" s="2"/>
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
+      <c r="AA911" s="2"/>
     </row>
     <row r="912">
       <c r="A912" s="2"/>
@@ -26258,6 +27262,7 @@
       <c r="X912" s="2"/>
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
+      <c r="AA912" s="2"/>
     </row>
     <row r="913">
       <c r="A913" s="2"/>
@@ -26286,6 +27291,7 @@
       <c r="X913" s="2"/>
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
+      <c r="AA913" s="2"/>
     </row>
     <row r="914">
       <c r="A914" s="2"/>
@@ -26314,6 +27320,7 @@
       <c r="X914" s="2"/>
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
+      <c r="AA914" s="2"/>
     </row>
     <row r="915">
       <c r="A915" s="2"/>
@@ -26342,6 +27349,7 @@
       <c r="X915" s="2"/>
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
+      <c r="AA915" s="2"/>
     </row>
     <row r="916">
       <c r="A916" s="2"/>
@@ -26370,6 +27378,7 @@
       <c r="X916" s="2"/>
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
+      <c r="AA916" s="2"/>
     </row>
     <row r="917">
       <c r="A917" s="2"/>
@@ -26398,6 +27407,7 @@
       <c r="X917" s="2"/>
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
+      <c r="AA917" s="2"/>
     </row>
     <row r="918">
       <c r="A918" s="2"/>
@@ -26426,6 +27436,7 @@
       <c r="X918" s="2"/>
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
+      <c r="AA918" s="2"/>
     </row>
     <row r="919">
       <c r="A919" s="2"/>
@@ -26454,6 +27465,7 @@
       <c r="X919" s="2"/>
       <c r="Y919" s="2"/>
       <c r="Z919" s="2"/>
+      <c r="AA919" s="2"/>
     </row>
     <row r="920">
       <c r="A920" s="2"/>
@@ -26482,6 +27494,7 @@
       <c r="X920" s="2"/>
       <c r="Y920" s="2"/>
       <c r="Z920" s="2"/>
+      <c r="AA920" s="2"/>
     </row>
     <row r="921">
       <c r="A921" s="2"/>
@@ -26510,6 +27523,7 @@
       <c r="X921" s="2"/>
       <c r="Y921" s="2"/>
       <c r="Z921" s="2"/>
+      <c r="AA921" s="2"/>
     </row>
     <row r="922">
       <c r="A922" s="2"/>
@@ -26538,6 +27552,7 @@
       <c r="X922" s="2"/>
       <c r="Y922" s="2"/>
       <c r="Z922" s="2"/>
+      <c r="AA922" s="2"/>
     </row>
     <row r="923">
       <c r="A923" s="2"/>
@@ -26566,6 +27581,7 @@
       <c r="X923" s="2"/>
       <c r="Y923" s="2"/>
       <c r="Z923" s="2"/>
+      <c r="AA923" s="2"/>
     </row>
     <row r="924">
       <c r="A924" s="2"/>
@@ -26594,6 +27610,7 @@
       <c r="X924" s="2"/>
       <c r="Y924" s="2"/>
       <c r="Z924" s="2"/>
+      <c r="AA924" s="2"/>
     </row>
     <row r="925">
       <c r="A925" s="2"/>
@@ -26622,6 +27639,7 @@
       <c r="X925" s="2"/>
       <c r="Y925" s="2"/>
       <c r="Z925" s="2"/>
+      <c r="AA925" s="2"/>
     </row>
     <row r="926">
       <c r="A926" s="2"/>
@@ -26650,6 +27668,7 @@
       <c r="X926" s="2"/>
       <c r="Y926" s="2"/>
       <c r="Z926" s="2"/>
+      <c r="AA926" s="2"/>
     </row>
     <row r="927">
       <c r="A927" s="2"/>
@@ -26678,6 +27697,7 @@
       <c r="X927" s="2"/>
       <c r="Y927" s="2"/>
       <c r="Z927" s="2"/>
+      <c r="AA927" s="2"/>
     </row>
     <row r="928">
       <c r="A928" s="2"/>
@@ -26706,6 +27726,7 @@
       <c r="X928" s="2"/>
       <c r="Y928" s="2"/>
       <c r="Z928" s="2"/>
+      <c r="AA928" s="2"/>
     </row>
     <row r="929">
       <c r="A929" s="2"/>
@@ -26734,6 +27755,7 @@
       <c r="X929" s="2"/>
       <c r="Y929" s="2"/>
       <c r="Z929" s="2"/>
+      <c r="AA929" s="2"/>
     </row>
     <row r="930">
       <c r="A930" s="2"/>
@@ -26762,6 +27784,7 @@
       <c r="X930" s="2"/>
       <c r="Y930" s="2"/>
       <c r="Z930" s="2"/>
+      <c r="AA930" s="2"/>
     </row>
     <row r="931">
       <c r="A931" s="2"/>
@@ -26790,6 +27813,7 @@
       <c r="X931" s="2"/>
       <c r="Y931" s="2"/>
       <c r="Z931" s="2"/>
+      <c r="AA931" s="2"/>
     </row>
     <row r="932">
       <c r="A932" s="2"/>
@@ -26818,6 +27842,7 @@
       <c r="X932" s="2"/>
       <c r="Y932" s="2"/>
       <c r="Z932" s="2"/>
+      <c r="AA932" s="2"/>
     </row>
     <row r="933">
       <c r="A933" s="2"/>
@@ -26846,6 +27871,7 @@
       <c r="X933" s="2"/>
       <c r="Y933" s="2"/>
       <c r="Z933" s="2"/>
+      <c r="AA933" s="2"/>
     </row>
     <row r="934">
       <c r="A934" s="2"/>
@@ -26874,6 +27900,7 @@
       <c r="X934" s="2"/>
       <c r="Y934" s="2"/>
       <c r="Z934" s="2"/>
+      <c r="AA934" s="2"/>
     </row>
     <row r="935">
       <c r="A935" s="2"/>
@@ -26902,6 +27929,7 @@
       <c r="X935" s="2"/>
       <c r="Y935" s="2"/>
       <c r="Z935" s="2"/>
+      <c r="AA935" s="2"/>
     </row>
     <row r="936">
       <c r="A936" s="2"/>
@@ -26930,6 +27958,7 @@
       <c r="X936" s="2"/>
       <c r="Y936" s="2"/>
       <c r="Z936" s="2"/>
+      <c r="AA936" s="2"/>
     </row>
     <row r="937">
       <c r="A937" s="2"/>
@@ -26958,6 +27987,7 @@
       <c r="X937" s="2"/>
       <c r="Y937" s="2"/>
       <c r="Z937" s="2"/>
+      <c r="AA937" s="2"/>
     </row>
     <row r="938">
       <c r="A938" s="2"/>
@@ -26986,6 +28016,7 @@
       <c r="X938" s="2"/>
       <c r="Y938" s="2"/>
       <c r="Z938" s="2"/>
+      <c r="AA938" s="2"/>
     </row>
     <row r="939">
       <c r="A939" s="2"/>
@@ -27014,6 +28045,7 @@
       <c r="X939" s="2"/>
       <c r="Y939" s="2"/>
       <c r="Z939" s="2"/>
+      <c r="AA939" s="2"/>
     </row>
     <row r="940">
       <c r="A940" s="2"/>
@@ -27042,6 +28074,7 @@
       <c r="X940" s="2"/>
       <c r="Y940" s="2"/>
       <c r="Z940" s="2"/>
+      <c r="AA940" s="2"/>
     </row>
     <row r="941">
       <c r="A941" s="2"/>
@@ -27070,6 +28103,7 @@
       <c r="X941" s="2"/>
       <c r="Y941" s="2"/>
       <c r="Z941" s="2"/>
+      <c r="AA941" s="2"/>
     </row>
     <row r="942">
       <c r="A942" s="2"/>
@@ -27098,6 +28132,7 @@
       <c r="X942" s="2"/>
       <c r="Y942" s="2"/>
       <c r="Z942" s="2"/>
+      <c r="AA942" s="2"/>
     </row>
     <row r="943">
       <c r="A943" s="2"/>
@@ -27126,6 +28161,7 @@
       <c r="X943" s="2"/>
       <c r="Y943" s="2"/>
       <c r="Z943" s="2"/>
+      <c r="AA943" s="2"/>
     </row>
     <row r="944">
       <c r="A944" s="2"/>
@@ -27154,6 +28190,7 @@
       <c r="X944" s="2"/>
       <c r="Y944" s="2"/>
       <c r="Z944" s="2"/>
+      <c r="AA944" s="2"/>
     </row>
     <row r="945">
       <c r="A945" s="2"/>
@@ -27182,6 +28219,7 @@
       <c r="X945" s="2"/>
       <c r="Y945" s="2"/>
       <c r="Z945" s="2"/>
+      <c r="AA945" s="2"/>
     </row>
     <row r="946">
       <c r="A946" s="2"/>
@@ -27210,6 +28248,7 @@
       <c r="X946" s="2"/>
       <c r="Y946" s="2"/>
       <c r="Z946" s="2"/>
+      <c r="AA946" s="2"/>
     </row>
     <row r="947">
       <c r="A947" s="2"/>
@@ -27238,6 +28277,7 @@
       <c r="X947" s="2"/>
       <c r="Y947" s="2"/>
       <c r="Z947" s="2"/>
+      <c r="AA947" s="2"/>
     </row>
     <row r="948">
       <c r="A948" s="2"/>
@@ -27266,6 +28306,7 @@
       <c r="X948" s="2"/>
       <c r="Y948" s="2"/>
       <c r="Z948" s="2"/>
+      <c r="AA948" s="2"/>
     </row>
     <row r="949">
       <c r="A949" s="2"/>
@@ -27294,6 +28335,7 @@
       <c r="X949" s="2"/>
       <c r="Y949" s="2"/>
       <c r="Z949" s="2"/>
+      <c r="AA949" s="2"/>
     </row>
     <row r="950">
       <c r="A950" s="2"/>
@@ -27322,6 +28364,7 @@
       <c r="X950" s="2"/>
       <c r="Y950" s="2"/>
       <c r="Z950" s="2"/>
+      <c r="AA950" s="2"/>
     </row>
     <row r="951">
       <c r="A951" s="2"/>
@@ -27350,6 +28393,7 @@
       <c r="X951" s="2"/>
       <c r="Y951" s="2"/>
       <c r="Z951" s="2"/>
+      <c r="AA951" s="2"/>
     </row>
     <row r="952">
       <c r="A952" s="2"/>
@@ -27378,6 +28422,7 @@
       <c r="X952" s="2"/>
       <c r="Y952" s="2"/>
       <c r="Z952" s="2"/>
+      <c r="AA952" s="2"/>
     </row>
     <row r="953">
       <c r="A953" s="2"/>
@@ -27406,6 +28451,7 @@
       <c r="X953" s="2"/>
       <c r="Y953" s="2"/>
       <c r="Z953" s="2"/>
+      <c r="AA953" s="2"/>
     </row>
     <row r="954">
       <c r="A954" s="2"/>
@@ -27434,6 +28480,7 @@
       <c r="X954" s="2"/>
       <c r="Y954" s="2"/>
       <c r="Z954" s="2"/>
+      <c r="AA954" s="2"/>
     </row>
     <row r="955">
       <c r="A955" s="2"/>
@@ -27462,6 +28509,7 @@
       <c r="X955" s="2"/>
       <c r="Y955" s="2"/>
       <c r="Z955" s="2"/>
+      <c r="AA955" s="2"/>
     </row>
     <row r="956">
       <c r="A956" s="2"/>
@@ -27490,6 +28538,7 @@
       <c r="X956" s="2"/>
       <c r="Y956" s="2"/>
       <c r="Z956" s="2"/>
+      <c r="AA956" s="2"/>
     </row>
     <row r="957">
       <c r="A957" s="2"/>
@@ -27518,6 +28567,7 @@
       <c r="X957" s="2"/>
       <c r="Y957" s="2"/>
       <c r="Z957" s="2"/>
+      <c r="AA957" s="2"/>
     </row>
     <row r="958">
       <c r="A958" s="2"/>
@@ -27546,6 +28596,7 @@
       <c r="X958" s="2"/>
       <c r="Y958" s="2"/>
       <c r="Z958" s="2"/>
+      <c r="AA958" s="2"/>
     </row>
     <row r="959">
       <c r="A959" s="2"/>
@@ -27574,6 +28625,7 @@
       <c r="X959" s="2"/>
       <c r="Y959" s="2"/>
       <c r="Z959" s="2"/>
+      <c r="AA959" s="2"/>
     </row>
     <row r="960">
       <c r="A960" s="2"/>
@@ -27602,6 +28654,7 @@
       <c r="X960" s="2"/>
       <c r="Y960" s="2"/>
       <c r="Z960" s="2"/>
+      <c r="AA960" s="2"/>
     </row>
     <row r="961">
       <c r="A961" s="2"/>
@@ -27630,6 +28683,7 @@
       <c r="X961" s="2"/>
       <c r="Y961" s="2"/>
       <c r="Z961" s="2"/>
+      <c r="AA961" s="2"/>
     </row>
     <row r="962">
       <c r="A962" s="2"/>
@@ -27658,6 +28712,7 @@
       <c r="X962" s="2"/>
       <c r="Y962" s="2"/>
       <c r="Z962" s="2"/>
+      <c r="AA962" s="2"/>
     </row>
     <row r="963">
       <c r="A963" s="2"/>
@@ -27686,6 +28741,7 @@
       <c r="X963" s="2"/>
       <c r="Y963" s="2"/>
       <c r="Z963" s="2"/>
+      <c r="AA963" s="2"/>
     </row>
     <row r="964">
       <c r="A964" s="2"/>
@@ -27714,6 +28770,7 @@
       <c r="X964" s="2"/>
       <c r="Y964" s="2"/>
       <c r="Z964" s="2"/>
+      <c r="AA964" s="2"/>
     </row>
     <row r="965">
       <c r="A965" s="2"/>
@@ -27742,6 +28799,7 @@
       <c r="X965" s="2"/>
       <c r="Y965" s="2"/>
       <c r="Z965" s="2"/>
+      <c r="AA965" s="2"/>
     </row>
     <row r="966">
       <c r="A966" s="2"/>
@@ -27770,6 +28828,7 @@
       <c r="X966" s="2"/>
       <c r="Y966" s="2"/>
       <c r="Z966" s="2"/>
+      <c r="AA966" s="2"/>
     </row>
     <row r="967">
       <c r="A967" s="2"/>
@@ -27798,6 +28857,7 @@
       <c r="X967" s="2"/>
       <c r="Y967" s="2"/>
       <c r="Z967" s="2"/>
+      <c r="AA967" s="2"/>
     </row>
     <row r="968">
       <c r="A968" s="2"/>
@@ -27826,6 +28886,7 @@
       <c r="X968" s="2"/>
       <c r="Y968" s="2"/>
       <c r="Z968" s="2"/>
+      <c r="AA968" s="2"/>
     </row>
     <row r="969">
       <c r="A969" s="2"/>
@@ -27854,6 +28915,7 @@
       <c r="X969" s="2"/>
       <c r="Y969" s="2"/>
       <c r="Z969" s="2"/>
+      <c r="AA969" s="2"/>
     </row>
     <row r="970">
       <c r="A970" s="2"/>
@@ -27882,6 +28944,7 @@
       <c r="X970" s="2"/>
       <c r="Y970" s="2"/>
       <c r="Z970" s="2"/>
+      <c r="AA970" s="2"/>
     </row>
     <row r="971">
       <c r="A971" s="2"/>
@@ -27910,6 +28973,7 @@
       <c r="X971" s="2"/>
       <c r="Y971" s="2"/>
       <c r="Z971" s="2"/>
+      <c r="AA971" s="2"/>
     </row>
     <row r="972">
       <c r="A972" s="2"/>
@@ -27938,6 +29002,7 @@
       <c r="X972" s="2"/>
       <c r="Y972" s="2"/>
       <c r="Z972" s="2"/>
+      <c r="AA972" s="2"/>
     </row>
     <row r="973">
       <c r="A973" s="2"/>
@@ -27966,6 +29031,7 @@
       <c r="X973" s="2"/>
       <c r="Y973" s="2"/>
       <c r="Z973" s="2"/>
+      <c r="AA973" s="2"/>
     </row>
     <row r="974">
       <c r="A974" s="2"/>
@@ -27994,6 +29060,7 @@
       <c r="X974" s="2"/>
       <c r="Y974" s="2"/>
       <c r="Z974" s="2"/>
+      <c r="AA974" s="2"/>
     </row>
     <row r="975">
       <c r="A975" s="2"/>
@@ -28022,6 +29089,7 @@
       <c r="X975" s="2"/>
       <c r="Y975" s="2"/>
       <c r="Z975" s="2"/>
+      <c r="AA975" s="2"/>
     </row>
     <row r="976">
       <c r="A976" s="2"/>
@@ -28050,6 +29118,7 @@
       <c r="X976" s="2"/>
       <c r="Y976" s="2"/>
       <c r="Z976" s="2"/>
+      <c r="AA976" s="2"/>
     </row>
     <row r="977">
       <c r="A977" s="2"/>
@@ -28078,6 +29147,7 @@
       <c r="X977" s="2"/>
       <c r="Y977" s="2"/>
       <c r="Z977" s="2"/>
+      <c r="AA977" s="2"/>
     </row>
     <row r="978">
       <c r="A978" s="2"/>
@@ -28106,6 +29176,7 @@
       <c r="X978" s="2"/>
       <c r="Y978" s="2"/>
       <c r="Z978" s="2"/>
+      <c r="AA978" s="2"/>
     </row>
     <row r="979">
       <c r="A979" s="2"/>
@@ -28134,6 +29205,7 @@
       <c r="X979" s="2"/>
       <c r="Y979" s="2"/>
       <c r="Z979" s="2"/>
+      <c r="AA979" s="2"/>
     </row>
     <row r="980">
       <c r="A980" s="2"/>
@@ -28162,6 +29234,7 @@
       <c r="X980" s="2"/>
       <c r="Y980" s="2"/>
       <c r="Z980" s="2"/>
+      <c r="AA980" s="2"/>
     </row>
     <row r="981">
       <c r="A981" s="2"/>
@@ -28190,6 +29263,7 @@
       <c r="X981" s="2"/>
       <c r="Y981" s="2"/>
       <c r="Z981" s="2"/>
+      <c r="AA981" s="2"/>
     </row>
     <row r="982">
       <c r="A982" s="2"/>
@@ -28218,6 +29292,7 @@
       <c r="X982" s="2"/>
       <c r="Y982" s="2"/>
       <c r="Z982" s="2"/>
+      <c r="AA982" s="2"/>
     </row>
     <row r="983">
       <c r="A983" s="2"/>
@@ -28246,6 +29321,7 @@
       <c r="X983" s="2"/>
       <c r="Y983" s="2"/>
       <c r="Z983" s="2"/>
+      <c r="AA983" s="2"/>
     </row>
     <row r="984">
       <c r="A984" s="2"/>
@@ -28274,6 +29350,7 @@
       <c r="X984" s="2"/>
       <c r="Y984" s="2"/>
       <c r="Z984" s="2"/>
+      <c r="AA984" s="2"/>
     </row>
     <row r="985">
       <c r="A985" s="2"/>
@@ -28302,6 +29379,7 @@
       <c r="X985" s="2"/>
       <c r="Y985" s="2"/>
       <c r="Z985" s="2"/>
+      <c r="AA985" s="2"/>
     </row>
     <row r="986">
       <c r="A986" s="2"/>
@@ -28330,6 +29408,7 @@
       <c r="X986" s="2"/>
       <c r="Y986" s="2"/>
       <c r="Z986" s="2"/>
+      <c r="AA986" s="2"/>
     </row>
     <row r="987">
       <c r="A987" s="2"/>
@@ -28358,6 +29437,7 @@
       <c r="X987" s="2"/>
       <c r="Y987" s="2"/>
       <c r="Z987" s="2"/>
+      <c r="AA987" s="2"/>
     </row>
     <row r="988">
       <c r="A988" s="2"/>
@@ -28386,6 +29466,7 @@
       <c r="X988" s="2"/>
       <c r="Y988" s="2"/>
       <c r="Z988" s="2"/>
+      <c r="AA988" s="2"/>
     </row>
     <row r="989">
       <c r="A989" s="2"/>
@@ -28414,6 +29495,7 @@
       <c r="X989" s="2"/>
       <c r="Y989" s="2"/>
       <c r="Z989" s="2"/>
+      <c r="AA989" s="2"/>
     </row>
     <row r="990">
       <c r="A990" s="2"/>
@@ -28442,6 +29524,7 @@
       <c r="X990" s="2"/>
       <c r="Y990" s="2"/>
       <c r="Z990" s="2"/>
+      <c r="AA990" s="2"/>
     </row>
     <row r="991">
       <c r="A991" s="2"/>
@@ -28470,6 +29553,7 @@
       <c r="X991" s="2"/>
       <c r="Y991" s="2"/>
       <c r="Z991" s="2"/>
+      <c r="AA991" s="2"/>
     </row>
     <row r="992">
       <c r="A992" s="2"/>
@@ -28498,6 +29582,7 @@
       <c r="X992" s="2"/>
       <c r="Y992" s="2"/>
       <c r="Z992" s="2"/>
+      <c r="AA992" s="2"/>
     </row>
     <row r="993">
       <c r="A993" s="2"/>
@@ -28526,6 +29611,7 @@
       <c r="X993" s="2"/>
       <c r="Y993" s="2"/>
       <c r="Z993" s="2"/>
+      <c r="AA993" s="2"/>
     </row>
     <row r="994">
       <c r="A994" s="2"/>
@@ -28554,6 +29640,7 @@
       <c r="X994" s="2"/>
       <c r="Y994" s="2"/>
       <c r="Z994" s="2"/>
+      <c r="AA994" s="2"/>
     </row>
     <row r="995">
       <c r="A995" s="2"/>
@@ -28582,6 +29669,7 @@
       <c r="X995" s="2"/>
       <c r="Y995" s="2"/>
       <c r="Z995" s="2"/>
+      <c r="AA995" s="2"/>
     </row>
     <row r="996">
       <c r="A996" s="2"/>
@@ -28610,6 +29698,7 @@
       <c r="X996" s="2"/>
       <c r="Y996" s="2"/>
       <c r="Z996" s="2"/>
+      <c r="AA996" s="2"/>
     </row>
     <row r="997">
       <c r="A997" s="2"/>
@@ -28638,6 +29727,7 @@
       <c r="X997" s="2"/>
       <c r="Y997" s="2"/>
       <c r="Z997" s="2"/>
+      <c r="AA997" s="2"/>
     </row>
     <row r="998">
       <c r="A998" s="2"/>
@@ -28666,6 +29756,7 @@
       <c r="X998" s="2"/>
       <c r="Y998" s="2"/>
       <c r="Z998" s="2"/>
+      <c r="AA998" s="2"/>
     </row>
     <row r="999">
       <c r="A999" s="2"/>
@@ -28694,6 +29785,7 @@
       <c r="X999" s="2"/>
       <c r="Y999" s="2"/>
       <c r="Z999" s="2"/>
+      <c r="AA999" s="2"/>
     </row>
     <row r="1000">
       <c r="A1000" s="2"/>
@@ -28722,6 +29814,7 @@
       <c r="X1000" s="2"/>
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
+      <c r="AA1000" s="2"/>
     </row>
     <row r="1001">
       <c r="A1001" s="2"/>
@@ -28750,6 +29843,7 @@
       <c r="X1001" s="2"/>
       <c r="Y1001" s="2"/>
       <c r="Z1001" s="2"/>
+      <c r="AA1001" s="2"/>
     </row>
     <row r="1002">
       <c r="A1002" s="2"/>
@@ -28778,6 +29872,7 @@
       <c r="X1002" s="2"/>
       <c r="Y1002" s="2"/>
       <c r="Z1002" s="2"/>
+      <c r="AA1002" s="2"/>
     </row>
     <row r="1003">
       <c r="A1003" s="2"/>
@@ -28806,6 +29901,7 @@
       <c r="X1003" s="2"/>
       <c r="Y1003" s="2"/>
       <c r="Z1003" s="2"/>
+      <c r="AA1003" s="2"/>
     </row>
     <row r="1004">
       <c r="A1004" s="2"/>
@@ -28834,6 +29930,7 @@
       <c r="X1004" s="2"/>
       <c r="Y1004" s="2"/>
       <c r="Z1004" s="2"/>
+      <c r="AA1004" s="2"/>
     </row>
     <row r="1005">
       <c r="A1005" s="2"/>
@@ -28862,6 +29959,7 @@
       <c r="X1005" s="2"/>
       <c r="Y1005" s="2"/>
       <c r="Z1005" s="2"/>
+      <c r="AA1005" s="2"/>
     </row>
     <row r="1006">
       <c r="A1006" s="2"/>
@@ -28890,6 +29988,7 @@
       <c r="X1006" s="2"/>
       <c r="Y1006" s="2"/>
       <c r="Z1006" s="2"/>
+      <c r="AA1006" s="2"/>
     </row>
     <row r="1007">
       <c r="A1007" s="2"/>
@@ -28918,6 +30017,7 @@
       <c r="X1007" s="2"/>
       <c r="Y1007" s="2"/>
       <c r="Z1007" s="2"/>
+      <c r="AA1007" s="2"/>
     </row>
     <row r="1008">
       <c r="A1008" s="2"/>
@@ -28946,6 +30046,7 @@
       <c r="X1008" s="2"/>
       <c r="Y1008" s="2"/>
       <c r="Z1008" s="2"/>
+      <c r="AA1008" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
